--- a/Odría.xlsx
+++ b/Odría.xlsx
@@ -6,100 +6,60 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="df" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="eca" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ws</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">so2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h2s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co_1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
   <si>
-    <t xml:space="preserve">08-August</t>
+    <t xml:space="preserve">hr(%)</t>
   </si>
   <si>
-    <t xml:space="preserve">09-August</t>
+    <t xml:space="preserve">pm2.5 (ug/m3)</t>
   </si>
   <si>
-    <t xml:space="preserve">10-August</t>
+    <t xml:space="preserve">pm10 (ug/m3)</t>
   </si>
   <si>
-    <t xml:space="preserve">11-August</t>
+    <t xml:space="preserve">pres (mbar)</t>
   </si>
   <si>
-    <t xml:space="preserve">12-August</t>
+    <t xml:space="preserve">pp (mm)</t>
   </si>
   <si>
-    <t xml:space="preserve">13-August</t>
+    <t xml:space="preserve">temp (°C)</t>
   </si>
   <si>
-    <t xml:space="preserve">14-August</t>
+    <t xml:space="preserve">wd (°)</t>
   </si>
   <si>
-    <t xml:space="preserve">15-August</t>
+    <t xml:space="preserve">ws (m/s)</t>
   </si>
   <si>
-    <t xml:space="preserve">16-August</t>
+    <t xml:space="preserve">rad (kw/m2)</t>
   </si>
   <si>
-    <t xml:space="preserve">17-August</t>
+    <t xml:space="preserve">no (ppb)</t>
   </si>
   <si>
-    <t xml:space="preserve">18-August</t>
+    <t xml:space="preserve">no2 (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so2 (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2s (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o3 (ppb)</t>
   </si>
 </sst>
 </file>
@@ -488,9 +448,6 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -500,7 +457,7 @@
         <v>81.8</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-8.82533</v>
       </c>
       <c r="D2" t="n">
         <v>9.47533</v>
@@ -524,22 +481,23 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.845442216357559</v>
+        <v>0.6892068</v>
       </c>
       <c r="L2" t="n">
-        <v>19.0299915983007</v>
+        <v>10.11822</v>
       </c>
       <c r="M2" t="n">
-        <v>4.10460342737753</v>
+        <v>1.56721</v>
       </c>
       <c r="N2" t="n">
-        <v>1.49598206650974</v>
+        <v>1.073686</v>
       </c>
       <c r="O2" t="n">
-        <v>228.636926561666</v>
-      </c>
-      <c r="P2"/>
-      <c r="Q2"/>
+        <v>199.6642</v>
+      </c>
+      <c r="P2" t="n">
+        <v>13.22367</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -549,7 +507,7 @@
         <v>81.846</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-5.53006</v>
       </c>
       <c r="D3" t="n">
         <v>8.71533</v>
@@ -573,22 +531,23 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.805005280951995</v>
+        <v>0.6562425</v>
       </c>
       <c r="L3" t="n">
-        <v>16.0402113302162</v>
+        <v>8.528558</v>
       </c>
       <c r="M3" t="n">
-        <v>4.11298439161819</v>
+        <v>1.57041</v>
       </c>
       <c r="N3" t="n">
-        <v>1.43815255614033</v>
+        <v>1.032181</v>
       </c>
       <c r="O3" t="n">
-        <v>231.342242482107</v>
-      </c>
-      <c r="P3"/>
-      <c r="Q3"/>
+        <v>202.0267</v>
+      </c>
+      <c r="P3" t="n">
+        <v>13.59667</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -597,8 +556,12 @@
       <c r="B4" t="n">
         <v>82.78</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
+      <c r="C4" t="n">
+        <v>-10.3544</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.6152</v>
+      </c>
       <c r="E4" t="n">
         <v>938.7064</v>
       </c>
@@ -618,22 +581,23 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.687811119454819</v>
+        <v>0.5607055</v>
       </c>
       <c r="L4" t="n">
-        <v>15.7612957972434</v>
+        <v>8.380259</v>
       </c>
       <c r="M4" t="n">
-        <v>3.61675535608256</v>
+        <v>1.380941</v>
       </c>
       <c r="N4" t="n">
-        <v>2.39920503349009</v>
+        <v>1.721941</v>
       </c>
       <c r="O4" t="n">
-        <v>216.072237064511</v>
-      </c>
-      <c r="P4"/>
-      <c r="Q4"/>
+        <v>188.6917</v>
+      </c>
+      <c r="P4" t="n">
+        <v>13.5155</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -643,7 +607,7 @@
         <v>82.942</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-3.07551</v>
       </c>
       <c r="D5" t="n">
         <v>10.5104</v>
@@ -667,22 +631,23 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.802176659402267</v>
+        <v>0.6539366</v>
       </c>
       <c r="L5" t="n">
-        <v>16.6413338393811</v>
+        <v>8.848174</v>
       </c>
       <c r="M5" t="n">
-        <v>3.59304508443546</v>
+        <v>1.371888</v>
       </c>
       <c r="N5" t="n">
-        <v>3.43553688960744</v>
+        <v>2.46573</v>
       </c>
       <c r="O5" t="n">
-        <v>226.419197315903</v>
-      </c>
-      <c r="P5"/>
-      <c r="Q5"/>
+        <v>197.7275</v>
+      </c>
+      <c r="P5" t="n">
+        <v>12.58558</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -716,22 +681,23 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.03791765206264</v>
+        <v>0.8461133</v>
       </c>
       <c r="L6" t="n">
-        <v>18.2146104870427</v>
+        <v>9.684683</v>
       </c>
       <c r="M6" t="n">
-        <v>3.65275683559886</v>
+        <v>1.394687</v>
       </c>
       <c r="N6" t="n">
-        <v>3.60398162291931</v>
+        <v>2.586625</v>
       </c>
       <c r="O6" t="n">
-        <v>242.186408309225</v>
-      </c>
-      <c r="P6"/>
-      <c r="Q6"/>
+        <v>211.4967</v>
+      </c>
+      <c r="P6" t="n">
+        <v>11.71992</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -765,25 +731,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1.45697378231345</v>
+        <v>1.187729</v>
       </c>
       <c r="L7" t="n">
-        <v>18.1673242994757</v>
+        <v>9.659541</v>
       </c>
       <c r="M7" t="n">
-        <v>3.82675351038898</v>
+        <v>1.461122</v>
       </c>
       <c r="N7" t="n">
-        <v>4.05356931737657</v>
+        <v>2.9093</v>
       </c>
       <c r="O7" t="n">
-        <v>235.825337435979</v>
+        <v>205.9417</v>
       </c>
       <c r="P7" t="n">
-        <v>25.0566419978548</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>230.080391528232</v>
+        <v>11.97557</v>
       </c>
     </row>
     <row r="8">
@@ -818,25 +781,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.42399670910068</v>
+        <v>1.160846</v>
       </c>
       <c r="L8" t="n">
-        <v>20.7292625579225</v>
+        <v>11.02172</v>
       </c>
       <c r="M8" t="n">
-        <v>3.96884490193543</v>
+        <v>1.515375</v>
       </c>
       <c r="N8" t="n">
-        <v>3.18993180321166</v>
+        <v>2.289456</v>
       </c>
       <c r="O8" t="n">
-        <v>257.272165967414</v>
+        <v>224.6708</v>
       </c>
       <c r="P8" t="n">
-        <v>24.0496984970199</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>234.85293142919</v>
+        <v>10.14469</v>
       </c>
     </row>
     <row r="9">
@@ -871,25 +831,22 @@
         <v>0.003</v>
       </c>
       <c r="K9" t="n">
-        <v>3.72494828676207</v>
+        <v>3.036588</v>
       </c>
       <c r="L9" t="n">
-        <v>26.2477272827526</v>
+        <v>13.95588</v>
       </c>
       <c r="M9" t="n">
-        <v>3.88966312322045</v>
+        <v>1.485142</v>
       </c>
       <c r="N9" t="n">
-        <v>3.22855726246863</v>
+        <v>2.317178</v>
       </c>
       <c r="O9" t="n">
-        <v>293.16372110846</v>
+        <v>256.0142</v>
       </c>
       <c r="P9" t="n">
-        <v>23.3615023501402</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>241.364779530658</v>
+        <v>8.483199</v>
       </c>
     </row>
     <row r="10">
@@ -924,25 +881,22 @@
         <v>0.077</v>
       </c>
       <c r="K10" t="n">
-        <v>5.47814654441829</v>
+        <v>4.4658</v>
       </c>
       <c r="L10" t="n">
-        <v>27.4539933761368</v>
+        <v>14.59725</v>
       </c>
       <c r="M10" t="n">
-        <v>3.87688739085609</v>
+        <v>1.480264</v>
       </c>
       <c r="N10" t="n">
-        <v>2.77562282704265</v>
+        <v>1.992101</v>
       </c>
       <c r="O10" t="n">
-        <v>297.775640629972</v>
+        <v>260.0417</v>
       </c>
       <c r="P10" t="n">
-        <v>22.2174775140755</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>250.007118789196</v>
+        <v>8.559483</v>
       </c>
     </row>
     <row r="11">
@@ -977,25 +931,22 @@
         <v>0.179</v>
       </c>
       <c r="K11" t="n">
-        <v>10.0822454725734</v>
+        <v>8.219074</v>
       </c>
       <c r="L11" t="n">
-        <v>34.4513786614417</v>
+        <v>18.31775</v>
       </c>
       <c r="M11" t="n">
-        <v>3.41852198032898</v>
+        <v>1.305252</v>
       </c>
       <c r="N11" t="n">
-        <v>3.36672527585936</v>
+        <v>2.416343</v>
       </c>
       <c r="O11" t="n">
-        <v>350.001005840503</v>
+        <v>305.6491</v>
       </c>
       <c r="P11" t="n">
-        <v>21.0323010760551</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>264.839464208996</v>
+        <v>8.764708</v>
       </c>
     </row>
     <row r="12">
@@ -1030,25 +981,22 @@
         <v>0.245</v>
       </c>
       <c r="K12" t="n">
-        <v>12.0826583106176</v>
+        <v>9.849816</v>
       </c>
       <c r="L12" t="n">
-        <v>36.9716034383019</v>
+        <v>19.65775</v>
       </c>
       <c r="M12" t="n">
-        <v>4.35349711291459</v>
+        <v>1.662242</v>
       </c>
       <c r="N12" t="n">
-        <v>3.77080732500485</v>
+        <v>2.706358</v>
       </c>
       <c r="O12" t="n">
-        <v>374.917623904436</v>
+        <v>327.4083</v>
       </c>
       <c r="P12" t="n">
-        <v>20.1930168828929</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>284.695137563986</v>
+        <v>10.09374</v>
       </c>
     </row>
     <row r="13">
@@ -1083,25 +1031,22 @@
         <v>0.614</v>
       </c>
       <c r="K13" t="n">
-        <v>9.78804503364027</v>
+        <v>7.979241</v>
       </c>
       <c r="L13" t="n">
-        <v>24.9159013340674</v>
+        <v>13.24775</v>
       </c>
       <c r="M13" t="n">
-        <v>4.63005059949717</v>
+        <v>1.767835</v>
       </c>
       <c r="N13" t="n">
-        <v>4.11363509721093</v>
+        <v>2.95241</v>
       </c>
       <c r="O13" t="n">
-        <v>300.305297095515</v>
+        <v>262.2508</v>
       </c>
       <c r="P13" t="n">
-        <v>20.8253252584764</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>293.930900036438</v>
+        <v>15.1635</v>
       </c>
     </row>
     <row r="14">
@@ -1136,25 +1081,22 @@
         <v>0.879</v>
       </c>
       <c r="K14" t="n">
-        <v>7.63890722690249</v>
+        <v>6.227258</v>
       </c>
       <c r="L14" t="n">
-        <v>20.4157390726221</v>
+        <v>10.85502</v>
       </c>
       <c r="M14" t="n">
-        <v>4.67944328843924</v>
+        <v>1.786694</v>
       </c>
       <c r="N14" t="n">
-        <v>4.46905564413616</v>
+        <v>3.2075</v>
       </c>
       <c r="O14" t="n">
-        <v>269.655584984058</v>
+        <v>235.485</v>
       </c>
       <c r="P14" t="n">
-        <v>22.7282768782091</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>297.364547120792</v>
+        <v>19.47825</v>
       </c>
     </row>
     <row r="15">
@@ -1189,25 +1131,22 @@
         <v>0.843</v>
       </c>
       <c r="K15" t="n">
-        <v>4.74732587794678</v>
+        <v>3.870033</v>
       </c>
       <c r="L15" t="n">
-        <v>16.3376072577095</v>
+        <v>8.686683</v>
       </c>
       <c r="M15" t="n">
-        <v>5.49618920610237</v>
+        <v>2.098542</v>
       </c>
       <c r="N15" t="n">
-        <v>3.72960005433444</v>
+        <v>2.676783</v>
       </c>
       <c r="O15" t="n">
-        <v>228.529973542844</v>
+        <v>199.5708</v>
       </c>
       <c r="P15" t="n">
-        <v>25.144230953649</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>296.45262663415</v>
+        <v>21.82541</v>
       </c>
     </row>
     <row r="16">
@@ -1242,25 +1181,22 @@
         <v>0.737</v>
       </c>
       <c r="K16" t="n">
-        <v>3.09674503957194</v>
+        <v>2.524475</v>
       </c>
       <c r="L16" t="n">
-        <v>12.522931089452</v>
+        <v>6.658425</v>
       </c>
       <c r="M16" t="n">
-        <v>5.37754094296785</v>
+        <v>2.05324</v>
       </c>
       <c r="N16" t="n">
-        <v>2.725382699711</v>
+        <v>1.956043</v>
       </c>
       <c r="O16" t="n">
-        <v>190.057232109198</v>
+        <v>165.9733</v>
       </c>
       <c r="P16" t="n">
-        <v>28.3283482655946</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>288.050759901873</v>
+        <v>23.12633</v>
       </c>
     </row>
     <row r="17">
@@ -1295,25 +1231,22 @@
         <v>0.569</v>
       </c>
       <c r="K17" t="n">
-        <v>2.51589075079195</v>
+        <v>2.050961</v>
       </c>
       <c r="L17" t="n">
-        <v>11.1753010744983</v>
+        <v>5.941892</v>
       </c>
       <c r="M17" t="n">
-        <v>5.37108498145121</v>
+        <v>2.050775</v>
       </c>
       <c r="N17" t="n">
-        <v>1.96699893502991</v>
+        <v>1.411741</v>
       </c>
       <c r="O17" t="n">
-        <v>179.47357818553</v>
+        <v>156.7308</v>
       </c>
       <c r="P17" t="n">
-        <v>32.0903002941952</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>273.839492036507</v>
+        <v>23.82067</v>
       </c>
     </row>
     <row r="18">
@@ -1348,25 +1281,22 @@
         <v>0.348</v>
       </c>
       <c r="K18" t="n">
-        <v>2.61122163899852</v>
+        <v>2.128675</v>
       </c>
       <c r="L18" t="n">
-        <v>14.7280957962038</v>
+        <v>7.830908</v>
       </c>
       <c r="M18" t="n">
-        <v>5.22600787139403</v>
+        <v>1.995382</v>
       </c>
       <c r="N18" t="n">
-        <v>3.14289351216068</v>
+        <v>2.255696</v>
       </c>
       <c r="O18" t="n">
-        <v>201.276420566558</v>
+        <v>175.7708</v>
       </c>
       <c r="P18" t="n">
-        <v>36.0506522225632</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>261.77708952858</v>
+        <v>24.70583</v>
       </c>
     </row>
     <row r="19">
@@ -1401,25 +1331,22 @@
         <v>0.116</v>
       </c>
       <c r="K19" t="n">
-        <v>1.95805404940044</v>
+        <v>1.596211</v>
       </c>
       <c r="L19" t="n">
-        <v>15.2178939585276</v>
+        <v>8.091333</v>
       </c>
       <c r="M19" t="n">
-        <v>4.95813130185186</v>
+        <v>1.893102</v>
       </c>
       <c r="N19" t="n">
-        <v>3.23348262854877</v>
+        <v>2.320713</v>
       </c>
       <c r="O19" t="n">
-        <v>198.980480494396</v>
+        <v>173.7658</v>
       </c>
       <c r="P19" t="n">
-        <v>39.2601735203097</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>242.899523860317</v>
+        <v>21.84992</v>
       </c>
     </row>
     <row r="20">
@@ -1454,25 +1381,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.31408049185717</v>
+        <v>1.071242</v>
       </c>
       <c r="L20" t="n">
-        <v>19.4985277150256</v>
+        <v>10.36734</v>
       </c>
       <c r="M20" t="n">
-        <v>4.15541040403522</v>
+        <v>1.586609</v>
       </c>
       <c r="N20" t="n">
-        <v>2.18133108177405</v>
+        <v>1.56557</v>
       </c>
       <c r="O20" t="n">
-        <v>222.001946029936</v>
+        <v>193.87</v>
       </c>
       <c r="P20" t="n">
-        <v>41.3937114669595</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>223.785064126004</v>
+        <v>18.79217</v>
       </c>
     </row>
     <row r="21">
@@ -1507,25 +1431,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1.52031630842615</v>
+        <v>1.239366</v>
       </c>
       <c r="L21" t="n">
-        <v>24.4528382427908</v>
+        <v>13.00154</v>
       </c>
       <c r="M21" t="n">
-        <v>4.2532738758529</v>
+        <v>1.623975</v>
       </c>
       <c r="N21" t="n">
-        <v>1.23412870597533</v>
+        <v>0.8857504</v>
       </c>
       <c r="O21" t="n">
-        <v>247.679029830488</v>
+        <v>216.2933</v>
       </c>
       <c r="P21" t="n">
-        <v>41.690989020649</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>217.206780717876</v>
+        <v>16.3755</v>
       </c>
     </row>
     <row r="22">
@@ -1560,25 +1481,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.05886823624411</v>
+        <v>1.678395</v>
       </c>
       <c r="L22" t="n">
-        <v>27.7684008208739</v>
+        <v>14.76442</v>
       </c>
       <c r="M22" t="n">
-        <v>4.42380030763712</v>
+        <v>1.689085</v>
       </c>
       <c r="N22" t="n">
-        <v>2.9125981633854</v>
+        <v>2.09041</v>
       </c>
       <c r="O22" t="n">
-        <v>267.115393531651</v>
+        <v>233.2667</v>
       </c>
       <c r="P22" t="n">
-        <v>40.5421461788193</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>216.889256786325</v>
+        <v>14.79442</v>
       </c>
     </row>
     <row r="23">
@@ -1613,25 +1531,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.61848452767246</v>
+        <v>1.319393</v>
       </c>
       <c r="L23" t="n">
-        <v>27.0218876727908</v>
+        <v>14.3675</v>
       </c>
       <c r="M23" t="n">
-        <v>4.30505252055224</v>
+        <v>1.643745</v>
       </c>
       <c r="N23" t="n">
-        <v>4.75589865411713</v>
+        <v>3.413371</v>
       </c>
       <c r="O23" t="n">
-        <v>254.94381935957</v>
+        <v>222.6375</v>
       </c>
       <c r="P23" t="n">
-        <v>38.704154119581</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>220.190987513416</v>
+        <v>14.33192</v>
       </c>
     </row>
     <row r="24">
@@ -1666,25 +1581,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1.44623534914361</v>
+        <v>1.178975</v>
       </c>
       <c r="L24" t="n">
-        <v>29.198402689971</v>
+        <v>15.52475</v>
       </c>
       <c r="M24" t="n">
-        <v>4.82333134919479</v>
+        <v>1.841633</v>
       </c>
       <c r="N24" t="n">
-        <v>3.61658415083863</v>
+        <v>2.59567</v>
       </c>
       <c r="O24" t="n">
-        <v>281.622872019544</v>
+        <v>245.9358</v>
       </c>
       <c r="P24" t="n">
-        <v>36.2701132068399</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>231.636692502209</v>
+        <v>13.20275</v>
       </c>
     </row>
     <row r="25">
@@ -1719,25 +1631,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.16533184807103</v>
+        <v>0.9499817</v>
       </c>
       <c r="L25" t="n">
-        <v>35.7320101933909</v>
+        <v>18.99866</v>
       </c>
       <c r="M25" t="n">
-        <v>4.38695811264544</v>
+        <v>1.675018</v>
       </c>
       <c r="N25" t="n">
-        <v>3.97619439388917</v>
+        <v>2.853767</v>
       </c>
       <c r="O25" t="n">
-        <v>327.076988933463</v>
+        <v>285.63</v>
       </c>
       <c r="P25" t="n">
-        <v>32.9029715237825</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>250.087118845701</v>
+        <v>10.09284</v>
       </c>
     </row>
     <row r="26">
@@ -1772,25 +1681,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2.80728452590365</v>
+        <v>2.288506</v>
       </c>
       <c r="L26" t="n">
-        <v>31.1904522996032</v>
+        <v>16.58392</v>
       </c>
       <c r="M26" t="n">
-        <v>4.2798310562905</v>
+        <v>1.634115</v>
       </c>
       <c r="N26" t="n">
-        <v>3.55888839864283</v>
+        <v>2.554261</v>
       </c>
       <c r="O26" t="n">
-        <v>375.093168848607</v>
+        <v>327.5616</v>
       </c>
       <c r="P26" t="n">
-        <v>28.7927115022822</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>271.814212380957</v>
+        <v>7.948308</v>
       </c>
     </row>
     <row r="27">
@@ -1825,25 +1731,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1.35275185416914</v>
+        <v>1.102767</v>
       </c>
       <c r="L27" t="n">
-        <v>31.270535263035</v>
+        <v>16.6265</v>
       </c>
       <c r="M27" t="n">
-        <v>4.53299117643632</v>
+        <v>1.730776</v>
       </c>
       <c r="N27" t="n">
-        <v>3.02230215877019</v>
+        <v>2.169146</v>
       </c>
       <c r="O27" t="n">
-        <v>501.257308773074</v>
+        <v>437.7383</v>
       </c>
       <c r="P27" t="n">
-        <v>25.4241781089611</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>309.598815915791</v>
+        <v>8.116416</v>
       </c>
     </row>
     <row r="28">
@@ -1878,25 +1781,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.847814019023069</v>
+        <v>0.6911403</v>
       </c>
       <c r="L28" t="n">
-        <v>29.9149740630932</v>
+        <v>15.90575</v>
       </c>
       <c r="M28" t="n">
-        <v>4.84510876096388</v>
+        <v>1.849948</v>
       </c>
       <c r="N28" t="n">
-        <v>3.26271436273863</v>
+        <v>2.341693</v>
       </c>
       <c r="O28" t="n">
-        <v>386.329533914985</v>
+        <v>337.3741</v>
       </c>
       <c r="P28" t="n">
-        <v>22.9622370110264</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>330.139764401423</v>
+        <v>8.754841</v>
       </c>
     </row>
     <row r="29">
@@ -1931,25 +1831,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.873136554541101</v>
+        <v>0.7117833</v>
       </c>
       <c r="L29" t="n">
-        <v>27.4035324576568</v>
+        <v>14.57042</v>
       </c>
       <c r="M29" t="n">
-        <v>4.78673010692502</v>
+        <v>1.827658</v>
       </c>
       <c r="N29" t="n">
-        <v>3.06944773502292</v>
+        <v>2.202983</v>
       </c>
       <c r="O29" t="n">
-        <v>349.558307370729</v>
+        <v>305.2625</v>
       </c>
       <c r="P29" t="n">
-        <v>21.1129555178246</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>342.874674093953</v>
+        <v>8.835983</v>
       </c>
     </row>
     <row r="30">
@@ -1984,25 +1881,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.807989937308577</v>
+        <v>0.6586756</v>
       </c>
       <c r="L30" t="n">
-        <v>20.9471491552354</v>
+        <v>11.13757</v>
       </c>
       <c r="M30" t="n">
-        <v>3.80403585919413</v>
+        <v>1.452448</v>
       </c>
       <c r="N30" t="n">
-        <v>2.79214335479714</v>
+        <v>2.003958</v>
       </c>
       <c r="O30" t="n">
-        <v>293.14265113473</v>
+        <v>255.9958</v>
       </c>
       <c r="P30" t="n">
-        <v>20.015510787691</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>346.128081294338</v>
+        <v>10.32014</v>
       </c>
     </row>
     <row r="31">
@@ -2037,25 +1931,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.27271041433231</v>
+        <v>1.037517</v>
       </c>
       <c r="L31" t="n">
-        <v>20.7025180830516</v>
+        <v>11.0075</v>
       </c>
       <c r="M31" t="n">
-        <v>4.15792469330742</v>
+        <v>1.587569</v>
       </c>
       <c r="N31" t="n">
-        <v>2.41001575920883</v>
+        <v>1.7297</v>
       </c>
       <c r="O31" t="n">
-        <v>282.026522331483</v>
+        <v>246.2883</v>
       </c>
       <c r="P31" t="n">
-        <v>19.0402196609307</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>349.513419165827</v>
+        <v>10.35566</v>
       </c>
     </row>
     <row r="32">
@@ -2090,25 +1981,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1.61950145263223</v>
+        <v>1.320222</v>
       </c>
       <c r="L32" t="n">
-        <v>21.6196165947625</v>
+        <v>11.49512</v>
       </c>
       <c r="M32" t="n">
-        <v>4.26137983970442</v>
+        <v>1.62707</v>
       </c>
       <c r="N32" t="n">
-        <v>2.33548459022484</v>
+        <v>1.676208</v>
       </c>
       <c r="O32" t="n">
-        <v>286.20146891956</v>
+        <v>249.9342</v>
       </c>
       <c r="P32" t="n">
-        <v>18.2239183094006</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>350.085743778329</v>
+        <v>9.874691</v>
       </c>
     </row>
     <row r="33">
@@ -2143,25 +2031,22 @@
         <v>0.016</v>
       </c>
       <c r="K33" t="n">
-        <v>2.87417095576637</v>
+        <v>2.343032</v>
       </c>
       <c r="L33" t="n">
-        <v>29.6626318553982</v>
+        <v>15.77158</v>
       </c>
       <c r="M33" t="n">
-        <v>4.08689078326516</v>
+        <v>1.560447</v>
       </c>
       <c r="N33" t="n">
-        <v>2.63949462579939</v>
+        <v>1.8944</v>
       </c>
       <c r="O33" t="n">
-        <v>331.048564470759</v>
+        <v>289.0983</v>
       </c>
       <c r="P33" t="n">
-        <v>17.5859614150185</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>350.582190720491</v>
+        <v>7.491891</v>
       </c>
     </row>
     <row r="34">
@@ -2196,25 +2081,22 @@
         <v>0.166</v>
       </c>
       <c r="K34" t="n">
-        <v>10.2721270749523</v>
+        <v>8.373866</v>
       </c>
       <c r="L34" t="n">
-        <v>33.3315337087266</v>
+        <v>17.72233</v>
       </c>
       <c r="M34" t="n">
-        <v>4.70894428256638</v>
+        <v>1.797958</v>
       </c>
       <c r="N34" t="n">
-        <v>2.2457342490504</v>
+        <v>1.611793</v>
       </c>
       <c r="O34" t="n">
-        <v>387.136834538862</v>
+        <v>338.0791</v>
       </c>
       <c r="P34" t="n">
-        <v>17.575649415916</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>352.087648931773</v>
+        <v>7.906266</v>
       </c>
     </row>
     <row r="35">
@@ -2249,25 +2131,22 @@
         <v>0.432</v>
       </c>
       <c r="K35" t="n">
-        <v>19.7191195201862</v>
+        <v>16.07508</v>
       </c>
       <c r="L35" t="n">
-        <v>39.585076531906</v>
+        <v>21.04733</v>
       </c>
       <c r="M35" t="n">
-        <v>4.86257521425169</v>
+        <v>1.856617</v>
       </c>
       <c r="N35" t="n">
-        <v>2.10894979676789</v>
+        <v>1.513621</v>
       </c>
       <c r="O35" t="n">
-        <v>436.659975618577</v>
+        <v>381.3267</v>
       </c>
       <c r="P35" t="n">
-        <v>17.8371879285222</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>344.012982287461</v>
+        <v>9.182708</v>
       </c>
     </row>
     <row r="36">
@@ -2302,25 +2181,22 @@
         <v>0.717</v>
       </c>
       <c r="K36" t="n">
-        <v>19.8986331493927</v>
+        <v>16.22142</v>
       </c>
       <c r="L36" t="n">
-        <v>40.9003705583608</v>
+        <v>21.74667</v>
       </c>
       <c r="M36" t="n">
-        <v>4.62391678129353</v>
+        <v>1.765493</v>
       </c>
       <c r="N36" t="n">
-        <v>2.59946888566249</v>
+        <v>1.865673</v>
       </c>
       <c r="O36" t="n">
-        <v>434.720850971096</v>
+        <v>379.6333</v>
       </c>
       <c r="P36" t="n">
-        <v>19.1083828040395</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>350.061896919475</v>
+        <v>13.9375</v>
       </c>
     </row>
     <row r="37">
@@ -2355,25 +2231,22 @@
         <v>0.843</v>
       </c>
       <c r="K37" t="n">
-        <v>12.1565356395704</v>
+        <v>9.910041</v>
       </c>
       <c r="L37" t="n">
-        <v>34.0506253066257</v>
+        <v>18.10467</v>
       </c>
       <c r="M37" t="n">
-        <v>4.91132099751644</v>
+        <v>1.875229</v>
       </c>
       <c r="N37" t="n">
-        <v>2.12467056210937</v>
+        <v>1.524904</v>
       </c>
       <c r="O37" t="n">
-        <v>356.63507028642</v>
+        <v>311.4425</v>
       </c>
       <c r="P37" t="n">
-        <v>21.859469982512</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>350.946492283936</v>
+        <v>20.05216</v>
       </c>
     </row>
     <row r="38">
@@ -2408,25 +2281,22 @@
         <v>0.885</v>
       </c>
       <c r="K38" t="n">
-        <v>7.77095045551423</v>
+        <v>6.3349</v>
       </c>
       <c r="L38" t="n">
-        <v>28.2956356057226</v>
+        <v>15.04475</v>
       </c>
       <c r="M38" t="n">
-        <v>4.08928983427904</v>
+        <v>1.561363</v>
       </c>
       <c r="N38" t="n">
-        <v>1.55835238821016</v>
+        <v>1.11845</v>
       </c>
       <c r="O38" t="n">
-        <v>304.212975647261</v>
+        <v>265.6633</v>
       </c>
       <c r="P38" t="n">
-        <v>25.5068080238472</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>352.330282848002</v>
+        <v>25.19033</v>
       </c>
     </row>
     <row r="39">
@@ -2461,25 +2331,22 @@
         <v>0.845</v>
       </c>
       <c r="K39" t="n">
-        <v>6.35043508903818</v>
+        <v>5.176892</v>
       </c>
       <c r="L39" t="n">
-        <v>30.8116286618754</v>
+        <v>16.3825</v>
       </c>
       <c r="M39" t="n">
-        <v>5.40876003476431</v>
+        <v>2.06516</v>
       </c>
       <c r="N39" t="n">
-        <v>2.38748168689936</v>
+        <v>1.713527</v>
       </c>
       <c r="O39" t="n">
-        <v>322.884865736367</v>
+        <v>281.9691</v>
       </c>
       <c r="P39" t="n">
-        <v>30.3809237006667</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>357.437575773613</v>
+        <v>30.22742</v>
       </c>
     </row>
     <row r="40">
@@ -2514,25 +2381,22 @@
         <v>0.742</v>
       </c>
       <c r="K40" t="n">
-        <v>4.81240171523941</v>
+        <v>3.923083</v>
       </c>
       <c r="L40" t="n">
-        <v>23.5601144423546</v>
+        <v>12.52688</v>
       </c>
       <c r="M40" t="n">
-        <v>7.0372678154187</v>
+        <v>2.686953</v>
       </c>
       <c r="N40" t="n">
-        <v>3.60527043865457</v>
+        <v>2.58755</v>
       </c>
       <c r="O40" t="n">
-        <v>265.738402041988</v>
+        <v>232.0642</v>
       </c>
       <c r="P40" t="n">
-        <v>35.3677985686616</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>354.879692413916</v>
+        <v>30.20617</v>
       </c>
     </row>
     <row r="41">
@@ -2567,25 +2431,22 @@
         <v>0.575</v>
       </c>
       <c r="K41" t="n">
-        <v>3.53488758782815</v>
+        <v>2.88165</v>
       </c>
       <c r="L41" t="n">
-        <v>17.6232660738591</v>
+        <v>9.370266</v>
       </c>
       <c r="M41" t="n">
-        <v>8.08134476905846</v>
+        <v>3.0856</v>
       </c>
       <c r="N41" t="n">
-        <v>4.86820536062998</v>
+        <v>3.493975</v>
       </c>
       <c r="O41" t="n">
-        <v>223.796901672386</v>
+        <v>195.4375</v>
       </c>
       <c r="P41" t="n">
-        <v>40.7131185450813</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>341.47323456412</v>
+        <v>29.28475</v>
       </c>
     </row>
     <row r="42">
@@ -2620,25 +2481,22 @@
         <v>0.355</v>
       </c>
       <c r="K42" t="n">
-        <v>3.44021788484874</v>
+        <v>2.804475</v>
       </c>
       <c r="L42" t="n">
-        <v>16.5605549929884</v>
+        <v>8.805224</v>
       </c>
       <c r="M42" t="n">
-        <v>6.22552428578672</v>
+        <v>2.377015</v>
       </c>
       <c r="N42" t="n">
-        <v>3.74783853863117</v>
+        <v>2.689873</v>
       </c>
       <c r="O42" t="n">
-        <v>207.481069787008</v>
+        <v>181.1892</v>
       </c>
       <c r="P42" t="n">
-        <v>45.0763936509776</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>319.016263970138</v>
+        <v>25.69533</v>
       </c>
     </row>
     <row r="43">
@@ -2673,25 +2531,22 @@
         <v>0.115</v>
       </c>
       <c r="K43" t="n">
-        <v>3.02199921499604</v>
+        <v>2.463542</v>
       </c>
       <c r="L43" t="n">
-        <v>17.0569678049691</v>
+        <v>9.069166</v>
       </c>
       <c r="M43" t="n">
-        <v>5.78801438096223</v>
+        <v>2.209966</v>
       </c>
       <c r="N43" t="n">
-        <v>5.10501306048263</v>
+        <v>3.663935</v>
       </c>
       <c r="O43" t="n">
-        <v>207.088870547748</v>
+        <v>180.8467</v>
       </c>
       <c r="P43" t="n">
-        <v>47.954215008991</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>290.319875836284</v>
+        <v>20.91558</v>
       </c>
     </row>
     <row r="44">
@@ -2726,25 +2581,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>3.07497008787012</v>
+        <v>2.506724</v>
       </c>
       <c r="L44" t="n">
-        <v>22.3025222787013</v>
+        <v>11.85822</v>
       </c>
       <c r="M44" t="n">
-        <v>4.48751658827676</v>
+        <v>1.713413</v>
       </c>
       <c r="N44" t="n">
-        <v>2.80538959392693</v>
+        <v>2.013465</v>
       </c>
       <c r="O44" t="n">
-        <v>239.260659239712</v>
+        <v>208.9417</v>
       </c>
       <c r="P44" t="n">
-        <v>48.5561897912868</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>265.887351869861</v>
+        <v>16.39175</v>
       </c>
     </row>
     <row r="45">
@@ -2779,25 +2631,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>3.29197377813854</v>
+        <v>2.683626</v>
       </c>
       <c r="L45" t="n">
-        <v>24.0456150572043</v>
+        <v>12.78502</v>
       </c>
       <c r="M45" t="n">
-        <v>4.34221685885693</v>
+        <v>1.657935</v>
       </c>
       <c r="N45" t="n">
-        <v>4.06434242360898</v>
+        <v>2.917032</v>
       </c>
       <c r="O45" t="n">
-        <v>272.045080320008</v>
+        <v>237.5717</v>
       </c>
       <c r="P45" t="n">
-        <v>47.2542931594387</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>255.31360312406</v>
+        <v>14.74433</v>
       </c>
     </row>
     <row r="46">
@@ -2832,25 +2681,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1.58107910813309</v>
+        <v>1.2889</v>
       </c>
       <c r="L46" t="n">
-        <v>29.8276689629874</v>
+        <v>15.85933</v>
       </c>
       <c r="M46" t="n">
-        <v>4.15226230434232</v>
+        <v>1.585407</v>
       </c>
       <c r="N46" t="n">
-        <v>3.8673737597759</v>
+        <v>2.775665</v>
       </c>
       <c r="O46" t="n">
-        <v>276.883158526933</v>
+        <v>241.7967</v>
       </c>
       <c r="P46" t="n">
-        <v>44.1159938730948</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>251.897375984019</v>
+        <v>12.39549</v>
       </c>
     </row>
     <row r="47">
@@ -2861,7 +2707,7 @@
         <v>81.694</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>-0.777551</v>
       </c>
       <c r="D47" t="n">
         <v>20.8022</v>
@@ -2885,25 +2731,22 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>2.44871604907694</v>
+        <v>1.9962</v>
       </c>
       <c r="L47" t="n">
-        <v>38.7871620829635</v>
+        <v>20.62308</v>
       </c>
       <c r="M47" t="n">
-        <v>4.39418145620036</v>
+        <v>1.677776</v>
       </c>
       <c r="N47" t="n">
-        <v>4.3682312408387</v>
+        <v>3.135137</v>
       </c>
       <c r="O47" t="n">
-        <v>310.052106627794</v>
+        <v>270.7625</v>
       </c>
       <c r="P47" t="n">
-        <v>39.0147498057872</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>250.293281095447</v>
+        <v>9.429658</v>
       </c>
     </row>
     <row r="48">
@@ -2938,25 +2781,22 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1.34316528171971</v>
+        <v>1.094952</v>
       </c>
       <c r="L48" t="n">
-        <v>38.0505229498644</v>
+        <v>20.23141</v>
       </c>
       <c r="M48" t="n">
-        <v>3.37237953408148</v>
+        <v>1.287634</v>
       </c>
       <c r="N48" t="n">
-        <v>4.05715431509203</v>
+        <v>2.911873</v>
       </c>
       <c r="O48" t="n">
-        <v>324.713258511041</v>
+        <v>283.5658</v>
       </c>
       <c r="P48" t="n">
-        <v>33.8184583537641</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>257.665138154079</v>
+        <v>9.0209</v>
       </c>
     </row>
     <row r="49">
@@ -2991,25 +2831,22 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>1.46869601984725</v>
+        <v>1.197285</v>
       </c>
       <c r="L49" t="n">
-        <v>37.9579140931385</v>
+        <v>20.18217</v>
       </c>
       <c r="M49" t="n">
-        <v>4.39149954764335</v>
+        <v>1.676752</v>
       </c>
       <c r="N49" t="n">
-        <v>3.53736726583556</v>
+        <v>2.538815</v>
       </c>
       <c r="O49" t="n">
-        <v>340.161671640977</v>
+        <v>297.0566</v>
       </c>
       <c r="P49" t="n">
-        <v>28.5377305106314</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>272.210734400153</v>
+        <v>7.755233</v>
       </c>
     </row>
     <row r="50">
@@ -3044,25 +2881,22 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>1.65297410809319</v>
+        <v>1.347509</v>
       </c>
       <c r="L50" t="n">
-        <v>36.1808923183858</v>
+        <v>19.23733</v>
       </c>
       <c r="M50" t="n">
-        <v>4.53286546197271</v>
+        <v>1.730728</v>
       </c>
       <c r="N50" t="n">
-        <v>3.27972255050105</v>
+        <v>2.3539</v>
       </c>
       <c r="O50" t="n">
-        <v>355.072914951535</v>
+        <v>310.0783</v>
       </c>
       <c r="P50" t="n">
-        <v>24.0651286410237</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>290.659715045719</v>
+        <v>7.460541</v>
       </c>
     </row>
     <row r="51">
@@ -3097,25 +2931,22 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>1.14838403920296</v>
+        <v>0.9361658</v>
       </c>
       <c r="L51" t="n">
-        <v>31.7726994536482</v>
+        <v>16.8935</v>
       </c>
       <c r="M51" t="n">
-        <v>4.35505021035044</v>
+        <v>1.662835</v>
       </c>
       <c r="N51" t="n">
-        <v>3.08831321075842</v>
+        <v>2.216523</v>
       </c>
       <c r="O51" t="n">
-        <v>358.139970257909</v>
+        <v>312.7567</v>
       </c>
       <c r="P51" t="n">
-        <v>20.9328860169184</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>309.541102509489</v>
+        <v>8.145433</v>
       </c>
     </row>
     <row r="52">
@@ -3150,25 +2981,22 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.81001679510233</v>
+        <v>0.6603279</v>
       </c>
       <c r="L52" t="n">
-        <v>28.5048706851447</v>
+        <v>15.156</v>
       </c>
       <c r="M52" t="n">
-        <v>3.6858956920167</v>
+        <v>1.40734</v>
       </c>
       <c r="N52" t="n">
-        <v>2.77181071909491</v>
+        <v>1.989365</v>
       </c>
       <c r="O52" t="n">
-        <v>340.574940853966</v>
+        <v>297.4175</v>
       </c>
       <c r="P52" t="n">
-        <v>18.9712117786346</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>322.20538771127</v>
+        <v>8.394008</v>
       </c>
     </row>
     <row r="53">
@@ -3203,25 +3031,22 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.772729383019081</v>
+        <v>0.6299311</v>
       </c>
       <c r="L53" t="n">
-        <v>24.5118566409235</v>
+        <v>13.03292</v>
       </c>
       <c r="M53" t="n">
-        <v>4.26701080005361</v>
+        <v>1.62922</v>
       </c>
       <c r="N53" t="n">
-        <v>2.00791500300986</v>
+        <v>1.441107</v>
       </c>
       <c r="O53" t="n">
-        <v>321.774111686493</v>
+        <v>280.9991</v>
       </c>
       <c r="P53" t="n">
-        <v>17.6282187324956</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>328.421516632081</v>
+        <v>9.26895</v>
       </c>
     </row>
     <row r="54">
@@ -3256,25 +3081,22 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0.959794385397817</v>
+        <v>0.782427</v>
       </c>
       <c r="L54" t="n">
-        <v>22.8691590852479</v>
+        <v>12.1595</v>
       </c>
       <c r="M54" t="n">
-        <v>4.09217602883942</v>
+        <v>1.562465</v>
       </c>
       <c r="N54" t="n">
-        <v>2.7650768310425</v>
+        <v>1.984532</v>
       </c>
       <c r="O54" t="n">
-        <v>324.947089415148</v>
+        <v>283.77</v>
       </c>
       <c r="P54" t="n">
-        <v>16.8783574425441</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>334.429507993108</v>
+        <v>9.338307</v>
       </c>
     </row>
     <row r="55">
@@ -3309,25 +3131,22 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>1.61681377761794</v>
+        <v>1.318031</v>
       </c>
       <c r="L55" t="n">
-        <v>23.9295718715832</v>
+        <v>12.72332</v>
       </c>
       <c r="M55" t="n">
-        <v>4.71201381071952</v>
+        <v>1.79913</v>
       </c>
       <c r="N55" t="n">
-        <v>2.21538089684229</v>
+        <v>1.590008</v>
       </c>
       <c r="O55" t="n">
-        <v>343.697190330652</v>
+        <v>300.1441</v>
       </c>
       <c r="P55" t="n">
-        <v>16.4706351456962</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>338.635143455965</v>
+        <v>7.767375</v>
       </c>
     </row>
     <row r="56">
@@ -3362,25 +3181,22 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>2.51583186973276</v>
+        <v>2.050913</v>
       </c>
       <c r="L56" t="n">
-        <v>27.7873589296431</v>
+        <v>14.7745</v>
       </c>
       <c r="M56" t="n">
-        <v>4.33152327229611</v>
+        <v>1.653852</v>
       </c>
       <c r="N56" t="n">
-        <v>2.68659143605133</v>
+        <v>1.928202</v>
       </c>
       <c r="O56" t="n">
-        <v>357.660857377015</v>
+        <v>312.3383</v>
       </c>
       <c r="P56" t="n">
-        <v>15.5571014684868</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>342.753593314212</v>
+        <v>5.296425</v>
       </c>
     </row>
     <row r="57">
@@ -3415,25 +3231,22 @@
         <v>0.022</v>
       </c>
       <c r="K57" t="n">
-        <v>8.91484751266914</v>
+        <v>7.267408</v>
       </c>
       <c r="L57" t="n">
-        <v>35.5132020213461</v>
+        <v>18.88232</v>
       </c>
       <c r="M57" t="n">
-        <v>4.83280969594071</v>
+        <v>1.845252</v>
       </c>
       <c r="N57" t="n">
-        <v>2.54448870305373</v>
+        <v>1.826213</v>
       </c>
       <c r="O57" t="n">
-        <v>472.076196732713</v>
+        <v>412.255</v>
       </c>
       <c r="P57" t="n">
-        <v>14.7134373369779</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>359.242908950679</v>
+        <v>4.315616</v>
       </c>
     </row>
     <row r="58">
@@ -3468,25 +3281,22 @@
         <v>0.135</v>
       </c>
       <c r="K58" t="n">
-        <v>14.746626338452</v>
+        <v>12.02149</v>
       </c>
       <c r="L58" t="n">
-        <v>40.4144937905593</v>
+        <v>21.48833</v>
       </c>
       <c r="M58" t="n">
-        <v>5.25045147741218</v>
+        <v>2.004715</v>
       </c>
       <c r="N58" t="n">
-        <v>1.99909811006642</v>
+        <v>1.434779</v>
       </c>
       <c r="O58" t="n">
-        <v>465.66932156875</v>
+        <v>406.66</v>
       </c>
       <c r="P58" t="n">
-        <v>14.3293517942689</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>373.067459777831</v>
+        <v>5.894625</v>
       </c>
     </row>
     <row r="59">
@@ -3521,25 +3331,22 @@
         <v>0.526</v>
       </c>
       <c r="K59" t="n">
-        <v>19.8808461627623</v>
+        <v>16.20692</v>
       </c>
       <c r="L59" t="n">
-        <v>37.5060603598246</v>
+        <v>19.94192</v>
       </c>
       <c r="M59" t="n">
-        <v>4.86380093027188</v>
+        <v>1.857085</v>
       </c>
       <c r="N59" t="n">
-        <v>2.06987429698931</v>
+        <v>1.485576</v>
       </c>
       <c r="O59" t="n">
-        <v>484.259107466747</v>
+        <v>422.8941</v>
       </c>
       <c r="P59" t="n">
-        <v>14.8927067393856</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>388.832351928936</v>
+        <v>10.44223</v>
       </c>
     </row>
     <row r="60">
@@ -3574,25 +3381,22 @@
         <v>0.717</v>
       </c>
       <c r="K60" t="n">
-        <v>20.7092658649079</v>
+        <v>16.88225</v>
       </c>
       <c r="L60" t="n">
-        <v>42.392117934491</v>
+        <v>22.53983</v>
       </c>
       <c r="M60" t="n">
-        <v>4.59002363809403</v>
+        <v>1.752552</v>
       </c>
       <c r="N60" t="n">
-        <v>2.50554417482014</v>
+        <v>1.798262</v>
       </c>
       <c r="O60" t="n">
-        <v>491.016270943964</v>
+        <v>428.795</v>
       </c>
       <c r="P60" t="n">
-        <v>16.2300858509959</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>407.637518190185</v>
+        <v>13.8465</v>
       </c>
     </row>
     <row r="61">
@@ -3627,25 +3431,22 @@
         <v>0.834</v>
       </c>
       <c r="K61" t="n">
-        <v>12.4491978108322</v>
+        <v>10.14862</v>
       </c>
       <c r="L61" t="n">
-        <v>35.0386474573929</v>
+        <v>18.63</v>
       </c>
       <c r="M61" t="n">
-        <v>4.86895260422857</v>
+        <v>1.859052</v>
       </c>
       <c r="N61" t="n">
-        <v>2.44501024137816</v>
+        <v>1.754816</v>
       </c>
       <c r="O61" t="n">
-        <v>417.870597523783</v>
+        <v>364.9183</v>
       </c>
       <c r="P61" t="n">
-        <v>18.7174478589487</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>419.649578919847</v>
+        <v>19.40992</v>
       </c>
     </row>
     <row r="62">
@@ -3680,25 +3481,22 @@
         <v>0.883</v>
       </c>
       <c r="K62" t="n">
-        <v>4.33609933387294</v>
+        <v>3.5348</v>
       </c>
       <c r="L62" t="n">
-        <v>18.1214674931254</v>
+        <v>9.635159</v>
       </c>
       <c r="M62" t="n">
-        <v>4.64112656755147</v>
+        <v>1.772064</v>
       </c>
       <c r="N62" t="n">
-        <v>1.31523199922052</v>
+        <v>0.9439593</v>
       </c>
       <c r="O62" t="n">
-        <v>278.833619736366</v>
+        <v>243.5</v>
       </c>
       <c r="P62" t="n">
-        <v>22.7731336573314</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>413.885395209999</v>
+        <v>25.87333</v>
       </c>
     </row>
     <row r="63">
@@ -3733,25 +3531,22 @@
         <v>0.844</v>
       </c>
       <c r="K63" t="n">
-        <v>4.35906908040083</v>
+        <v>3.553525</v>
       </c>
       <c r="L63" t="n">
-        <v>19.3721403232308</v>
+        <v>10.30014</v>
       </c>
       <c r="M63" t="n">
-        <v>7.88011257953751</v>
+        <v>3.008766</v>
       </c>
       <c r="N63" t="n">
-        <v>3.54954761951944</v>
+        <v>2.547557</v>
       </c>
       <c r="O63" t="n">
-        <v>284.947576461197</v>
+        <v>248.8392</v>
       </c>
       <c r="P63" t="n">
-        <v>27.7242140512999</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>406.541693476317</v>
+        <v>27.95292</v>
       </c>
     </row>
     <row r="64">
@@ -3786,25 +3581,22 @@
         <v>0.74</v>
       </c>
       <c r="K64" t="n">
-        <v>3.50277901023844</v>
+        <v>2.855475</v>
       </c>
       <c r="L64" t="n">
-        <v>16.6902036308751</v>
+        <v>8.874158</v>
       </c>
       <c r="M64" t="n">
-        <v>9.45254909037054</v>
+        <v>3.60915</v>
       </c>
       <c r="N64" t="n">
-        <v>4.45258527569678</v>
+        <v>3.195679</v>
       </c>
       <c r="O64" t="n">
-        <v>255.734859460243</v>
+        <v>223.3283</v>
       </c>
       <c r="P64" t="n">
-        <v>33.3671294623575</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>393.80094373672</v>
+        <v>28.30258</v>
       </c>
     </row>
     <row r="65">
@@ -3839,25 +3631,22 @@
         <v>0.573</v>
       </c>
       <c r="K65" t="n">
-        <v>3.70509064955014</v>
+        <v>3.0204</v>
       </c>
       <c r="L65" t="n">
-        <v>18.3182255791373</v>
+        <v>9.739775</v>
       </c>
       <c r="M65" t="n">
-        <v>7.69577589011547</v>
+        <v>2.938383</v>
       </c>
       <c r="N65" t="n">
-        <v>4.38380152823487</v>
+        <v>3.146312</v>
       </c>
       <c r="O65" t="n">
-        <v>256.030755178271</v>
+        <v>223.5867</v>
       </c>
       <c r="P65" t="n">
-        <v>39.2352863363286</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>366.795263542415</v>
+        <v>28.24008</v>
       </c>
     </row>
     <row r="66">
@@ -3892,25 +3681,22 @@
         <v>0.354</v>
       </c>
       <c r="K66" t="n">
-        <v>4.39470438809829</v>
+        <v>3.582575</v>
       </c>
       <c r="L66" t="n">
-        <v>16.08978452773</v>
+        <v>8.554916</v>
       </c>
       <c r="M66" t="n">
-        <v>5.831598014065</v>
+        <v>2.226607</v>
       </c>
       <c r="N66" t="n">
-        <v>4.59082156148862</v>
+        <v>3.294893</v>
       </c>
       <c r="O66" t="n">
-        <v>240.795102978713</v>
+        <v>210.2817</v>
       </c>
       <c r="P66" t="n">
-        <v>43.3060621591818</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>338.685986218661</v>
+        <v>22.49117</v>
       </c>
     </row>
     <row r="67">
@@ -3945,25 +3731,22 @@
         <v>0.115</v>
       </c>
       <c r="K67" t="n">
-        <v>3.74777941746311</v>
+        <v>3.0552</v>
       </c>
       <c r="L67" t="n">
-        <v>20.352300877306</v>
+        <v>10.82129</v>
       </c>
       <c r="M67" t="n">
-        <v>5.52274900559129</v>
+        <v>2.108683</v>
       </c>
       <c r="N67" t="n">
-        <v>4.23567549748213</v>
+        <v>3.04</v>
       </c>
       <c r="O67" t="n">
-        <v>266.141021757385</v>
+        <v>232.4158</v>
       </c>
       <c r="P67" t="n">
-        <v>45.5613612635894</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>311.42122550499</v>
+        <v>19.63708</v>
       </c>
     </row>
     <row r="68">
@@ -3998,25 +3781,22 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>3.69799548191771</v>
+        <v>3.014616</v>
       </c>
       <c r="L68" t="n">
-        <v>26.2497585086921</v>
+        <v>13.95696</v>
       </c>
       <c r="M68" t="n">
-        <v>4.89808955022149</v>
+        <v>1.870177</v>
       </c>
       <c r="N68" t="n">
-        <v>3.84761656288304</v>
+        <v>2.761485</v>
       </c>
       <c r="O68" t="n">
-        <v>303.79123264049</v>
+        <v>265.295</v>
       </c>
       <c r="P68" t="n">
-        <v>45.870821800853</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>288.018095717056</v>
+        <v>15.10817</v>
       </c>
     </row>
     <row r="69">
@@ -4051,25 +3831,22 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>4.56666652146359</v>
+        <v>3.722759</v>
       </c>
       <c r="L69" t="n">
-        <v>23.8275403834156</v>
+        <v>12.66907</v>
       </c>
       <c r="M69" t="n">
-        <v>4.25630411823616</v>
+        <v>1.625132</v>
       </c>
       <c r="N69" t="n">
-        <v>4.00843150704221</v>
+        <v>2.876904</v>
       </c>
       <c r="O69" t="n">
-        <v>319.429619066172</v>
+        <v>278.9517</v>
       </c>
       <c r="P69" t="n">
-        <v>44.5860235339123</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>275.712973409855</v>
+        <v>14.1718</v>
       </c>
     </row>
     <row r="70">
@@ -4104,25 +3881,22 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>3.42607539044446</v>
+        <v>2.792946</v>
       </c>
       <c r="L70" t="n">
-        <v>28.0914221682065</v>
+        <v>14.93617</v>
       </c>
       <c r="M70" t="n">
-        <v>3.92860841642628</v>
+        <v>1.500012</v>
       </c>
       <c r="N70" t="n">
-        <v>2.47594878559579</v>
+        <v>1.777021</v>
       </c>
       <c r="O70" t="n">
-        <v>312.216359364146</v>
+        <v>272.6525</v>
       </c>
       <c r="P70" t="n">
-        <v>41.3510035728601</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>279.885815863327</v>
+        <v>12.68416</v>
       </c>
     </row>
     <row r="71">
@@ -4157,25 +3931,22 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>2.65736966913893</v>
+        <v>2.166295</v>
       </c>
       <c r="L71" t="n">
-        <v>32.6229555858296</v>
+        <v>17.34558</v>
       </c>
       <c r="M71" t="n">
-        <v>3.84645139540586</v>
+        <v>1.468643</v>
       </c>
       <c r="N71" t="n">
-        <v>2.46812671906853</v>
+        <v>1.771407</v>
       </c>
       <c r="O71" t="n">
-        <v>340.415541922273</v>
+        <v>297.2783</v>
       </c>
       <c r="P71" t="n">
-        <v>37.0211437394468</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>286.819311545962</v>
+        <v>10.30009</v>
       </c>
     </row>
     <row r="72">
@@ -4210,25 +3981,22 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>5.11439285431663</v>
+        <v>4.169267</v>
       </c>
       <c r="L72" t="n">
-        <v>34.3814706353552</v>
+        <v>18.28058</v>
       </c>
       <c r="M72" t="n">
-        <v>4.30998943230026</v>
+        <v>1.64563</v>
       </c>
       <c r="N72" t="n">
-        <v>3.00291279685474</v>
+        <v>2.15523</v>
       </c>
       <c r="O72" t="n">
-        <v>404.14179197807</v>
+        <v>352.9292</v>
       </c>
       <c r="P72" t="n">
-        <v>31.9157765403921</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>305.37017811069</v>
+        <v>7.488008</v>
       </c>
     </row>
     <row r="73">
@@ -4263,25 +4031,22 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>4.75954369772877</v>
+        <v>3.879993</v>
       </c>
       <c r="L73" t="n">
-        <v>41.1019133099193</v>
+        <v>21.85383</v>
       </c>
       <c r="M73" t="n">
-        <v>4.74371742701115</v>
+        <v>1.811235</v>
       </c>
       <c r="N73" t="n">
-        <v>4.08591789567428</v>
+        <v>2.932517</v>
       </c>
       <c r="O73" t="n">
-        <v>459.542997685426</v>
+        <v>401.31</v>
       </c>
       <c r="P73" t="n">
-        <v>26.182786766402</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>330.809208424084</v>
+        <v>4.866692</v>
       </c>
     </row>
     <row r="74">
@@ -4316,25 +4081,22 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>8.84283107052446</v>
+        <v>7.2087</v>
       </c>
       <c r="L74" t="n">
-        <v>52.7035799937196</v>
+        <v>28.02242</v>
       </c>
       <c r="M74" t="n">
-        <v>5.27942342317162</v>
+        <v>2.015777</v>
       </c>
       <c r="N74" t="n">
-        <v>2.8017614034679</v>
+        <v>2.010861</v>
       </c>
       <c r="O74" t="n">
-        <v>554.257682582527</v>
+        <v>484.0225</v>
       </c>
       <c r="P74" t="n">
-        <v>21.1881831725682</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>369.992030874561</v>
+        <v>2.128181</v>
       </c>
     </row>
     <row r="75">
@@ -4369,25 +4131,22 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>8.24680264211563</v>
+        <v>6.722816</v>
       </c>
       <c r="L75" t="n">
-        <v>50.7157621047948</v>
+        <v>26.9655</v>
       </c>
       <c r="M75" t="n">
-        <v>4.61294033718959</v>
+        <v>1.761302</v>
       </c>
       <c r="N75" t="n">
-        <v>2.95575328745893</v>
+        <v>2.121383</v>
       </c>
       <c r="O75" t="n">
-        <v>527.677796211954</v>
+        <v>460.8108</v>
       </c>
       <c r="P75" t="n">
-        <v>16.9486692253974</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>402.684127681382</v>
+        <v>2.35259</v>
       </c>
     </row>
     <row r="76">
@@ -4422,25 +4181,22 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>11.299795374643</v>
+        <v>9.211624</v>
       </c>
       <c r="L76" t="n">
-        <v>54.0105422322927</v>
+        <v>28.71733</v>
       </c>
       <c r="M76" t="n">
-        <v>4.67746328563739</v>
+        <v>1.785938</v>
       </c>
       <c r="N76" t="n">
-        <v>2.66334677344459</v>
+        <v>1.911519</v>
       </c>
       <c r="O76" t="n">
-        <v>663.491297040201</v>
+        <v>579.4141</v>
       </c>
       <c r="P76" t="n">
-        <v>13.3322123861506</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>447.646635731346</v>
+        <v>0.3638826</v>
       </c>
     </row>
     <row r="77">
@@ -4475,25 +4231,22 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>6.31293644115508</v>
+        <v>5.146323</v>
       </c>
       <c r="L77" t="n">
-        <v>42.2656365044583</v>
+        <v>22.47258</v>
       </c>
       <c r="M77" t="n">
-        <v>6.14394607510917</v>
+        <v>2.345867</v>
       </c>
       <c r="N77" t="n">
-        <v>3.21210500711526</v>
+        <v>2.30537</v>
       </c>
       <c r="O77" t="n">
-        <v>496.871547936974</v>
+        <v>433.9083</v>
       </c>
       <c r="P77" t="n">
-        <v>10.8185212018584</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>469.826876840196</v>
+        <v>3.923486</v>
       </c>
     </row>
     <row r="78">
@@ -4528,25 +4281,22 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>2.0062518764139</v>
+        <v>1.635502</v>
       </c>
       <c r="L78" t="n">
-        <v>43.5997381785016</v>
+        <v>23.18192</v>
       </c>
       <c r="M78" t="n">
-        <v>4.83796398894872</v>
+        <v>1.84722</v>
       </c>
       <c r="N78" t="n">
-        <v>4.24102582442632</v>
+        <v>3.04384</v>
       </c>
       <c r="O78" t="n">
-        <v>453.025390648656</v>
+        <v>395.6183</v>
       </c>
       <c r="P78" t="n">
-        <v>8.52347422440583</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>487.42800575076</v>
+        <v>3.327258</v>
       </c>
     </row>
     <row r="79">
@@ -4581,25 +4331,22 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>3.91965936268329</v>
+        <v>3.195317</v>
       </c>
       <c r="L79" t="n">
-        <v>42.3291123150695</v>
+        <v>22.50633</v>
       </c>
       <c r="M79" t="n">
-        <v>5.30837179746913</v>
+        <v>2.02683</v>
       </c>
       <c r="N79" t="n">
-        <v>4.53288337260315</v>
+        <v>3.25331</v>
       </c>
       <c r="O79" t="n">
-        <v>573.570832741663</v>
+        <v>500.8883</v>
       </c>
       <c r="P79" t="n">
-        <v>6.88733607690776</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>516.572417103184</v>
+        <v>3.629558</v>
       </c>
     </row>
     <row r="80">
@@ -4634,25 +4381,22 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>3.31662286154208</v>
+        <v>2.70372</v>
       </c>
       <c r="L80" t="n">
-        <v>42.7179604289619</v>
+        <v>22.71308</v>
       </c>
       <c r="M80" t="n">
-        <v>3.92650793726346</v>
+        <v>1.49921</v>
       </c>
       <c r="N80" t="n">
-        <v>4.32856776242198</v>
+        <v>3.10667</v>
       </c>
       <c r="O80" t="n">
-        <v>478.722513826396</v>
+        <v>418.0591</v>
       </c>
       <c r="P80" t="n">
-        <v>5.88069688494379</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>525.895007334224</v>
+        <v>3.383942</v>
       </c>
     </row>
     <row r="81">
@@ -4687,25 +4431,22 @@
         <v>0.015</v>
       </c>
       <c r="K81" t="n">
-        <v>8.17988677172331</v>
+        <v>6.668266</v>
       </c>
       <c r="L81" t="n">
-        <v>43.6740095788286</v>
+        <v>23.22141</v>
       </c>
       <c r="M81" t="n">
-        <v>5.24040217747736</v>
+        <v>2.000878</v>
       </c>
       <c r="N81" t="n">
-        <v>3.34406301863353</v>
+        <v>2.400078</v>
       </c>
       <c r="O81" t="n">
-        <v>475.770999843355</v>
+        <v>415.4816</v>
       </c>
       <c r="P81" t="n">
-        <v>5.61608405149771</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>527.923507603966</v>
+        <v>3.787866</v>
       </c>
     </row>
     <row r="82">
@@ -4740,25 +4481,22 @@
         <v>0.208</v>
       </c>
       <c r="K82" t="n">
-        <v>16.9049360968474</v>
+        <v>13.78095</v>
       </c>
       <c r="L82" t="n">
-        <v>39.2678667476782</v>
+        <v>20.87867</v>
       </c>
       <c r="M82" t="n">
-        <v>4.8437075685049</v>
+        <v>1.849413</v>
       </c>
       <c r="N82" t="n">
-        <v>3.57529746125265</v>
+        <v>2.566038</v>
       </c>
       <c r="O82" t="n">
-        <v>543.591924467749</v>
+        <v>474.7083</v>
       </c>
       <c r="P82" t="n">
-        <v>6.40656395320338</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>526.590287839618</v>
+        <v>5.350966</v>
       </c>
     </row>
     <row r="83">
@@ -4793,25 +4531,22 @@
         <v>0.52</v>
       </c>
       <c r="K83" t="n">
-        <v>28.8530438270828</v>
+        <v>23.52108</v>
       </c>
       <c r="L83" t="n">
-        <v>46.2052180218806</v>
+        <v>24.56725</v>
       </c>
       <c r="M83" t="n">
-        <v>6.18895709118418</v>
+        <v>2.363053</v>
       </c>
       <c r="N83" t="n">
-        <v>3.05083305586293</v>
+        <v>2.189623</v>
       </c>
       <c r="O83" t="n">
-        <v>657.273364575443</v>
+        <v>573.9841</v>
       </c>
       <c r="P83" t="n">
-        <v>8.00886028889023</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>542.789733885055</v>
+        <v>8.885149</v>
       </c>
     </row>
     <row r="84">
@@ -4846,25 +4581,22 @@
         <v>0.696</v>
       </c>
       <c r="K84" t="n">
-        <v>27.8442027460681</v>
+        <v>22.69867</v>
       </c>
       <c r="L84" t="n">
-        <v>55.2927536066393</v>
+        <v>29.39908</v>
       </c>
       <c r="M84" t="n">
-        <v>6.11382698486929</v>
+        <v>2.334367</v>
       </c>
       <c r="N84" t="n">
-        <v>2.87605292239084</v>
+        <v>2.064181</v>
       </c>
       <c r="O84" t="n">
-        <v>661.703097530631</v>
+        <v>577.8525</v>
       </c>
       <c r="P84" t="n">
-        <v>11.0925722051885</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>542.566208946358</v>
+        <v>12.93617</v>
       </c>
     </row>
     <row r="85">
@@ -4899,25 +4631,22 @@
         <v>0.818</v>
       </c>
       <c r="K85" t="n">
-        <v>12.1476728134735</v>
+        <v>9.902816</v>
       </c>
       <c r="L85" t="n">
-        <v>34.9601255287108</v>
+        <v>18.58825</v>
       </c>
       <c r="M85" t="n">
-        <v>5.82982491631783</v>
+        <v>2.22593</v>
       </c>
       <c r="N85" t="n">
-        <v>2.66631592623575</v>
+        <v>1.91365</v>
       </c>
       <c r="O85" t="n">
-        <v>440.930195131344</v>
+        <v>385.0558</v>
       </c>
       <c r="P85" t="n">
-        <v>15.1418368574673</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>535.573539845655</v>
+        <v>20.43233</v>
       </c>
     </row>
     <row r="86">
@@ -4952,25 +4681,22 @@
         <v>0.861</v>
       </c>
       <c r="K86" t="n">
-        <v>5.43146122461278</v>
+        <v>4.427742</v>
       </c>
       <c r="L86" t="n">
-        <v>23.0180592312061</v>
+        <v>12.23867</v>
       </c>
       <c r="M86" t="n">
-        <v>6.41014121370055</v>
+        <v>2.447505</v>
       </c>
       <c r="N86" t="n">
-        <v>3.0005622756165</v>
+        <v>2.153543</v>
       </c>
       <c r="O86" t="n">
-        <v>345.29564556593</v>
+        <v>301.54</v>
       </c>
       <c r="P86" t="n">
-        <v>20.77001519983</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>522.107321710314</v>
+        <v>26.27333</v>
       </c>
     </row>
     <row r="87">
@@ -5005,25 +4731,22 @@
         <v>0.799</v>
       </c>
       <c r="K87" t="n">
-        <v>3.5050581979046</v>
+        <v>2.857333</v>
       </c>
       <c r="L87" t="n">
-        <v>16.0234574777443</v>
+        <v>8.51965</v>
       </c>
       <c r="M87" t="n">
-        <v>8.77316717661186</v>
+        <v>3.34975</v>
       </c>
       <c r="N87" t="n">
-        <v>6.26387715682204</v>
+        <v>4.495667</v>
       </c>
       <c r="O87" t="n">
-        <v>295.869953114714</v>
+        <v>258.3775</v>
       </c>
       <c r="P87" t="n">
-        <v>26.1861183843985</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>487.394711756945</v>
+        <v>25.711</v>
       </c>
     </row>
     <row r="88">
@@ -5058,25 +4781,22 @@
         <v>0.737</v>
       </c>
       <c r="K88" t="n">
-        <v>3.16751393927502</v>
+        <v>2.582166</v>
       </c>
       <c r="L88" t="n">
-        <v>14.4585201410235</v>
+        <v>7.687575</v>
       </c>
       <c r="M88" t="n">
-        <v>8.84811656838531</v>
+        <v>3.378367</v>
       </c>
       <c r="N88" t="n">
-        <v>4.27336604283818</v>
+        <v>3.067051</v>
       </c>
       <c r="O88" t="n">
-        <v>274.152993778779</v>
+        <v>239.4125</v>
       </c>
       <c r="P88" t="n">
-        <v>31.844707828058</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>461.823521750993</v>
+        <v>26.454</v>
       </c>
     </row>
     <row r="89">
@@ -5111,25 +4831,22 @@
         <v>0.541</v>
       </c>
       <c r="K89" t="n">
-        <v>2.81000532151374</v>
+        <v>2.290724</v>
       </c>
       <c r="L89" t="n">
-        <v>13.2283739774961</v>
+        <v>7.033508</v>
       </c>
       <c r="M89" t="n">
-        <v>6.9552993660937</v>
+        <v>2.655656</v>
       </c>
       <c r="N89" t="n">
-        <v>4.04447794151437</v>
+        <v>2.902775</v>
       </c>
       <c r="O89" t="n">
-        <v>258.534646730286</v>
+        <v>225.7733</v>
       </c>
       <c r="P89" t="n">
-        <v>37.0558248943181</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>434.668977611859</v>
+        <v>25.03358</v>
       </c>
     </row>
     <row r="90">
@@ -5164,25 +4881,22 @@
         <v>0.357</v>
       </c>
       <c r="K90" t="n">
-        <v>3.07799755566349</v>
+        <v>2.509192</v>
       </c>
       <c r="L90" t="n">
-        <v>13.7652533240282</v>
+        <v>7.318966</v>
       </c>
       <c r="M90" t="n">
-        <v>5.79421367544899</v>
+        <v>2.212333</v>
       </c>
       <c r="N90" t="n">
-        <v>4.34951902967712</v>
+        <v>3.121707</v>
       </c>
       <c r="O90" t="n">
-        <v>253.288223271624</v>
+        <v>221.1917</v>
       </c>
       <c r="P90" t="n">
-        <v>41.2432475727245</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>398.381014962344</v>
+        <v>22.42308</v>
       </c>
     </row>
     <row r="91">
@@ -5217,25 +4931,22 @@
         <v>0.122</v>
       </c>
       <c r="K91" t="n">
-        <v>3.59783757354626</v>
+        <v>2.932967</v>
       </c>
       <c r="L91" t="n">
-        <v>16.3889051165072</v>
+        <v>8.713958</v>
       </c>
       <c r="M91" t="n">
-        <v>5.1253132050938</v>
+        <v>1.956935</v>
       </c>
       <c r="N91" t="n">
-        <v>5.29035590972657</v>
+        <v>3.796958</v>
       </c>
       <c r="O91" t="n">
-        <v>259.12437697326</v>
+        <v>226.2883</v>
       </c>
       <c r="P91" t="n">
-        <v>43.6251915752955</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>348.612391512071</v>
+        <v>18.59633</v>
       </c>
     </row>
     <row r="92">
@@ -5270,25 +4981,22 @@
         <v>0.001</v>
       </c>
       <c r="K92" t="n">
-        <v>2.61245814124152</v>
+        <v>2.129683</v>
       </c>
       <c r="L92" t="n">
-        <v>18.6116079546353</v>
+        <v>9.895766</v>
       </c>
       <c r="M92" t="n">
-        <v>5.10946270647364</v>
+        <v>1.950883</v>
       </c>
       <c r="N92" t="n">
-        <v>5.61331501989511</v>
+        <v>4.02875</v>
       </c>
       <c r="O92" t="n">
-        <v>281.126697040358</v>
+        <v>245.5025</v>
       </c>
       <c r="P92" t="n">
-        <v>44.1707719226538</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>301.040341450787</v>
+        <v>15.1605</v>
       </c>
     </row>
     <row r="93">
@@ -5323,25 +5031,22 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>2.75619294016873</v>
+        <v>2.246856</v>
       </c>
       <c r="L93" t="n">
-        <v>24.7779660466533</v>
+        <v>13.17441</v>
       </c>
       <c r="M93" t="n">
-        <v>4.12863846138895</v>
+        <v>1.576387</v>
       </c>
       <c r="N93" t="n">
-        <v>6.39213173890863</v>
+        <v>4.587717</v>
       </c>
       <c r="O93" t="n">
-        <v>319.12421895782</v>
+        <v>278.685</v>
       </c>
       <c r="P93" t="n">
-        <v>42.0930765342949</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>285.814594429096</v>
+        <v>11.96157</v>
       </c>
     </row>
     <row r="94">
@@ -5376,25 +5081,22 @@
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>2.06686134002919</v>
+        <v>1.684911</v>
       </c>
       <c r="L94" t="n">
-        <v>36.2266701326162</v>
+        <v>19.26167</v>
       </c>
       <c r="M94" t="n">
-        <v>4.01969378341432</v>
+        <v>1.53479</v>
       </c>
       <c r="N94" t="n">
-        <v>3.94721902953206</v>
+        <v>2.832971</v>
       </c>
       <c r="O94" t="n">
-        <v>371.344889228553</v>
+        <v>324.2883</v>
       </c>
       <c r="P94" t="n">
-        <v>37.7459326601424</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>289.070749886924</v>
+        <v>8.550033</v>
       </c>
     </row>
     <row r="95">
@@ -5429,25 +5131,22 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>6.13797260045981</v>
+        <v>5.003692</v>
       </c>
       <c r="L95" t="n">
-        <v>47.4808467195712</v>
+        <v>25.2455</v>
       </c>
       <c r="M95" t="n">
-        <v>4.51666401047498</v>
+        <v>1.724542</v>
       </c>
       <c r="N95" t="n">
-        <v>2.94856935888491</v>
+        <v>2.116227</v>
       </c>
       <c r="O95" t="n">
-        <v>512.66074498984</v>
+        <v>447.6967</v>
       </c>
       <c r="P95" t="n">
-        <v>32.6084577683396</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>316.169598871315</v>
+        <v>4.765525</v>
       </c>
     </row>
     <row r="96">
@@ -5482,25 +5181,22 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>6.70788114567407</v>
+        <v>5.468283</v>
       </c>
       <c r="L96" t="n">
-        <v>55.0709926339232</v>
+        <v>29.28117</v>
       </c>
       <c r="M96" t="n">
-        <v>3.81026134419415</v>
+        <v>1.454825</v>
       </c>
       <c r="N96" t="n">
-        <v>3.02995563426613</v>
+        <v>2.174639</v>
       </c>
       <c r="O96" t="n">
-        <v>602.002930118083</v>
+        <v>525.7175</v>
       </c>
       <c r="P96" t="n">
-        <v>26.6181347817912</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>357.150840913728</v>
+        <v>2.031465</v>
       </c>
     </row>
     <row r="97">
@@ -5535,25 +5231,22 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>3.61621214407983</v>
+        <v>2.947946</v>
       </c>
       <c r="L97" t="n">
-        <v>47.240259291619</v>
+        <v>25.11758</v>
       </c>
       <c r="M97" t="n">
-        <v>4.52588569019104</v>
+        <v>1.728063</v>
       </c>
       <c r="N97" t="n">
-        <v>2.79588719034376</v>
+        <v>2.006645</v>
       </c>
       <c r="O97" t="n">
-        <v>520.12295101191</v>
+        <v>454.2133</v>
       </c>
       <c r="P97" t="n">
-        <v>21.3445899198134</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>389.849378948931</v>
+        <v>3.533348</v>
       </c>
     </row>
     <row r="98">
@@ -5588,25 +5281,22 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>3.09890401174225</v>
+        <v>2.526235</v>
       </c>
       <c r="L98" t="n">
-        <v>42.2472990480595</v>
+        <v>22.46283</v>
       </c>
       <c r="M98" t="n">
-        <v>5.16377397380446</v>
+        <v>1.97162</v>
       </c>
       <c r="N98" t="n">
-        <v>3.07113225202175</v>
+        <v>2.204192</v>
       </c>
       <c r="O98" t="n">
-        <v>510.78941069262</v>
+        <v>446.0625</v>
       </c>
       <c r="P98" t="n">
-        <v>16.7449769512274</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>422.037027376555</v>
+        <v>3.670467</v>
       </c>
     </row>
     <row r="99">
@@ -5641,25 +5331,22 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>3.79582513507367</v>
+        <v>3.094367</v>
       </c>
       <c r="L99" t="n">
-        <v>43.5210469809913</v>
+        <v>23.14008</v>
       </c>
       <c r="M99" t="n">
-        <v>4.59771841088749</v>
+        <v>1.75549</v>
       </c>
       <c r="N99" t="n">
-        <v>3.03740707918736</v>
+        <v>2.179987</v>
       </c>
       <c r="O99" t="n">
-        <v>515.425148445304</v>
+        <v>450.1108</v>
       </c>
       <c r="P99" t="n">
-        <v>12.7171574896038</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>454.074623810561</v>
+        <v>2.174918</v>
       </c>
     </row>
     <row r="100">
@@ -5694,25 +5381,22 @@
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>3.00643376166134</v>
+        <v>2.450853</v>
       </c>
       <c r="L100" t="n">
-        <v>40.8516211358114</v>
+        <v>21.72075</v>
       </c>
       <c r="M100" t="n">
-        <v>5.34608089844946</v>
+        <v>2.041228</v>
       </c>
       <c r="N100" t="n">
-        <v>2.72414125666223</v>
+        <v>1.955152</v>
       </c>
       <c r="O100" t="n">
-        <v>509.806565124571</v>
+        <v>445.2042</v>
       </c>
       <c r="P100" t="n">
-        <v>9.27047811783134</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>482.659607321088</v>
+        <v>1.108395</v>
       </c>
     </row>
     <row r="101">
@@ -5747,25 +5431,22 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>2.51632867866968</v>
+        <v>2.051318</v>
       </c>
       <c r="L101" t="n">
-        <v>35.7323299233999</v>
+        <v>18.99883</v>
       </c>
       <c r="M101" t="n">
-        <v>5.38129404351687</v>
+        <v>2.054673</v>
       </c>
       <c r="N101" t="n">
-        <v>2.8704113927562</v>
+        <v>2.060132</v>
       </c>
       <c r="O101" t="n">
-        <v>505.419773691931</v>
+        <v>441.3733</v>
       </c>
       <c r="P101" t="n">
-        <v>7.00677626224028</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>505.946551662851</v>
+        <v>2.732462</v>
       </c>
     </row>
     <row r="102">
@@ -5800,25 +5481,22 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>1.50452759774202</v>
+        <v>1.226495</v>
       </c>
       <c r="L102" t="n">
-        <v>26.881695467666</v>
+        <v>14.29296</v>
       </c>
       <c r="M102" t="n">
-        <v>4.95055176731671</v>
+        <v>1.890208</v>
       </c>
       <c r="N102" t="n">
-        <v>2.96545354167388</v>
+        <v>2.128345</v>
       </c>
       <c r="O102" t="n">
-        <v>396.850206938919</v>
+        <v>346.5616</v>
       </c>
       <c r="P102" t="n">
-        <v>6.55318688408878</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>509.134716376647</v>
+        <v>6.70075</v>
       </c>
     </row>
     <row r="103">
@@ -5853,25 +5531,22 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>1.81731605104827</v>
+        <v>1.481481</v>
       </c>
       <c r="L103" t="n">
-        <v>25.6049383111201</v>
+        <v>13.61411</v>
       </c>
       <c r="M103" t="n">
-        <v>3.79870608974734</v>
+        <v>1.450413</v>
       </c>
       <c r="N103" t="n">
-        <v>2.88098386172821</v>
+        <v>2.06772</v>
       </c>
       <c r="O103" t="n">
-        <v>395.848238079496</v>
+        <v>345.6866</v>
       </c>
       <c r="P103" t="n">
-        <v>6.98766906633895</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>494.533153012854</v>
+        <v>6.536908</v>
       </c>
     </row>
     <row r="104">
@@ -5906,25 +5581,22 @@
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>5.11871325203472</v>
+        <v>4.172789</v>
       </c>
       <c r="L104" t="n">
-        <v>32.3339572729845</v>
+        <v>17.19192</v>
       </c>
       <c r="M104" t="n">
-        <v>4.25920602710449</v>
+        <v>1.62624</v>
       </c>
       <c r="N104" t="n">
-        <v>2.98245336955046</v>
+        <v>2.140546</v>
       </c>
       <c r="O104" t="n">
-        <v>443.878846346215</v>
+        <v>387.6308</v>
       </c>
       <c r="P104" t="n">
-        <v>7.61738116889792</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>474.767642541371</v>
+        <v>4.5988</v>
       </c>
     </row>
     <row r="105">
@@ -5959,25 +5631,22 @@
         <v>0.023</v>
       </c>
       <c r="K105" t="n">
-        <v>14.3081464507942</v>
+        <v>11.66404</v>
       </c>
       <c r="L105" t="n">
-        <v>43.2848605425748</v>
+        <v>23.0145</v>
       </c>
       <c r="M105" t="n">
-        <v>4.74141789994762</v>
+        <v>1.810357</v>
       </c>
       <c r="N105" t="n">
-        <v>2.99399558528109</v>
+        <v>2.14883</v>
       </c>
       <c r="O105" t="n">
-        <v>541.234950178207</v>
+        <v>472.65</v>
       </c>
       <c r="P105" t="n">
-        <v>7.16060390595657</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>477.406642437158</v>
+        <v>1.671068</v>
       </c>
     </row>
     <row r="106">
@@ -6012,25 +5681,22 @@
         <v>0.129</v>
       </c>
       <c r="K106" t="n">
-        <v>22.7026105224718</v>
+        <v>18.50723</v>
       </c>
       <c r="L106" t="n">
-        <v>41.4656908295762</v>
+        <v>22.04725</v>
       </c>
       <c r="M106" t="n">
-        <v>5.50050540268631</v>
+        <v>2.10019</v>
       </c>
       <c r="N106" t="n">
-        <v>2.54477711911556</v>
+        <v>1.82642</v>
       </c>
       <c r="O106" t="n">
-        <v>592.746684539376</v>
+        <v>517.6342</v>
       </c>
       <c r="P106" t="n">
-        <v>6.95544069656416</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>487.651301668002</v>
+        <v>2.834017</v>
       </c>
     </row>
     <row r="107">
@@ -6065,25 +5731,22 @@
         <v>0.465</v>
       </c>
       <c r="K107" t="n">
-        <v>35.9096688995199</v>
+        <v>29.27366</v>
       </c>
       <c r="L107" t="n">
-        <v>46.5144345558833</v>
+        <v>24.73166</v>
       </c>
       <c r="M107" t="n">
-        <v>5.25777696396879</v>
+        <v>2.007512</v>
       </c>
       <c r="N107" t="n">
-        <v>2.38988515408132</v>
+        <v>1.715252</v>
       </c>
       <c r="O107" t="n">
-        <v>691.499704727493</v>
+        <v>603.8733</v>
       </c>
       <c r="P107" t="n">
-        <v>7.94815395586454</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>509.660621203276</v>
+        <v>6.222208</v>
       </c>
     </row>
     <row r="108">
@@ -6118,25 +5781,22 @@
         <v>0.715</v>
       </c>
       <c r="K108" t="n">
-        <v>16.3049871712475</v>
+        <v>13.29187</v>
       </c>
       <c r="L108" t="n">
-        <v>28.5351698054098</v>
+        <v>15.17211</v>
       </c>
       <c r="M108" t="n">
-        <v>5.39368739438775</v>
+        <v>2.059405</v>
       </c>
       <c r="N108" t="n">
-        <v>1.3946964761762</v>
+        <v>1.000992</v>
       </c>
       <c r="O108" t="n">
-        <v>448.85147465712</v>
+        <v>391.9733</v>
       </c>
       <c r="P108" t="n">
-        <v>11.2270064129828</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>502.041234894845</v>
+        <v>14.47627</v>
       </c>
     </row>
     <row r="109">
@@ -6171,25 +5831,22 @@
         <v>0.832</v>
       </c>
       <c r="K109" t="n">
-        <v>7.03004027421271</v>
+        <v>5.730908</v>
       </c>
       <c r="L109" t="n">
-        <v>19.393110850292</v>
+        <v>10.31129</v>
       </c>
       <c r="M109" t="n">
-        <v>4.6487768164724</v>
+        <v>1.774985</v>
       </c>
       <c r="N109" t="n">
-        <v>0.967175675740809</v>
+        <v>0.6941547</v>
       </c>
       <c r="O109" t="n">
-        <v>355.419309900079</v>
+        <v>310.3808</v>
       </c>
       <c r="P109" t="n">
-        <v>15.0487198146228</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>483.291176920863</v>
+        <v>18.31358</v>
       </c>
     </row>
     <row r="110">
@@ -6224,25 +5881,22 @@
         <v>0.876</v>
       </c>
       <c r="K110" t="n">
-        <v>5.93735747166604</v>
+        <v>4.84015</v>
       </c>
       <c r="L110" t="n">
-        <v>19.2031912249433</v>
+        <v>10.21031</v>
       </c>
       <c r="M110" t="n">
-        <v>4.49773088844506</v>
+        <v>1.717313</v>
       </c>
       <c r="N110" t="n">
-        <v>1.48879256467848</v>
+        <v>1.068526</v>
       </c>
       <c r="O110" t="n">
-        <v>347.845455919387</v>
+        <v>303.7667</v>
       </c>
       <c r="P110" t="n">
-        <v>18.4576422390131</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>477.165583043422</v>
+        <v>20.59892</v>
       </c>
     </row>
     <row r="111">
@@ -6277,25 +5931,22 @@
         <v>0.833</v>
       </c>
       <c r="K111" t="n">
-        <v>4.68270023541922</v>
+        <v>3.81735</v>
       </c>
       <c r="L111" t="n">
-        <v>16.1694349152673</v>
+        <v>8.597266</v>
       </c>
       <c r="M111" t="n">
-        <v>5.03858855856222</v>
+        <v>1.923822</v>
       </c>
       <c r="N111" t="n">
-        <v>1.3394445972773</v>
+        <v>0.961337</v>
       </c>
       <c r="O111" t="n">
-        <v>316.35111268712</v>
+        <v>276.2633</v>
       </c>
       <c r="P111" t="n">
-        <v>22.2049072357347</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>467.228442369375</v>
+        <v>21.8145</v>
       </c>
     </row>
     <row r="112">
@@ -6330,25 +5981,22 @@
         <v>0.71</v>
       </c>
       <c r="K112" t="n">
-        <v>4.63308067616406</v>
+        <v>3.7769</v>
       </c>
       <c r="L112" t="n">
-        <v>17.4524606607545</v>
+        <v>9.279449</v>
       </c>
       <c r="M112" t="n">
-        <v>5.44287317827513</v>
+        <v>2.078185</v>
       </c>
       <c r="N112" t="n">
-        <v>1.85102363194309</v>
+        <v>1.328504</v>
       </c>
       <c r="O112" t="n">
-        <v>322.941205013948</v>
+        <v>282.0183</v>
       </c>
       <c r="P112" t="n">
-        <v>26.6482378132799</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>452.111237202841</v>
+        <v>22.71425</v>
       </c>
     </row>
     <row r="113">
@@ -6383,25 +6031,22 @@
         <v>0.57</v>
       </c>
       <c r="K113" t="n">
-        <v>3.73659569628315</v>
+        <v>3.046083</v>
       </c>
       <c r="L113" t="n">
-        <v>16.3404284048478</v>
+        <v>8.688183</v>
       </c>
       <c r="M113" t="n">
-        <v>6.96693843018291</v>
+        <v>2.6601</v>
       </c>
       <c r="N113" t="n">
-        <v>3.01929677980701</v>
+        <v>2.166989</v>
       </c>
       <c r="O113" t="n">
-        <v>317.035314279697</v>
+        <v>276.8608</v>
       </c>
       <c r="P113" t="n">
-        <v>32.255675404867</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>424.086282715527</v>
+        <v>24.53258</v>
       </c>
     </row>
     <row r="114">
@@ -6436,25 +6081,22 @@
         <v>0.346</v>
       </c>
       <c r="K114" t="n">
-        <v>3.39873495196043</v>
+        <v>2.770658</v>
       </c>
       <c r="L114" t="n">
-        <v>15.8194114282919</v>
+        <v>8.411159</v>
       </c>
       <c r="M114" t="n">
-        <v>6.49917586350096</v>
+        <v>2.4815</v>
       </c>
       <c r="N114" t="n">
-        <v>5.0767677928231</v>
+        <v>3.643663</v>
       </c>
       <c r="O114" t="n">
-        <v>308.124547563719</v>
+        <v>269.0792</v>
       </c>
       <c r="P114" t="n">
-        <v>37.0898236843754</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>388.50851559357</v>
+        <v>22.54283</v>
       </c>
     </row>
     <row r="115">
@@ -6489,25 +6131,22 @@
         <v>0.117</v>
       </c>
       <c r="K115" t="n">
-        <v>3.45003139471379</v>
+        <v>2.812475</v>
       </c>
       <c r="L115" t="n">
-        <v>20.4695477523728</v>
+        <v>10.88363</v>
       </c>
       <c r="M115" t="n">
-        <v>5.22987097209871</v>
+        <v>1.996857</v>
       </c>
       <c r="N115" t="n">
-        <v>2.63503462669826</v>
+        <v>1.891199</v>
       </c>
       <c r="O115" t="n">
-        <v>314.329082273442</v>
+        <v>274.4975</v>
       </c>
       <c r="P115" t="n">
-        <v>40.1498673527742</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>341.362187786814</v>
+        <v>18.698</v>
       </c>
     </row>
     <row r="116">
@@ -6542,25 +6181,22 @@
         <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>2.98312790242057</v>
+        <v>2.431854</v>
       </c>
       <c r="L116" t="n">
-        <v>29.5889811074416</v>
+        <v>15.73242</v>
       </c>
       <c r="M116" t="n">
-        <v>4.81776848418005</v>
+        <v>1.839509</v>
       </c>
       <c r="N116" t="n">
-        <v>4.05930698569848</v>
+        <v>2.913418</v>
       </c>
       <c r="O116" t="n">
-        <v>372.294412175105</v>
+        <v>325.1175</v>
       </c>
       <c r="P116" t="n">
-        <v>39.8551578650806</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>331.792554976562</v>
+        <v>13.27474</v>
       </c>
     </row>
     <row r="117">
@@ -6595,25 +6231,22 @@
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>3.81194382502702</v>
+        <v>3.107507</v>
       </c>
       <c r="L117" t="n">
-        <v>31.1840200841279</v>
+        <v>16.5805</v>
       </c>
       <c r="M117" t="n">
-        <v>4.46666632067678</v>
+        <v>1.705452</v>
       </c>
       <c r="N117" t="n">
-        <v>6.04800539776714</v>
+        <v>4.340733</v>
       </c>
       <c r="O117" t="n">
-        <v>393.090476246186</v>
+        <v>343.2783</v>
       </c>
       <c r="P117" t="n">
-        <v>38.092078768258</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>336.501450769826</v>
+        <v>11.12551</v>
       </c>
     </row>
     <row r="118">
@@ -6648,25 +6281,22 @@
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>3.90116703003133</v>
+        <v>3.180242</v>
       </c>
       <c r="L118" t="n">
-        <v>44.525224901037</v>
+        <v>23.674</v>
       </c>
       <c r="M118" t="n">
-        <v>4.32119373386949</v>
+        <v>1.649908</v>
       </c>
       <c r="N118" t="n">
-        <v>2.7960265217746</v>
+        <v>2.006745</v>
       </c>
       <c r="O118" t="n">
-        <v>448.25979773179</v>
+        <v>391.4566</v>
       </c>
       <c r="P118" t="n">
-        <v>34.6487702590436</v>
-      </c>
-      <c r="Q118" t="n">
-        <v>349.053243496376</v>
+        <v>6.560558</v>
       </c>
     </row>
     <row r="119">
@@ -6701,25 +6331,22 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>3.25352444648727</v>
+        <v>2.652282</v>
       </c>
       <c r="L119" t="n">
-        <v>49.7125245671286</v>
+        <v>26.43208</v>
       </c>
       <c r="M119" t="n">
-        <v>3.77637605814862</v>
+        <v>1.441887</v>
       </c>
       <c r="N119" t="n">
-        <v>2.14162719724238</v>
+        <v>1.537074</v>
       </c>
       <c r="O119" t="n">
-        <v>455.266938125592</v>
+        <v>397.5758</v>
       </c>
       <c r="P119" t="n">
-        <v>30.39576967302</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>366.417721676185</v>
+        <v>4.475025</v>
       </c>
     </row>
     <row r="120">
@@ -6754,25 +6381,22 @@
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>1.69000170750276</v>
+        <v>1.377694</v>
       </c>
       <c r="L120" t="n">
-        <v>46.9702190875432</v>
+        <v>24.974</v>
       </c>
       <c r="M120" t="n">
-        <v>3.5162440233751</v>
+        <v>1.342564</v>
       </c>
       <c r="N120" t="n">
-        <v>2.08123956180279</v>
+        <v>1.493733</v>
       </c>
       <c r="O120" t="n">
-        <v>444.577361779641</v>
+        <v>388.2408</v>
       </c>
       <c r="P120" t="n">
-        <v>25.9558219766798</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>381.622241271896</v>
+        <v>4.612592</v>
       </c>
     </row>
     <row r="121">
@@ -6807,25 +6431,22 @@
         <v>0</v>
       </c>
       <c r="K121" t="n">
-        <v>3.0249113740485</v>
+        <v>2.465916</v>
       </c>
       <c r="L121" t="n">
-        <v>51.2303017275213</v>
+        <v>27.23908</v>
       </c>
       <c r="M121" t="n">
-        <v>4.38145024770853</v>
+        <v>1.672915</v>
       </c>
       <c r="N121" t="n">
-        <v>1.56735459195662</v>
+        <v>1.124911</v>
       </c>
       <c r="O121" t="n">
-        <v>493.873313577402</v>
+        <v>431.29</v>
       </c>
       <c r="P121" t="n">
-        <v>20.5963965237275</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>403.72699118411</v>
+        <v>2.682213</v>
       </c>
     </row>
     <row r="122">
@@ -6860,25 +6481,22 @@
         <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>3.20326700909087</v>
+        <v>2.611312</v>
       </c>
       <c r="L122" t="n">
-        <v>46.3244961228869</v>
+        <v>24.63067</v>
       </c>
       <c r="M122" t="n">
-        <v>5.01704948046372</v>
+        <v>1.915598</v>
       </c>
       <c r="N122" t="n">
-        <v>2.28733861429869</v>
+        <v>1.641653</v>
       </c>
       <c r="O122" t="n">
-        <v>507.811101199509</v>
+        <v>443.4616</v>
       </c>
       <c r="P122" t="n">
-        <v>15.8106841273542</v>
-      </c>
-      <c r="Q122" t="n">
-        <v>428.687810388583</v>
+        <v>3.03149</v>
       </c>
     </row>
     <row r="123">
@@ -6913,25 +6531,22 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>0.793630809674034</v>
+        <v>0.64697</v>
       </c>
       <c r="L123" t="n">
-        <v>23.730624575392</v>
+        <v>12.61754</v>
       </c>
       <c r="M123" t="n">
-        <v>3.860586415408</v>
+        <v>1.47404</v>
       </c>
       <c r="N123" t="n">
-        <v>2.83161734246792</v>
+        <v>2.032289</v>
       </c>
       <c r="O123" t="n">
-        <v>414.258814690065</v>
+        <v>361.7642</v>
       </c>
       <c r="P123" t="n">
-        <v>13.4367886937986</v>
-      </c>
-      <c r="Q123" t="n">
-        <v>441.179026940661</v>
+        <v>9.019633</v>
       </c>
     </row>
     <row r="124">
@@ -6966,25 +6581,22 @@
         <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>1.14879596127955</v>
+        <v>0.9365016</v>
       </c>
       <c r="L124" t="n">
-        <v>28.9937190612653</v>
+        <v>15.41592</v>
       </c>
       <c r="M124" t="n">
-        <v>4.82646111552841</v>
+        <v>1.842828</v>
       </c>
       <c r="N124" t="n">
-        <v>2.47747446476347</v>
+        <v>1.778116</v>
       </c>
       <c r="O124" t="n">
-        <v>440.335769948571</v>
+        <v>384.5367</v>
       </c>
       <c r="P124" t="n">
-        <v>11.771646362535</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>449.684196662344</v>
+        <v>6.485958</v>
       </c>
     </row>
     <row r="125">
@@ -7019,25 +6631,22 @@
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>0.824430878392118</v>
+        <v>0.6720783</v>
       </c>
       <c r="L125" t="n">
-        <v>28.0326482694924</v>
+        <v>14.90492</v>
       </c>
       <c r="M125" t="n">
-        <v>4.89712835838514</v>
+        <v>1.86981</v>
       </c>
       <c r="N125" t="n">
-        <v>2.44663623917604</v>
+        <v>1.755983</v>
       </c>
       <c r="O125" t="n">
-        <v>467.104484507623</v>
+        <v>407.9133</v>
       </c>
       <c r="P125" t="n">
-        <v>10.6086129325298</v>
-      </c>
-      <c r="Q125" t="n">
-        <v>458.935947695024</v>
+        <v>6.383825</v>
       </c>
     </row>
     <row r="126">
@@ -7072,25 +6681,22 @@
         <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>0.864218282113489</v>
+        <v>0.7045131</v>
       </c>
       <c r="L126" t="n">
-        <v>24.7916203988026</v>
+        <v>13.18167</v>
       </c>
       <c r="M126" t="n">
-        <v>4.77885985769277</v>
+        <v>1.824653</v>
       </c>
       <c r="N126" t="n">
-        <v>2.88983558752936</v>
+        <v>2.074073</v>
       </c>
       <c r="O126" t="n">
-        <v>409.722243226781</v>
+        <v>357.8025</v>
       </c>
       <c r="P126" t="n">
-        <v>10.7296865746252</v>
-      </c>
-      <c r="Q126" t="n">
-        <v>454.118753381898</v>
+        <v>7.054175</v>
       </c>
     </row>
     <row r="127">
@@ -7125,25 +6731,22 @@
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>1.26416898068352</v>
+        <v>1.030554</v>
       </c>
       <c r="L127" t="n">
-        <v>23.2069068206424</v>
+        <v>12.33908</v>
       </c>
       <c r="M127" t="n">
-        <v>3.71103334663604</v>
+        <v>1.416938</v>
       </c>
       <c r="N127" t="n">
-        <v>3.28037740822599</v>
+        <v>2.35437</v>
       </c>
       <c r="O127" t="n">
-        <v>403.79241975063</v>
+        <v>352.6241</v>
       </c>
       <c r="P127" t="n">
-        <v>11.418571627079</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>447.684438585028</v>
+        <v>7.283608</v>
       </c>
     </row>
     <row r="128">
@@ -7178,25 +6781,22 @@
         <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>1.32009862678191</v>
+        <v>1.076148</v>
       </c>
       <c r="L128" t="n">
-        <v>24.8577480877238</v>
+        <v>13.21683</v>
       </c>
       <c r="M128" t="n">
-        <v>3.8400032910432</v>
+        <v>1.466181</v>
       </c>
       <c r="N128" t="n">
-        <v>3.8116063545829</v>
+        <v>2.73564</v>
       </c>
       <c r="O128" t="n">
-        <v>400.990800308959</v>
+        <v>350.1775</v>
       </c>
       <c r="P128" t="n">
-        <v>12.0102344102723</v>
-      </c>
-      <c r="Q128" t="n">
-        <v>442.236118401193</v>
+        <v>7.0248</v>
       </c>
     </row>
     <row r="129">
@@ -7231,25 +6831,22 @@
         <v>0.015</v>
       </c>
       <c r="K129" t="n">
-        <v>5.76528370962603</v>
+        <v>4.699875</v>
       </c>
       <c r="L129" t="n">
-        <v>29.5300379398992</v>
+        <v>15.70108</v>
       </c>
       <c r="M129" t="n">
-        <v>4.41822958546841</v>
+        <v>1.686958</v>
       </c>
       <c r="N129" t="n">
-        <v>2.83899076178787</v>
+        <v>2.037581</v>
       </c>
       <c r="O129" t="n">
-        <v>468.49670592395</v>
+        <v>409.1291</v>
       </c>
       <c r="P129" t="n">
-        <v>12.5846080018777</v>
-      </c>
-      <c r="Q129" t="n">
-        <v>439.064042444511</v>
+        <v>5.023933</v>
       </c>
     </row>
     <row r="130">
@@ -7284,25 +6881,22 @@
         <v>0.155</v>
       </c>
       <c r="K130" t="n">
-        <v>16.2682478436902</v>
+        <v>13.26192</v>
       </c>
       <c r="L130" t="n">
-        <v>36.51645836666</v>
+        <v>19.41575</v>
       </c>
       <c r="M130" t="n">
-        <v>4.69114520976027</v>
+        <v>1.791162</v>
       </c>
       <c r="N130" t="n">
-        <v>2.93509600952285</v>
+        <v>2.106557</v>
       </c>
       <c r="O130" t="n">
-        <v>565.072190131407</v>
+        <v>493.4666</v>
       </c>
       <c r="P130" t="n">
-        <v>13.0575890990018</v>
-      </c>
-      <c r="Q130" t="n">
-        <v>446.221678560998</v>
+        <v>4.959833</v>
       </c>
     </row>
     <row r="131">
@@ -7337,25 +6931,22 @@
         <v>0.512</v>
       </c>
       <c r="K131" t="n">
-        <v>34.3361461939829</v>
+        <v>27.99092</v>
       </c>
       <c r="L131" t="n">
-        <v>50.1786344973146</v>
+        <v>26.67991</v>
       </c>
       <c r="M131" t="n">
-        <v>5.16133301796937</v>
+        <v>1.970688</v>
       </c>
       <c r="N131" t="n">
-        <v>3.12490025118223</v>
+        <v>2.242782</v>
       </c>
       <c r="O131" t="n">
-        <v>707.302185024667</v>
+        <v>617.6733</v>
       </c>
       <c r="P131" t="n">
-        <v>12.7435160993643</v>
-      </c>
-      <c r="Q131" t="n">
-        <v>482.852099852823</v>
+        <v>7.739158</v>
       </c>
     </row>
     <row r="132">
@@ -7390,25 +6981,22 @@
         <v>0.67</v>
       </c>
       <c r="K132" t="n">
-        <v>25.9403818322482</v>
+        <v>21.14667</v>
       </c>
       <c r="L132" t="n">
-        <v>46.1881406778702</v>
+        <v>24.55817</v>
       </c>
       <c r="M132" t="n">
-        <v>5.68262637468723</v>
+        <v>2.169727</v>
       </c>
       <c r="N132" t="n">
-        <v>3.42932688773498</v>
+        <v>2.461273</v>
       </c>
       <c r="O132" t="n">
-        <v>623.62060865389</v>
+        <v>544.5958</v>
       </c>
       <c r="P132" t="n">
-        <v>13.9466591882162</v>
-      </c>
-      <c r="Q132" t="n">
-        <v>505.762704690988</v>
+        <v>11.39117</v>
       </c>
     </row>
     <row r="133">
@@ -7443,25 +7031,22 @@
         <v>0.712</v>
       </c>
       <c r="K133" t="n">
-        <v>15.1731460109618</v>
+        <v>12.36919</v>
       </c>
       <c r="L133" t="n">
-        <v>39.010502898077</v>
+        <v>20.74183</v>
       </c>
       <c r="M133" t="n">
-        <v>6.21336141143246</v>
+        <v>2.372371</v>
       </c>
       <c r="N133" t="n">
-        <v>3.68660516140638</v>
+        <v>2.645925</v>
       </c>
       <c r="O133" t="n">
-        <v>521.41405945648</v>
+        <v>455.3408</v>
       </c>
       <c r="P133" t="n">
-        <v>16.3378609828553</v>
-      </c>
-      <c r="Q133" t="n">
-        <v>512.551401559595</v>
+        <v>16.13275</v>
       </c>
     </row>
     <row r="134">
@@ -7496,25 +7081,22 @@
         <v>0.771</v>
       </c>
       <c r="K134" t="n">
-        <v>8.44330836365342</v>
+        <v>6.883008</v>
       </c>
       <c r="L134" t="n">
-        <v>29.2059257490064</v>
+        <v>15.52875</v>
       </c>
       <c r="M134" t="n">
-        <v>5.46170939540602</v>
+        <v>2.085377</v>
       </c>
       <c r="N134" t="n">
-        <v>3.09277320985955</v>
+        <v>2.219724</v>
       </c>
       <c r="O134" t="n">
-        <v>445.680558121547</v>
+        <v>389.2042</v>
       </c>
       <c r="P134" t="n">
-        <v>20.0154013934757</v>
-      </c>
-      <c r="Q134" t="n">
-        <v>517.046190921441</v>
+        <v>22.0475</v>
       </c>
     </row>
     <row r="135">
@@ -7549,25 +7131,22 @@
         <v>0.817</v>
       </c>
       <c r="K135" t="n">
-        <v>4.69793202941851</v>
+        <v>3.829767</v>
       </c>
       <c r="L135" t="n">
-        <v>19.3598965446507</v>
+        <v>10.29363</v>
       </c>
       <c r="M135" t="n">
-        <v>8.66417011761073</v>
+        <v>3.308133</v>
       </c>
       <c r="N135" t="n">
-        <v>5.13833417216759</v>
+        <v>3.68785</v>
       </c>
       <c r="O135" t="n">
-        <v>367.501107662356</v>
+        <v>320.9316</v>
       </c>
       <c r="P135" t="n">
-        <v>24.1664267032789</v>
-      </c>
-      <c r="Q135" t="n">
-        <v>512.509776910407</v>
+        <v>24.20733</v>
       </c>
     </row>
     <row r="136">
@@ -7602,25 +7181,22 @@
         <v>0.722</v>
       </c>
       <c r="K136" t="n">
-        <v>4.63922393333958</v>
+        <v>3.781908</v>
       </c>
       <c r="L136" t="n">
-        <v>19.8994879539651</v>
+        <v>10.58053</v>
       </c>
       <c r="M136" t="n">
-        <v>8.72781306481326</v>
+        <v>3.332433</v>
       </c>
       <c r="N136" t="n">
-        <v>4.13326410918742</v>
+        <v>2.966498</v>
       </c>
       <c r="O136" t="n">
-        <v>376.647651964796</v>
+        <v>328.9191</v>
       </c>
       <c r="P136" t="n">
-        <v>28.7097278957851</v>
-      </c>
-      <c r="Q136" t="n">
-        <v>509.466883367386</v>
+        <v>25.54783</v>
       </c>
     </row>
     <row r="137">
@@ -7655,25 +7231,22 @@
         <v>0.56</v>
       </c>
       <c r="K137" t="n">
-        <v>4.10497032284252</v>
+        <v>3.346383</v>
       </c>
       <c r="L137" t="n">
-        <v>19.110695214103</v>
+        <v>10.16113</v>
       </c>
       <c r="M137" t="n">
-        <v>7.37734377284284</v>
+        <v>2.8168</v>
       </c>
       <c r="N137" t="n">
-        <v>3.66424386007116</v>
+        <v>2.629876</v>
       </c>
       <c r="O137" t="n">
-        <v>361.644914583531</v>
+        <v>315.8175</v>
       </c>
       <c r="P137" t="n">
-        <v>33.8713852864108</v>
-      </c>
-      <c r="Q137" t="n">
-        <v>496.110409449834</v>
+        <v>26.068</v>
       </c>
     </row>
     <row r="138">
@@ -7708,25 +7281,22 @@
         <v>0.345</v>
       </c>
       <c r="K138" t="n">
-        <v>4.14894711392528</v>
+        <v>3.382233</v>
       </c>
       <c r="L138" t="n">
-        <v>17.6161981598953</v>
+        <v>9.366508</v>
       </c>
       <c r="M138" t="n">
-        <v>6.07047906638579</v>
+        <v>2.317816</v>
       </c>
       <c r="N138" t="n">
-        <v>5.15779459311277</v>
+        <v>3.701817</v>
       </c>
       <c r="O138" t="n">
-        <v>334.307425244508</v>
+        <v>291.9442</v>
       </c>
       <c r="P138" t="n">
-        <v>37.9038662661101</v>
-      </c>
-      <c r="Q138" t="n">
-        <v>467.264813838972</v>
+        <v>21.40025</v>
       </c>
     </row>
     <row r="139">
@@ -7761,25 +7331,22 @@
         <v>0.118</v>
       </c>
       <c r="K139" t="n">
-        <v>3.7349089992751</v>
+        <v>3.044708</v>
       </c>
       <c r="L139" t="n">
-        <v>20.4193877562542</v>
+        <v>10.85696</v>
       </c>
       <c r="M139" t="n">
-        <v>5.60764555429788</v>
+        <v>2.141098</v>
       </c>
       <c r="N139" t="n">
-        <v>5.17347773896792</v>
+        <v>3.713073</v>
       </c>
       <c r="O139" t="n">
-        <v>365.795928429709</v>
+        <v>319.4425</v>
       </c>
       <c r="P139" t="n">
-        <v>40.411574616995</v>
-      </c>
-      <c r="Q139" t="n">
-        <v>424.576531764602</v>
+        <v>17.96308</v>
       </c>
     </row>
     <row r="140">
@@ -7814,25 +7381,22 @@
         <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>2.17135804644973</v>
+        <v>1.770097</v>
       </c>
       <c r="L140" t="n">
-        <v>38.1030339019315</v>
+        <v>20.25933</v>
       </c>
       <c r="M140" t="n">
-        <v>5.63097868255415</v>
+        <v>2.150007</v>
       </c>
       <c r="N140" t="n">
-        <v>4.87794741427419</v>
+        <v>3.500967</v>
       </c>
       <c r="O140" t="n">
-        <v>420.737259058272</v>
+        <v>367.4217</v>
       </c>
       <c r="P140" t="n">
-        <v>40.4897154445977</v>
-      </c>
-      <c r="Q140" t="n">
-        <v>399.21611306515</v>
+        <v>11.70975</v>
       </c>
     </row>
     <row r="141">
@@ -7867,25 +7431,22 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>4.5866603211249</v>
+        <v>3.739058</v>
       </c>
       <c r="L141" t="n">
-        <v>49.4570602899338</v>
+        <v>26.29625</v>
       </c>
       <c r="M141" t="n">
-        <v>5.42148076705084</v>
+        <v>2.070017</v>
       </c>
       <c r="N141" t="n">
-        <v>8.85091349891084</v>
+        <v>6.352417</v>
       </c>
       <c r="O141" t="n">
-        <v>501.319373586994</v>
+        <v>437.7925</v>
       </c>
       <c r="P141" t="n">
-        <v>38.0203392192001</v>
-      </c>
-      <c r="Q141" t="n">
-        <v>396.704277331464</v>
+        <v>6.065108</v>
       </c>
     </row>
     <row r="142">
@@ -7920,25 +7481,22 @@
         <v>0</v>
       </c>
       <c r="K142" t="n">
-        <v>2.60292186303016</v>
+        <v>2.121909</v>
       </c>
       <c r="L142" t="n">
-        <v>27.1837274802899</v>
+        <v>14.45355</v>
       </c>
       <c r="M142" t="n">
-        <v>4.75465720439654</v>
+        <v>1.815412</v>
       </c>
       <c r="N142" t="n">
-        <v>11.8784224732514</v>
+        <v>8.5253</v>
       </c>
       <c r="O142" t="n">
-        <v>407.900492074261</v>
+        <v>356.2116</v>
       </c>
       <c r="P142" t="n">
-        <v>34.8506312838606</v>
-      </c>
-      <c r="Q142" t="n">
-        <v>391.981769075553</v>
+        <v>9.124607</v>
       </c>
     </row>
     <row r="143">
@@ -7973,25 +7531,22 @@
         <v>0</v>
       </c>
       <c r="K143" t="n">
-        <v>1.64808330011419</v>
+        <v>1.343522</v>
       </c>
       <c r="L143" t="n">
-        <v>36.3304131167145</v>
+        <v>19.31683</v>
       </c>
       <c r="M143" t="n">
-        <v>4.78438605598896</v>
+        <v>1.826763</v>
       </c>
       <c r="N143" t="n">
-        <v>8.92633638905219</v>
+        <v>6.406549</v>
       </c>
       <c r="O143" t="n">
-        <v>447.278898846097</v>
+        <v>390.6</v>
       </c>
       <c r="P143" t="n">
-        <v>30.3490661919985</v>
-      </c>
-      <c r="Q143" t="n">
-        <v>401.953992973521</v>
+        <v>5.854458</v>
       </c>
     </row>
     <row r="144">
@@ -8026,25 +7581,22 @@
         <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>3.39254017385812</v>
+        <v>2.765608</v>
       </c>
       <c r="L144" t="n">
-        <v>49.4786890846606</v>
+        <v>26.30775</v>
       </c>
       <c r="M144" t="n">
-        <v>4.35376687520109</v>
+        <v>1.662345</v>
       </c>
       <c r="N144" t="n">
-        <v>8.36645672057201</v>
+        <v>6.004716</v>
       </c>
       <c r="O144" t="n">
-        <v>521.187900771067</v>
+        <v>455.1433</v>
       </c>
       <c r="P144" t="n">
-        <v>24.6058566436256</v>
-      </c>
-      <c r="Q144" t="n">
-        <v>420.021524074305</v>
+        <v>2.132776</v>
       </c>
     </row>
     <row r="145">
@@ -8079,25 +7631,22 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>3.39819398222912</v>
+        <v>2.770217</v>
       </c>
       <c r="L145" t="n">
-        <v>44.4684822282624</v>
+        <v>23.64383</v>
       </c>
       <c r="M145" t="n">
-        <v>4.40313599268124</v>
+        <v>1.681195</v>
       </c>
       <c r="N145" t="n">
-        <v>8.6446096292116</v>
+        <v>6.20435</v>
       </c>
       <c r="O145" t="n">
-        <v>536.687958238786</v>
+        <v>468.6792</v>
       </c>
       <c r="P145" t="n">
-        <v>18.5995979123056</v>
-      </c>
-      <c r="Q145" t="n">
-        <v>441.901904531212</v>
+        <v>1.580495</v>
       </c>
     </row>
     <row r="146">
@@ -8132,25 +7681,22 @@
         <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>5.29023745752229</v>
+        <v>4.312616</v>
       </c>
       <c r="L146" t="n">
-        <v>50.5522860319555</v>
+        <v>26.87858</v>
       </c>
       <c r="M146" t="n">
-        <v>5.37976189849162</v>
+        <v>2.054088</v>
       </c>
       <c r="N146" t="n">
-        <v>7.14338312764511</v>
+        <v>5.1269</v>
       </c>
       <c r="O146" t="n">
-        <v>634.970568361245</v>
+        <v>554.5075</v>
       </c>
       <c r="P146" t="n">
-        <v>13.3965430525462</v>
-      </c>
-      <c r="Q146" t="n">
-        <v>479.484797420804</v>
+        <v>0.1874056</v>
       </c>
     </row>
     <row r="147">
@@ -8185,25 +7731,22 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>3.08638197315444</v>
+        <v>2.516027</v>
       </c>
       <c r="L147" t="n">
-        <v>46.0489640857152</v>
+        <v>24.48417</v>
       </c>
       <c r="M147" t="n">
-        <v>5.12914225813125</v>
+        <v>1.958397</v>
       </c>
       <c r="N147" t="n">
-        <v>5.71089300085405</v>
+        <v>4.098783</v>
       </c>
       <c r="O147" t="n">
-        <v>593.3267958813</v>
+        <v>518.1408</v>
       </c>
       <c r="P147" t="n">
-        <v>9.2033427162058</v>
-      </c>
-      <c r="Q147" t="n">
-        <v>507.926155852253</v>
+        <v>0.8674105</v>
       </c>
     </row>
     <row r="148">
@@ -8238,25 +7781,22 @@
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>1.72297264727186</v>
+        <v>1.404572</v>
       </c>
       <c r="L148" t="n">
-        <v>35.9548808173147</v>
+        <v>19.11716</v>
       </c>
       <c r="M148" t="n">
-        <v>4.93377412452744</v>
+        <v>1.883802</v>
       </c>
       <c r="N148" t="n">
-        <v>3.83165057422329</v>
+        <v>2.750026</v>
       </c>
       <c r="O148" t="n">
-        <v>529.131166356386</v>
+        <v>462.08</v>
       </c>
       <c r="P148" t="n">
-        <v>7.02372306955651</v>
-      </c>
-      <c r="Q148" t="n">
-        <v>521.475394264517</v>
+        <v>2.823445</v>
       </c>
     </row>
     <row r="149">
@@ -8291,25 +7831,22 @@
         <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>2.01238654676829</v>
+        <v>1.640503</v>
       </c>
       <c r="L149" t="n">
-        <v>39.7809957968355</v>
+        <v>21.1515</v>
       </c>
       <c r="M149" t="n">
-        <v>4.982365383764</v>
+        <v>1.902355</v>
       </c>
       <c r="N149" t="n">
-        <v>4.56181554421671</v>
+        <v>3.274075</v>
       </c>
       <c r="O149" t="n">
-        <v>621.852334010781</v>
+        <v>543.0516</v>
       </c>
       <c r="P149" t="n">
-        <v>5.8029096263128</v>
-      </c>
-      <c r="Q149" t="n">
-        <v>536.54201431749</v>
+        <v>1.087854</v>
       </c>
     </row>
     <row r="150">
@@ -8344,25 +7881,22 @@
         <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>1.07571916939395</v>
+        <v>0.8769292</v>
       </c>
       <c r="L150" t="n">
-        <v>32.7658937075022</v>
+        <v>17.42158</v>
       </c>
       <c r="M150" t="n">
-        <v>5.43650102640091</v>
+        <v>2.075752</v>
       </c>
       <c r="N150" t="n">
-        <v>2.77443014999467</v>
+        <v>1.991245</v>
       </c>
       <c r="O150" t="n">
-        <v>509.131867922318</v>
+        <v>444.615</v>
       </c>
       <c r="P150" t="n">
-        <v>4.322365863636</v>
-      </c>
-      <c r="Q150" t="n">
-        <v>549.195936298498</v>
+        <v>3.088433</v>
       </c>
     </row>
     <row r="151">
@@ -8397,25 +7931,22 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>2.63418770546021</v>
+        <v>2.147397</v>
       </c>
       <c r="L151" t="n">
-        <v>36.60092351198</v>
+        <v>19.46066</v>
       </c>
       <c r="M151" t="n">
-        <v>4.35133901462262</v>
+        <v>1.661418</v>
       </c>
       <c r="N151" t="n">
-        <v>3.673094192558</v>
+        <v>2.636228</v>
       </c>
       <c r="O151" t="n">
-        <v>544.741841186185</v>
+        <v>475.7125</v>
       </c>
       <c r="P151" t="n">
-        <v>3.27625056721576</v>
-      </c>
-      <c r="Q151" t="n">
-        <v>561.378804091009</v>
+        <v>1.589448</v>
       </c>
     </row>
     <row r="152">
@@ -8450,25 +7981,22 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>3.92674349011712</v>
+        <v>3.201092</v>
       </c>
       <c r="L152" t="n">
-        <v>40.9973804046223</v>
+        <v>21.79825</v>
       </c>
       <c r="M152" t="n">
-        <v>5.49886849560806</v>
+        <v>2.099565</v>
       </c>
       <c r="N152" t="n">
-        <v>2.67820507722918</v>
+        <v>1.922183</v>
       </c>
       <c r="O152" t="n">
-        <v>567.779452734202</v>
+        <v>495.8308</v>
       </c>
       <c r="P152" t="n">
-        <v>2.88932396352957</v>
-      </c>
-      <c r="Q152" t="n">
-        <v>567.202748086401</v>
+        <v>0.555277</v>
       </c>
     </row>
     <row r="153">
@@ -8503,25 +8031,22 @@
         <v>0.044</v>
       </c>
       <c r="K153" t="n">
-        <v>21.127578989793</v>
+        <v>17.22326</v>
       </c>
       <c r="L153" t="n">
-        <v>43.6370337436696</v>
+        <v>23.20175</v>
       </c>
       <c r="M153" t="n">
-        <v>5.10935794442063</v>
+        <v>1.950843</v>
       </c>
       <c r="N153" t="n">
-        <v>3.66618335358842</v>
+        <v>2.631268</v>
       </c>
       <c r="O153" t="n">
-        <v>715.666277530944</v>
+        <v>624.9775</v>
       </c>
       <c r="P153" t="n">
-        <v>2.78023610108652</v>
-      </c>
-      <c r="Q153" t="n">
-        <v>589.57503799792</v>
+        <v>1.135744</v>
       </c>
     </row>
     <row r="154">
@@ -8556,25 +8081,22 @@
         <v>0.129</v>
       </c>
       <c r="K154" t="n">
-        <v>26.6796580641572</v>
+        <v>21.74933</v>
       </c>
       <c r="L154" t="n">
-        <v>43.1321988670989</v>
+        <v>22.93333</v>
       </c>
       <c r="M154" t="n">
-        <v>5.80474226177632</v>
+        <v>2.216353</v>
       </c>
       <c r="N154" t="n">
-        <v>2.84883731400521</v>
+        <v>2.044648</v>
       </c>
       <c r="O154" t="n">
-        <v>664.427422231718</v>
+        <v>580.2316</v>
       </c>
       <c r="P154" t="n">
-        <v>3.45215460130404</v>
-      </c>
-      <c r="Q154" t="n">
-        <v>593.257144731729</v>
+        <v>2.926816</v>
       </c>
     </row>
     <row r="155">
@@ -8609,25 +8131,22 @@
         <v>0.49</v>
       </c>
       <c r="K155" t="n">
-        <v>28.7080982863759</v>
+        <v>23.40292</v>
       </c>
       <c r="L155" t="n">
-        <v>42.4977604909957</v>
+        <v>22.596</v>
       </c>
       <c r="M155" t="n">
-        <v>5.32232348387851</v>
+        <v>2.032157</v>
       </c>
       <c r="N155" t="n">
-        <v>3.46729330932409</v>
+        <v>2.488522</v>
       </c>
       <c r="O155" t="n">
-        <v>678.726949239759</v>
+        <v>592.7191</v>
       </c>
       <c r="P155" t="n">
-        <v>4.94276471665591</v>
-      </c>
-      <c r="Q155" t="n">
-        <v>603.932163901537</v>
+        <v>6.944625</v>
       </c>
     </row>
     <row r="156">
@@ -8662,25 +8181,22 @@
         <v>0.706</v>
       </c>
       <c r="K156" t="n">
-        <v>40.1638254260197</v>
+        <v>32.74166</v>
       </c>
       <c r="L156" t="n">
-        <v>63.0476168985714</v>
+        <v>33.52233</v>
       </c>
       <c r="M156" t="n">
-        <v>5.42559267763142</v>
+        <v>2.071587</v>
       </c>
       <c r="N156" t="n">
-        <v>6.17579600618904</v>
+        <v>4.43245</v>
       </c>
       <c r="O156" t="n">
-        <v>816.17325852132</v>
+        <v>712.7483</v>
       </c>
       <c r="P156" t="n">
-        <v>6.64893944451945</v>
-      </c>
-      <c r="Q156" t="n">
-        <v>639.812425422154</v>
+        <v>9.779516</v>
       </c>
     </row>
     <row r="157">
@@ -8715,25 +8231,22 @@
         <v>0.824</v>
       </c>
       <c r="K157" t="n">
-        <v>22.7978997032614</v>
+        <v>18.58491</v>
       </c>
       <c r="L157" t="n">
-        <v>48.3875257945181</v>
+        <v>25.72758</v>
       </c>
       <c r="M157" t="n">
-        <v>7.64055843102613</v>
+        <v>2.9173</v>
       </c>
       <c r="N157" t="n">
-        <v>5.56738162709067</v>
+        <v>3.995783</v>
       </c>
       <c r="O157" t="n">
-        <v>656.621684029275</v>
+        <v>573.415</v>
       </c>
       <c r="P157" t="n">
-        <v>10.0108434502819</v>
-      </c>
-      <c r="Q157" t="n">
-        <v>644.158594174465</v>
+        <v>14.79433</v>
       </c>
     </row>
     <row r="158">
@@ -8768,25 +8281,22 @@
         <v>0.873</v>
       </c>
       <c r="K158" t="n">
-        <v>4.94157203883814</v>
+        <v>4.028383</v>
       </c>
       <c r="L158" t="n">
-        <v>17.0590686192047</v>
+        <v>9.070283</v>
       </c>
       <c r="M158" t="n">
-        <v>7.03026185312377</v>
+        <v>2.684278</v>
       </c>
       <c r="N158" t="n">
-        <v>3.71758968499619</v>
+        <v>2.668163</v>
       </c>
       <c r="O158" t="n">
-        <v>402.043268398896</v>
+        <v>351.0966</v>
       </c>
       <c r="P158" t="n">
-        <v>14.3305406592051</v>
-      </c>
-      <c r="Q158" t="n">
-        <v>630.772519234037</v>
+        <v>20.69983</v>
       </c>
     </row>
     <row r="159">
@@ -8821,25 +8331,22 @@
         <v>0.832</v>
       </c>
       <c r="K159" t="n">
-        <v>4.32990455577063</v>
+        <v>3.52975</v>
       </c>
       <c r="L159" t="n">
-        <v>16.8885321554607</v>
+        <v>8.979609</v>
       </c>
       <c r="M159" t="n">
-        <v>8.16371393323622</v>
+        <v>3.11705</v>
       </c>
       <c r="N159" t="n">
-        <v>3.62016078866825</v>
+        <v>2.598237</v>
       </c>
       <c r="O159" t="n">
-        <v>394.834932658122</v>
+        <v>344.8017</v>
       </c>
       <c r="P159" t="n">
-        <v>19.6512574841578</v>
-      </c>
-      <c r="Q159" t="n">
-        <v>612.034155668029</v>
+        <v>23.282</v>
       </c>
     </row>
     <row r="160">
@@ -8874,25 +8381,22 @@
         <v>0.726</v>
       </c>
       <c r="K160" t="n">
-        <v>4.68494875586705</v>
+        <v>3.819183</v>
       </c>
       <c r="L160" t="n">
-        <v>20.0840662073987</v>
+        <v>10.67867</v>
       </c>
       <c r="M160" t="n">
-        <v>7.93249098699032</v>
+        <v>3.028765</v>
       </c>
       <c r="N160" t="n">
-        <v>3.05269173715031</v>
+        <v>2.190957</v>
       </c>
       <c r="O160" t="n">
-        <v>407.529362808731</v>
+        <v>355.8875</v>
       </c>
       <c r="P160" t="n">
-        <v>25.7580308581733</v>
-      </c>
-      <c r="Q160" t="n">
-        <v>592.002894427345</v>
+        <v>25.45258</v>
       </c>
     </row>
     <row r="161">
@@ -8927,25 +8431,22 @@
         <v>0.56</v>
       </c>
       <c r="K161" t="n">
-        <v>5.87349850959668</v>
+        <v>4.788092</v>
       </c>
       <c r="L161" t="n">
-        <v>33.2533315100536</v>
+        <v>17.68075</v>
       </c>
       <c r="M161" t="n">
-        <v>8.08754406354522</v>
+        <v>3.087967</v>
       </c>
       <c r="N161" t="n">
-        <v>2.78835353987834</v>
+        <v>2.001238</v>
       </c>
       <c r="O161" t="n">
-        <v>482.840205051078</v>
+        <v>421.655</v>
       </c>
       <c r="P161" t="n">
-        <v>32.5503044412094</v>
-      </c>
-      <c r="Q161" t="n">
-        <v>562.899635367362</v>
+        <v>28.82783</v>
       </c>
     </row>
     <row r="162">
@@ -8980,25 +8481,22 @@
         <v>0.347</v>
       </c>
       <c r="K162" t="n">
-        <v>4.64464221747382</v>
+        <v>3.786325</v>
       </c>
       <c r="L162" t="n">
-        <v>25.1381136903257</v>
+        <v>13.3659</v>
       </c>
       <c r="M162" t="n">
-        <v>7.29628413432768</v>
+        <v>2.78585</v>
       </c>
       <c r="N162" t="n">
-        <v>3.62668010631717</v>
+        <v>2.602916</v>
       </c>
       <c r="O162" t="n">
-        <v>421.437606663326</v>
+        <v>368.0333</v>
       </c>
       <c r="P162" t="n">
-        <v>38.1690057125164</v>
-      </c>
-      <c r="Q162" t="n">
-        <v>532.525908421313</v>
+        <v>25.83425</v>
       </c>
     </row>
     <row r="163">
@@ -9033,25 +8531,22 @@
         <v>0.12</v>
       </c>
       <c r="K163" t="n">
-        <v>3.25926044300339</v>
+        <v>2.656958</v>
       </c>
       <c r="L163" t="n">
-        <v>18.0220371026192</v>
+        <v>9.582292</v>
       </c>
       <c r="M163" t="n">
-        <v>4.43882580508984</v>
+        <v>1.694822</v>
       </c>
       <c r="N163" t="n">
-        <v>1.73775135861454</v>
+        <v>1.247207</v>
       </c>
       <c r="O163" t="n">
-        <v>393.914037393267</v>
+        <v>343.9975</v>
       </c>
       <c r="P163" t="n">
-        <v>40.6976321505393</v>
-      </c>
-      <c r="Q163" t="n">
-        <v>496.924294440502</v>
+        <v>17.25383</v>
       </c>
     </row>
     <row r="164">
@@ -9086,25 +8581,22 @@
         <v>0</v>
       </c>
       <c r="K164" t="n">
-        <v>3.06878512327767</v>
+        <v>2.501682</v>
       </c>
       <c r="L164" t="n">
-        <v>25.9345235274611</v>
+        <v>13.78935</v>
       </c>
       <c r="M164" t="n">
-        <v>4.19792808324863</v>
+        <v>1.602843</v>
       </c>
       <c r="N164" t="n">
-        <v>1.04761853800383</v>
+        <v>0.7518896</v>
       </c>
       <c r="O164" t="n">
-        <v>427.812075291608</v>
+        <v>373.6</v>
       </c>
       <c r="P164" t="n">
-        <v>41.2092767444172</v>
-      </c>
-      <c r="Q164" t="n">
-        <v>448.379146536788</v>
+        <v>11.86549</v>
       </c>
     </row>
     <row r="165">
@@ -9139,25 +8631,22 @@
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>2.1609863932111</v>
+        <v>1.761642</v>
       </c>
       <c r="L165" t="n">
-        <v>31.2562790661629</v>
+        <v>16.61892</v>
       </c>
       <c r="M165" t="n">
-        <v>4.20955405208122</v>
+        <v>1.607282</v>
       </c>
       <c r="N165" t="n">
-        <v>2.51745143889957</v>
+        <v>1.806808</v>
       </c>
       <c r="O165" t="n">
-        <v>440.166866626555</v>
+        <v>384.3892</v>
       </c>
       <c r="P165" t="n">
-        <v>39.7676221347231</v>
-      </c>
-      <c r="Q165" t="n">
-        <v>421.322294361448</v>
+        <v>8.916707</v>
       </c>
     </row>
     <row r="166">
@@ -9192,25 +8681,22 @@
         <v>0</v>
       </c>
       <c r="K166" t="n">
-        <v>1.96972721938491</v>
+        <v>1.605727</v>
       </c>
       <c r="L166" t="n">
-        <v>31.3374528731549</v>
+        <v>16.66208</v>
       </c>
       <c r="M166" t="n">
-        <v>4.42535340507297</v>
+        <v>1.689678</v>
       </c>
       <c r="N166" t="n">
-        <v>4.08955862596208</v>
+        <v>2.93513</v>
       </c>
       <c r="O166" t="n">
-        <v>460.784408474568</v>
+        <v>402.3941</v>
       </c>
       <c r="P166" t="n">
-        <v>36.7507953133312</v>
-      </c>
-      <c r="Q166" t="n">
-        <v>428.664936870907</v>
+        <v>8.400233</v>
       </c>
     </row>
     <row r="167">
@@ -9245,25 +8731,22 @@
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>1.89732314360056</v>
+        <v>1.546703</v>
       </c>
       <c r="L167" t="n">
-        <v>38.5012858396182</v>
+        <v>20.47108</v>
       </c>
       <c r="M167" t="n">
-        <v>4.53372189175606</v>
+        <v>1.731055</v>
       </c>
       <c r="N167" t="n">
-        <v>4.59257295757425</v>
+        <v>3.29615</v>
       </c>
       <c r="O167" t="n">
-        <v>480.420135351075</v>
+        <v>419.5416</v>
       </c>
       <c r="P167" t="n">
-        <v>32.4493112601417</v>
-      </c>
-      <c r="Q167" t="n">
-        <v>439.363087207526</v>
+        <v>5.744858</v>
       </c>
     </row>
     <row r="168">
@@ -9298,25 +8781,22 @@
         <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>3.09098696265862</v>
+        <v>2.519781</v>
       </c>
       <c r="L168" t="n">
-        <v>38.0414388560791</v>
+        <v>20.22658</v>
       </c>
       <c r="M168" t="n">
-        <v>4.855490680417</v>
+        <v>1.853912</v>
       </c>
       <c r="N168" t="n">
-        <v>3.54800243395144</v>
+        <v>2.546448</v>
       </c>
       <c r="O168" t="n">
-        <v>503.377703901065</v>
+        <v>439.59</v>
       </c>
       <c r="P168" t="n">
-        <v>27.5240233731335</v>
-      </c>
-      <c r="Q168" t="n">
-        <v>451.344129844068</v>
+        <v>5.372191</v>
       </c>
     </row>
     <row r="169">
@@ -9351,25 +8831,22 @@
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>1.78276636287962</v>
+        <v>1.453316</v>
       </c>
       <c r="L169" t="n">
-        <v>22.2553715061969</v>
+        <v>11.83315</v>
       </c>
       <c r="M169" t="n">
-        <v>3.91795673468666</v>
+        <v>1.495945</v>
       </c>
       <c r="N169" t="n">
-        <v>6.10631560157294</v>
+        <v>4.382583</v>
       </c>
       <c r="O169" t="n">
-        <v>445.458178290118</v>
+        <v>389.01</v>
       </c>
       <c r="P169" t="n">
-        <v>22.7770571323717</v>
-      </c>
-      <c r="Q169" t="n">
-        <v>446.671376498948</v>
+        <v>9.474458</v>
       </c>
     </row>
     <row r="170">
@@ -9404,25 +8881,22 @@
         <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>0.88413443237799</v>
+        <v>0.7207488</v>
       </c>
       <c r="L170" t="n">
-        <v>14.3032949831812</v>
+        <v>7.605042</v>
       </c>
       <c r="M170" t="n">
-        <v>4.26064126723071</v>
+        <v>1.626788</v>
       </c>
       <c r="N170" t="n">
-        <v>4.07973576008799</v>
+        <v>2.92808</v>
       </c>
       <c r="O170" t="n">
-        <v>417.761812333332</v>
+        <v>364.8233</v>
       </c>
       <c r="P170" t="n">
-        <v>19.2686350277589</v>
-      </c>
-      <c r="Q170" t="n">
-        <v>446.211902207698</v>
+        <v>11.53042</v>
       </c>
     </row>
     <row r="171">
@@ -9457,25 +8931,22 @@
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>1.37923483722871</v>
+        <v>1.124356</v>
       </c>
       <c r="L171" t="n">
-        <v>27.4602939380789</v>
+        <v>14.6006</v>
       </c>
       <c r="M171" t="n">
-        <v>3.88303168526503</v>
+        <v>1.48261</v>
       </c>
       <c r="N171" t="n">
-        <v>1.34676200536206</v>
+        <v>0.9665888</v>
       </c>
       <c r="O171" t="n">
-        <v>473.893023923981</v>
+        <v>413.8416</v>
       </c>
       <c r="P171" t="n">
-        <v>16.3356914944375</v>
-      </c>
-      <c r="Q171" t="n">
-        <v>456.209275524038</v>
+        <v>5.296225</v>
       </c>
     </row>
     <row r="172">
@@ -9510,25 +8981,22 @@
         <v>0</v>
       </c>
       <c r="K172" t="n">
-        <v>3.2693094771052</v>
+        <v>2.66515</v>
       </c>
       <c r="L172" t="n">
-        <v>37.9530429124131</v>
+        <v>20.17958</v>
       </c>
       <c r="M172" t="n">
-        <v>4.64744895745052</v>
+        <v>1.774478</v>
       </c>
       <c r="N172" t="n">
-        <v>1.1188391921911</v>
+        <v>0.8030056</v>
       </c>
       <c r="O172" t="n">
-        <v>573.265432633311</v>
+        <v>500.6216</v>
       </c>
       <c r="P172" t="n">
-        <v>13.7233289354499</v>
-      </c>
-      <c r="Q172" t="n">
-        <v>474.39094519175</v>
+        <v>1.214893</v>
       </c>
     </row>
     <row r="173">
@@ -9563,25 +9031,22 @@
         <v>0</v>
       </c>
       <c r="K173" t="n">
-        <v>4.97526549827107</v>
+        <v>4.05585</v>
       </c>
       <c r="L173" t="n">
-        <v>41.2374788337372</v>
+        <v>21.92591</v>
       </c>
       <c r="M173" t="n">
-        <v>4.86604807630891</v>
+        <v>1.857943</v>
       </c>
       <c r="N173" t="n">
-        <v>1.69900886095566</v>
+        <v>1.219401</v>
       </c>
       <c r="O173" t="n">
-        <v>596.883270033979</v>
+        <v>521.2466</v>
       </c>
       <c r="P173" t="n">
-        <v>11.5864491672176</v>
-      </c>
-      <c r="Q173" t="n">
-        <v>493.980495617678</v>
+        <v>0.2046524</v>
       </c>
     </row>
     <row r="174">
@@ -9616,25 +9081,22 @@
         <v>0</v>
       </c>
       <c r="K174" t="n">
-        <v>19.6095639494302</v>
+        <v>15.98577</v>
       </c>
       <c r="L174" t="n">
-        <v>42.0556115038374</v>
+        <v>22.36091</v>
       </c>
       <c r="M174" t="n">
-        <v>5.12112796107611</v>
+        <v>1.955337</v>
       </c>
       <c r="N174" t="n">
-        <v>1.57327896439586</v>
+        <v>1.129163</v>
       </c>
       <c r="O174" t="n">
-        <v>661.788980575724</v>
+        <v>577.9275</v>
       </c>
       <c r="P174" t="n">
-        <v>10.0402754978796</v>
-      </c>
-      <c r="Q174" t="n">
-        <v>519.106067130323</v>
+        <v>2.096486</v>
       </c>
     </row>
     <row r="175">
@@ -9669,25 +9131,22 @@
         <v>0</v>
       </c>
       <c r="K175" t="n">
-        <v>14.1331347692383</v>
+        <v>11.52137</v>
       </c>
       <c r="L175" t="n">
-        <v>42.4596750046289</v>
+        <v>22.57575</v>
       </c>
       <c r="M175" t="n">
-        <v>5.66919064138891</v>
+        <v>2.164597</v>
       </c>
       <c r="N175" t="n">
-        <v>5.58754706507589</v>
+        <v>4.010256</v>
       </c>
       <c r="O175" t="n">
-        <v>642.565492315665</v>
+        <v>561.14</v>
       </c>
       <c r="P175" t="n">
-        <v>9.36883244552522</v>
-      </c>
-      <c r="Q175" t="n">
-        <v>539.374236750897</v>
+        <v>3.007386</v>
       </c>
     </row>
     <row r="176">
@@ -9722,25 +9181,22 @@
         <v>0</v>
       </c>
       <c r="K176" t="n">
-        <v>7.08872628989445</v>
+        <v>5.778749</v>
       </c>
       <c r="L176" t="n">
-        <v>41.1257049841187</v>
+        <v>21.86648</v>
       </c>
       <c r="M176" t="n">
-        <v>4.87140927437161</v>
+        <v>1.85999</v>
       </c>
       <c r="N176" t="n">
-        <v>9.36674074890289</v>
+        <v>6.722633</v>
       </c>
       <c r="O176" t="n">
-        <v>564.45291612092</v>
+        <v>492.9258</v>
       </c>
       <c r="P176" t="n">
-        <v>8.78448239581846</v>
-      </c>
-      <c r="Q176" t="n">
-        <v>547.008638278379</v>
+        <v>2.989797</v>
       </c>
     </row>
     <row r="177">
@@ -9775,25 +9231,22 @@
         <v>0.008</v>
       </c>
       <c r="K177" t="n">
-        <v>3.60512533130979</v>
+        <v>2.938908</v>
       </c>
       <c r="L177" t="n">
-        <v>20.2340007739743</v>
+        <v>10.75839</v>
       </c>
       <c r="M177" t="n">
-        <v>4.20618333302568</v>
+        <v>1.605995</v>
       </c>
       <c r="N177" t="n">
-        <v>2.0835845097838</v>
+        <v>1.495416</v>
       </c>
       <c r="O177" t="n">
-        <v>473.364442409113</v>
+        <v>413.38</v>
       </c>
       <c r="P177" t="n">
-        <v>8.82106764776006</v>
-      </c>
-      <c r="Q177" t="n">
-        <v>550.496921293253</v>
+        <v>9.623616</v>
       </c>
     </row>
     <row r="178">
@@ -9828,25 +9281,22 @@
         <v>0.089</v>
       </c>
       <c r="K178" t="n">
-        <v>3.34219441487294</v>
+        <v>2.724566</v>
       </c>
       <c r="L178" t="n">
-        <v>18.4717580486966</v>
+        <v>9.821408</v>
       </c>
       <c r="M178" t="n">
-        <v>4.02269783528433</v>
+        <v>1.535937</v>
       </c>
       <c r="N178" t="n">
-        <v>1.83474554087826</v>
+        <v>1.316821</v>
       </c>
       <c r="O178" t="n">
-        <v>466.162633779766</v>
+        <v>407.0908</v>
       </c>
       <c r="P178" t="n">
-        <v>8.58118035975724</v>
-      </c>
-      <c r="Q178" t="n">
-        <v>556.547023974057</v>
+        <v>10.5524</v>
       </c>
     </row>
     <row r="179">
@@ -9881,25 +9331,22 @@
         <v>0.145</v>
       </c>
       <c r="K179" t="n">
-        <v>3.75592585733984</v>
+        <v>3.061841</v>
       </c>
       <c r="L179" t="n">
-        <v>17.8432384392895</v>
+        <v>9.487225</v>
       </c>
       <c r="M179" t="n">
-        <v>4.1516468272809</v>
+        <v>1.585172</v>
       </c>
       <c r="N179" t="n">
-        <v>1.99733696078062</v>
+        <v>1.433515</v>
       </c>
       <c r="O179" t="n">
-        <v>464.155833292752</v>
+        <v>405.3383</v>
       </c>
       <c r="P179" t="n">
-        <v>9.82645812683143</v>
-      </c>
-      <c r="Q179" t="n">
-        <v>555.329875145154</v>
+        <v>10.37322</v>
       </c>
     </row>
     <row r="180">
@@ -9934,25 +9381,22 @@
         <v>0.617</v>
       </c>
       <c r="K180" t="n">
-        <v>14.6285575478881</v>
+        <v>11.92524</v>
       </c>
       <c r="L180" t="n">
-        <v>27.8382900393128</v>
+        <v>14.80158</v>
       </c>
       <c r="M180" t="n">
-        <v>4.13900990463677</v>
+        <v>1.580347</v>
       </c>
       <c r="N180" t="n">
-        <v>2.38188752995121</v>
+        <v>1.709512</v>
       </c>
       <c r="O180" t="n">
-        <v>563.800204978211</v>
+        <v>492.3558</v>
       </c>
       <c r="P180" t="n">
-        <v>12.2207460156789</v>
-      </c>
-      <c r="Q180" t="n">
-        <v>554.146721688266</v>
+        <v>10.9764</v>
       </c>
     </row>
     <row r="181">
@@ -9987,25 +9431,22 @@
         <v>0.822</v>
       </c>
       <c r="K181" t="n">
-        <v>12.9420200093677</v>
+        <v>10.55037</v>
       </c>
       <c r="L181" t="n">
-        <v>26.5614200368813</v>
+        <v>14.12267</v>
       </c>
       <c r="M181" t="n">
-        <v>4.9108705206885</v>
+        <v>1.875057</v>
       </c>
       <c r="N181" t="n">
-        <v>1.76210927935368</v>
+        <v>1.264689</v>
       </c>
       <c r="O181" t="n">
-        <v>539.438047853401</v>
+        <v>471.0808</v>
       </c>
       <c r="P181" t="n">
-        <v>15.6506833141071</v>
-      </c>
-      <c r="Q181" t="n">
-        <v>546.966068915694</v>
+        <v>14.1885</v>
       </c>
     </row>
     <row r="182">
@@ -10040,25 +9481,22 @@
         <v>0.862</v>
       </c>
       <c r="K182" t="n">
-        <v>5.35046787431904</v>
+        <v>4.361716</v>
       </c>
       <c r="L182" t="n">
-        <v>16.4145136094637</v>
+        <v>8.727574</v>
       </c>
       <c r="M182" t="n">
-        <v>4.71546572036614</v>
+        <v>1.800448</v>
       </c>
       <c r="N182" t="n">
-        <v>1.61526649107896</v>
+        <v>1.159298</v>
       </c>
       <c r="O182" t="n">
-        <v>461.9915805564</v>
+        <v>403.4483</v>
       </c>
       <c r="P182" t="n">
-        <v>19.5211006882933</v>
-      </c>
-      <c r="Q182" t="n">
-        <v>521.991393913279</v>
+        <v>17.87617</v>
       </c>
     </row>
     <row r="183">
@@ -10093,25 +9531,22 @@
         <v>0.824</v>
       </c>
       <c r="K183" t="n">
-        <v>3.90157551737946</v>
+        <v>3.180575</v>
       </c>
       <c r="L183" t="n">
-        <v>14.182768054375</v>
+        <v>7.540958</v>
       </c>
       <c r="M183" t="n">
-        <v>4.98559991215063</v>
+        <v>1.90359</v>
       </c>
       <c r="N183" t="n">
-        <v>3.90693970619103</v>
+        <v>2.804062</v>
       </c>
       <c r="O183" t="n">
-        <v>448.815289267454</v>
+        <v>391.9417</v>
       </c>
       <c r="P183" t="n">
-        <v>23.5946111212505</v>
-      </c>
-      <c r="Q183" t="n">
-        <v>497.772618532252</v>
+        <v>19.61508</v>
       </c>
     </row>
     <row r="184">
@@ -10146,25 +9581,22 @@
         <v>0.721</v>
       </c>
       <c r="K184" t="n">
-        <v>4.72382497519745</v>
+        <v>3.850875</v>
       </c>
       <c r="L184" t="n">
-        <v>18.4442988832174</v>
+        <v>9.806808</v>
       </c>
       <c r="M184" t="n">
-        <v>7.33085561182042</v>
+        <v>2.79905</v>
       </c>
       <c r="N184" t="n">
-        <v>4.08084762490608</v>
+        <v>2.928878</v>
       </c>
       <c r="O184" t="n">
-        <v>463.818942734533</v>
+        <v>405.0441</v>
       </c>
       <c r="P184" t="n">
-        <v>28.0543343974308</v>
-      </c>
-      <c r="Q184" t="n">
-        <v>485.193371858954</v>
+        <v>21.17208</v>
       </c>
     </row>
     <row r="185">
@@ -10199,25 +9631,22 @@
         <v>0.554</v>
       </c>
       <c r="K185" t="n">
-        <v>4.56572565120528</v>
+        <v>3.721992</v>
       </c>
       <c r="L185" t="n">
-        <v>21.2307308655749</v>
+        <v>11.28835</v>
       </c>
       <c r="M185" t="n">
-        <v>7.36743328262826</v>
+        <v>2.813016</v>
       </c>
       <c r="N185" t="n">
-        <v>4.00560447231051</v>
+        <v>2.874875</v>
       </c>
       <c r="O185" t="n">
-        <v>479.39434826048</v>
+        <v>418.6458</v>
       </c>
       <c r="P185" t="n">
-        <v>31.5560245880679</v>
-      </c>
-      <c r="Q185" t="n">
-        <v>485.947110090375</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="186">
@@ -10252,25 +9681,22 @@
         <v>0.333</v>
       </c>
       <c r="K186" t="n">
-        <v>3.89311136512086</v>
+        <v>3.173675</v>
       </c>
       <c r="L186" t="n">
-        <v>23.3624272585518</v>
+        <v>12.42177</v>
       </c>
       <c r="M186" t="n">
-        <v>6.31313417166621</v>
+        <v>2.410466</v>
       </c>
       <c r="N186" t="n">
-        <v>3.39948906182097</v>
+        <v>2.439858</v>
       </c>
       <c r="O186" t="n">
-        <v>474.147810291091</v>
+        <v>414.0641</v>
       </c>
       <c r="P186" t="n">
-        <v>34.8768944802809</v>
-      </c>
-      <c r="Q186" t="n">
-        <v>486.94525715429</v>
+        <v>24.09158</v>
       </c>
     </row>
     <row r="187">
@@ -10305,25 +9731,22 @@
         <v>0.12</v>
       </c>
       <c r="K187" t="n">
-        <v>2.75693140678607</v>
+        <v>2.247458</v>
       </c>
       <c r="L187" t="n">
-        <v>21.6424302712874</v>
+        <v>11.50725</v>
       </c>
       <c r="M187" t="n">
-        <v>5.17655494427147</v>
+        <v>1.9765</v>
       </c>
       <c r="N187" t="n">
-        <v>5.0916107701503</v>
+        <v>3.654316</v>
       </c>
       <c r="O187" t="n">
-        <v>461.848442147911</v>
+        <v>403.3233</v>
       </c>
       <c r="P187" t="n">
-        <v>37.1817226741411</v>
-      </c>
-      <c r="Q187" t="n">
-        <v>486.656833261185</v>
+        <v>19.77</v>
       </c>
     </row>
     <row r="188">
@@ -10358,25 +9781,22 @@
         <v>0</v>
       </c>
       <c r="K188" t="n">
-        <v>1.76304120805087</v>
+        <v>1.437236</v>
       </c>
       <c r="L188" t="n">
-        <v>25.3934275063397</v>
+        <v>13.50165</v>
       </c>
       <c r="M188" t="n">
-        <v>4.70453903823738</v>
+        <v>1.796276</v>
       </c>
       <c r="N188" t="n">
-        <v>4.37983894234183</v>
+        <v>3.143468</v>
       </c>
       <c r="O188" t="n">
-        <v>483.373596016471</v>
+        <v>422.1208</v>
       </c>
       <c r="P188" t="n">
-        <v>38.0671216799017</v>
-      </c>
-      <c r="Q188" t="n">
-        <v>476.603507140968</v>
+        <v>14.58617</v>
       </c>
     </row>
     <row r="189">
@@ -10411,25 +9831,22 @@
         <v>0</v>
       </c>
       <c r="K189" t="n">
-        <v>2.74407448217412</v>
+        <v>2.236977</v>
       </c>
       <c r="L189" t="n">
-        <v>40.6147952373769</v>
+        <v>21.59483</v>
       </c>
       <c r="M189" t="n">
-        <v>5.38061309017231</v>
+        <v>2.054413</v>
       </c>
       <c r="N189" t="n">
-        <v>2.6551373655396</v>
+        <v>1.905627</v>
       </c>
       <c r="O189" t="n">
-        <v>543.671165890688</v>
+        <v>474.7775</v>
       </c>
       <c r="P189" t="n">
-        <v>36.4869739936357</v>
-      </c>
-      <c r="Q189" t="n">
-        <v>477.132646895628</v>
+        <v>7.746241</v>
       </c>
     </row>
     <row r="190">
@@ -10464,25 +9881,22 @@
         <v>0</v>
       </c>
       <c r="K190" t="n">
-        <v>4.45810334189272</v>
+        <v>3.634258</v>
       </c>
       <c r="L190" t="n">
-        <v>54.4015908409529</v>
+        <v>28.92525</v>
       </c>
       <c r="M190" t="n">
-        <v>5.2288626373385</v>
+        <v>1.996472</v>
       </c>
       <c r="N190" t="n">
-        <v>6.42672494655714</v>
+        <v>4.612545</v>
       </c>
       <c r="O190" t="n">
-        <v>609.637016741066</v>
+        <v>532.3842</v>
       </c>
       <c r="P190" t="n">
-        <v>32.8892501533959</v>
-      </c>
-      <c r="Q190" t="n">
-        <v>495.588326418712</v>
+        <v>3.208257</v>
       </c>
     </row>
     <row r="191">
@@ -10517,25 +9931,22 @@
         <v>0</v>
       </c>
       <c r="K191" t="n">
-        <v>11.1655551465102</v>
+        <v>9.102191</v>
       </c>
       <c r="L191" t="n">
-        <v>62.9223955809271</v>
+        <v>33.45575</v>
       </c>
       <c r="M191" t="n">
-        <v>4.68437758113593</v>
+        <v>1.788578</v>
       </c>
       <c r="N191" t="n">
-        <v>8.79320520688626</v>
+        <v>6.310999</v>
       </c>
       <c r="O191" t="n">
-        <v>670.632071452168</v>
+        <v>585.65</v>
       </c>
       <c r="P191" t="n">
-        <v>28.2990065540719</v>
-      </c>
-      <c r="Q191" t="n">
-        <v>523.315424191801</v>
+        <v>0.9006659</v>
       </c>
     </row>
     <row r="192">
@@ -10570,25 +9981,22 @@
         <v>0</v>
       </c>
       <c r="K192" t="n">
-        <v>2.07905217265905</v>
+        <v>1.694849</v>
       </c>
       <c r="L192" t="n">
-        <v>22.1070167820188</v>
+        <v>11.75427</v>
       </c>
       <c r="M192" t="n">
-        <v>3.95153297267581</v>
+        <v>1.508765</v>
       </c>
       <c r="N192" t="n">
-        <v>11.2559356196384</v>
+        <v>8.078533</v>
       </c>
       <c r="O192" t="n">
-        <v>489.403616378564</v>
+        <v>427.3867</v>
       </c>
       <c r="P192" t="n">
-        <v>25.6132387596674</v>
-      </c>
-      <c r="Q192" t="n">
-        <v>526.513508397305</v>
+        <v>10.22221</v>
       </c>
     </row>
     <row r="193">
@@ -10623,25 +10031,22 @@
         <v>0</v>
       </c>
       <c r="K193" t="n">
-        <v>2.1666659620455</v>
+        <v>1.766272</v>
       </c>
       <c r="L193" t="n">
-        <v>28.5473571610472</v>
+        <v>15.17859</v>
       </c>
       <c r="M193" t="n">
-        <v>4.16694208702011</v>
+        <v>1.591012</v>
       </c>
       <c r="N193" t="n">
-        <v>7.507571801513</v>
+        <v>5.388283</v>
       </c>
       <c r="O193" t="n">
-        <v>527.077645492841</v>
+        <v>460.2867</v>
       </c>
       <c r="P193" t="n">
-        <v>21.6140727335406</v>
-      </c>
-      <c r="Q193" t="n">
-        <v>532.47392055135</v>
+        <v>7.595408</v>
       </c>
     </row>
     <row r="194">
@@ -10676,25 +10081,22 @@
         <v>0</v>
       </c>
       <c r="K194" t="n">
-        <v>2.66189860394165</v>
+        <v>2.169987</v>
       </c>
       <c r="L194" t="n">
-        <v>47.5005947495392</v>
+        <v>25.256</v>
       </c>
       <c r="M194" t="n">
-        <v>4.79675845444924</v>
+        <v>1.831487</v>
       </c>
       <c r="N194" t="n">
-        <v>7.64511700340788</v>
+        <v>5.487001</v>
       </c>
       <c r="O194" t="n">
-        <v>606.0126377274</v>
+        <v>529.2191</v>
       </c>
       <c r="P194" t="n">
-        <v>16.1489540727188</v>
-      </c>
-      <c r="Q194" t="n">
-        <v>548.957023980889</v>
+        <v>1.810302</v>
       </c>
     </row>
     <row r="195">
@@ -10729,25 +10131,22 @@
         <v>0</v>
       </c>
       <c r="K195" t="n">
-        <v>1.37186489132006</v>
+        <v>1.118348</v>
       </c>
       <c r="L195" t="n">
-        <v>33.2157162148766</v>
+        <v>17.66075</v>
       </c>
       <c r="M195" t="n">
-        <v>4.44279628689885</v>
+        <v>1.696338</v>
       </c>
       <c r="N195" t="n">
-        <v>5.230338895893</v>
+        <v>3.753883</v>
       </c>
       <c r="O195" t="n">
-        <v>573.760691526683</v>
+        <v>501.0541</v>
       </c>
       <c r="P195" t="n">
-        <v>12.6218253120108</v>
-      </c>
-      <c r="Q195" t="n">
-        <v>562.946055153235</v>
+        <v>5.389903</v>
       </c>
     </row>
     <row r="196">
@@ -10782,25 +10181,22 @@
         <v>0</v>
       </c>
       <c r="K196" t="n">
-        <v>1.13448663720757</v>
+        <v>0.9248366</v>
       </c>
       <c r="L196" t="n">
-        <v>40.5721771079413</v>
+        <v>21.57217</v>
       </c>
       <c r="M196" t="n">
-        <v>5.24961861909077</v>
+        <v>2.004397</v>
       </c>
       <c r="N196" t="n">
-        <v>4.497153220479</v>
+        <v>3.227666</v>
       </c>
       <c r="O196" t="n">
-        <v>703.591121390821</v>
+        <v>614.4325</v>
       </c>
       <c r="P196" t="n">
-        <v>9.86216540434776</v>
-      </c>
-      <c r="Q196" t="n">
-        <v>590.473245825029</v>
+        <v>3.335042</v>
       </c>
     </row>
     <row r="197">
@@ -10835,25 +10231,22 @@
         <v>0</v>
       </c>
       <c r="K197" t="n">
-        <v>1.19235776356389</v>
+        <v>0.9720133</v>
       </c>
       <c r="L197" t="n">
-        <v>41.3131984229286</v>
+        <v>21.96617</v>
       </c>
       <c r="M197" t="n">
-        <v>4.14237538558966</v>
+        <v>1.581632</v>
       </c>
       <c r="N197" t="n">
-        <v>5.25421054993851</v>
+        <v>3.771016</v>
       </c>
       <c r="O197" t="n">
-        <v>616.878789614063</v>
+        <v>538.7083</v>
       </c>
       <c r="P197" t="n">
-        <v>8.51891040076042</v>
-      </c>
-      <c r="Q197" t="n">
-        <v>599.624198790451</v>
+        <v>2.269793</v>
       </c>
     </row>
     <row r="198">
@@ -10888,25 +10281,22 @@
         <v>0</v>
       </c>
       <c r="K198" t="n">
-        <v>2.15795279197406</v>
+        <v>1.759169</v>
       </c>
       <c r="L198" t="n">
-        <v>40.4828407818959</v>
+        <v>21.52467</v>
       </c>
       <c r="M198" t="n">
-        <v>5.03609522170062</v>
+        <v>1.92287</v>
       </c>
       <c r="N198" t="n">
-        <v>4.49267232166324</v>
+        <v>3.22445</v>
       </c>
       <c r="O198" t="n">
-        <v>623.464187001093</v>
+        <v>544.4592</v>
       </c>
       <c r="P198" t="n">
-        <v>8.06359229967294</v>
-      </c>
-      <c r="Q198" t="n">
-        <v>601.352595072954</v>
+        <v>1.351926</v>
       </c>
     </row>
     <row r="199">
@@ -10941,25 +10331,22 @@
         <v>0</v>
       </c>
       <c r="K199" t="n">
-        <v>15.4975438464384</v>
+        <v>12.63364</v>
       </c>
       <c r="L199" t="n">
-        <v>43.5541296330995</v>
+        <v>23.15767</v>
       </c>
       <c r="M199" t="n">
-        <v>5.3121301361208</v>
+        <v>2.028265</v>
       </c>
       <c r="N199" t="n">
-        <v>3.96005424094087</v>
+        <v>2.842183</v>
       </c>
       <c r="O199" t="n">
-        <v>726.152482826113</v>
+        <v>634.1349</v>
       </c>
       <c r="P199" t="n">
-        <v>7.89766008792212</v>
-      </c>
-      <c r="Q199" t="n">
-        <v>608.292646494697</v>
+        <v>0.2241606</v>
       </c>
     </row>
     <row r="200">
@@ -10994,25 +10381,22 @@
         <v>0</v>
       </c>
       <c r="K200" t="n">
-        <v>38.8170315990273</v>
+        <v>31.64375</v>
       </c>
       <c r="L200" t="n">
-        <v>51.2303017275213</v>
+        <v>27.23908</v>
       </c>
       <c r="M200" t="n">
-        <v>6.02202923592079</v>
+        <v>2.299317</v>
       </c>
       <c r="N200" t="n">
-        <v>4.06512407293598</v>
+        <v>2.917593</v>
       </c>
       <c r="O200" t="n">
-        <v>890.406783846016</v>
+        <v>777.575</v>
       </c>
       <c r="P200" t="n">
-        <v>5.39037165384577</v>
-      </c>
-      <c r="Q200" t="n">
-        <v>658.418042428129</v>
+        <v>-0.006680673</v>
       </c>
     </row>
     <row r="201">
@@ -11047,25 +10431,22 @@
         <v>0.061</v>
       </c>
       <c r="K201" t="n">
-        <v>26.3237711289011</v>
+        <v>21.45921</v>
       </c>
       <c r="L201" t="n">
-        <v>47.3295956176644</v>
+        <v>25.16508</v>
       </c>
       <c r="M201" t="n">
-        <v>5.41342980327716</v>
+        <v>2.066943</v>
       </c>
       <c r="N201" t="n">
-        <v>3.63611841744215</v>
+        <v>2.60969</v>
       </c>
       <c r="O201" t="n">
-        <v>792.876967241482</v>
+        <v>692.4041</v>
       </c>
       <c r="P201" t="n">
-        <v>3.81956956935434</v>
-      </c>
-      <c r="Q201" t="n">
-        <v>691.642957646709</v>
+        <v>1.191251</v>
       </c>
     </row>
     <row r="202">
@@ -11100,25 +10481,22 @@
         <v>0.169</v>
       </c>
       <c r="K202" t="n">
-        <v>31.6851614396999</v>
+        <v>25.82983</v>
       </c>
       <c r="L202" t="n">
-        <v>46.2519174108429</v>
+        <v>24.59208</v>
       </c>
       <c r="M202" t="n">
-        <v>5.24775909264987</v>
+        <v>2.003687</v>
       </c>
       <c r="N202" t="n">
-        <v>3.3205048603074</v>
+        <v>2.38317</v>
       </c>
       <c r="O202" t="n">
-        <v>787.474007619297</v>
+        <v>687.6858</v>
       </c>
       <c r="P202" t="n">
-        <v>4.08617038512109</v>
-      </c>
-      <c r="Q202" t="n">
-        <v>714.325628883196</v>
+        <v>2.897233</v>
       </c>
     </row>
     <row r="203">
@@ -11153,25 +10531,22 @@
         <v>0.519</v>
       </c>
       <c r="K203" t="n">
-        <v>39.3256903491076</v>
+        <v>32.05841</v>
       </c>
       <c r="L203" t="n">
-        <v>51.5374870355844</v>
+        <v>27.40241</v>
       </c>
       <c r="M203" t="n">
-        <v>5.91844575600886</v>
+        <v>2.259767</v>
       </c>
       <c r="N203" t="n">
-        <v>3.45420730133976</v>
+        <v>2.47913</v>
       </c>
       <c r="O203" t="n">
-        <v>880.729596835626</v>
+        <v>769.1241</v>
       </c>
       <c r="P203" t="n">
-        <v>4.25775398542909</v>
-      </c>
-      <c r="Q203" t="n">
-        <v>752.696742046814</v>
+        <v>6.089449</v>
       </c>
     </row>
     <row r="204">
@@ -11206,25 +10581,22 @@
         <v>0.704</v>
       </c>
       <c r="K204" t="n">
-        <v>41.9830170841409</v>
+        <v>34.22467</v>
       </c>
       <c r="L204" t="n">
-        <v>63.8177900673208</v>
+        <v>33.93183</v>
       </c>
       <c r="M204" t="n">
-        <v>6.07402002377747</v>
+        <v>2.319168</v>
       </c>
       <c r="N204" t="n">
-        <v>3.25307262772462</v>
+        <v>2.334773</v>
       </c>
       <c r="O204" t="n">
-        <v>915.684110699341</v>
+        <v>799.6492</v>
       </c>
       <c r="P204" t="n">
-        <v>5.88731253690593</v>
-      </c>
-      <c r="Q204" t="n">
-        <v>779.208365710379</v>
+        <v>9.978749</v>
       </c>
     </row>
     <row r="205">
@@ -11259,25 +10631,22 @@
         <v>0.822</v>
       </c>
       <c r="K205" t="n">
-        <v>11.1040477467423</v>
+        <v>9.05205</v>
       </c>
       <c r="L205" t="n">
-        <v>24.6031301546705</v>
+        <v>13.08145</v>
       </c>
       <c r="M205" t="n">
-        <v>6.50144396194859</v>
+        <v>2.482366</v>
       </c>
       <c r="N205" t="n">
-        <v>5.57883606401988</v>
+        <v>4.004004</v>
       </c>
       <c r="O205" t="n">
-        <v>565.061769655269</v>
+        <v>493.4575</v>
       </c>
       <c r="P205" t="n">
-        <v>9.09854955782738</v>
-      </c>
-      <c r="Q205" t="n">
-        <v>772.73123821553</v>
+        <v>15.362</v>
       </c>
     </row>
     <row r="206">
@@ -11312,25 +10681,22 @@
         <v>0.859</v>
       </c>
       <c r="K206" t="n">
-        <v>6.5574682532837</v>
+        <v>5.345666</v>
       </c>
       <c r="L206" t="n">
-        <v>18.8394701282291</v>
+        <v>10.01692</v>
       </c>
       <c r="M206" t="n">
-        <v>7.10804505843109</v>
+        <v>2.713977</v>
       </c>
       <c r="N206" t="n">
-        <v>10.4233146752924</v>
+        <v>7.48095</v>
       </c>
       <c r="O206" t="n">
-        <v>511.396317544612</v>
+        <v>446.5925</v>
       </c>
       <c r="P206" t="n">
-        <v>13.134789921244</v>
-      </c>
-      <c r="Q206" t="n">
-        <v>758.72275453347</v>
+        <v>17.80767</v>
       </c>
     </row>
     <row r="207">
@@ -11365,25 +10731,22 @@
         <v>0.821</v>
       </c>
       <c r="K207" t="n">
-        <v>8.66700609433853</v>
+        <v>7.065367</v>
       </c>
       <c r="L207" t="n">
-        <v>30.4055339351443</v>
+        <v>16.16658</v>
       </c>
       <c r="M207" t="n">
-        <v>7.50480514368668</v>
+        <v>2.865467</v>
       </c>
       <c r="N207" t="n">
-        <v>5.30797436915606</v>
+        <v>3.809603</v>
       </c>
       <c r="O207" t="n">
-        <v>579.48439569461</v>
+        <v>506.0525</v>
       </c>
       <c r="P207" t="n">
-        <v>18.5606373832766</v>
-      </c>
-      <c r="Q207" t="n">
-        <v>740.389243642032</v>
+        <v>22.34533</v>
       </c>
     </row>
     <row r="208">
@@ -11418,25 +10781,22 @@
         <v>0.72</v>
       </c>
       <c r="K208" t="n">
-        <v>7.1903280109048</v>
+        <v>5.861575</v>
       </c>
       <c r="L208" t="n">
-        <v>28.8741212302499</v>
+        <v>15.35233</v>
       </c>
       <c r="M208" t="n">
-        <v>6.35861923603108</v>
+        <v>2.427833</v>
       </c>
       <c r="N208" t="n">
-        <v>1.95687093332228</v>
+        <v>1.404472</v>
       </c>
       <c r="O208" t="n">
-        <v>561.653128850878</v>
+        <v>490.4808</v>
       </c>
       <c r="P208" t="n">
-        <v>24.5247266068259</v>
-      </c>
-      <c r="Q208" t="n">
-        <v>699.295036767639</v>
+        <v>24.31558</v>
       </c>
     </row>
     <row r="209">
@@ -11471,25 +10831,22 @@
         <v>0.555</v>
       </c>
       <c r="K209" t="n">
-        <v>4.3413740954254</v>
+        <v>3.5391</v>
       </c>
       <c r="L209" t="n">
-        <v>18.8252703542998</v>
+        <v>10.00937</v>
       </c>
       <c r="M209" t="n">
-        <v>7.31343892050779</v>
+        <v>2.7924</v>
       </c>
       <c r="N209" t="n">
-        <v>3.46048418229902</v>
+        <v>2.483635</v>
       </c>
       <c r="O209" t="n">
-        <v>478.294129197471</v>
+        <v>417.685</v>
       </c>
       <c r="P209" t="n">
-        <v>29.919852837414</v>
-      </c>
-      <c r="Q209" t="n">
-        <v>659.972182012138</v>
+        <v>23.18717</v>
       </c>
     </row>
     <row r="210">
@@ -11524,25 +10881,22 @@
         <v>0.334</v>
       </c>
       <c r="K210" t="n">
-        <v>4.33553628374443</v>
+        <v>3.534341</v>
       </c>
       <c r="L210" t="n">
-        <v>21.9826041932208</v>
+        <v>11.68812</v>
       </c>
       <c r="M210" t="n">
-        <v>5.89191476608451</v>
+        <v>2.249637</v>
       </c>
       <c r="N210" t="n">
-        <v>3.05336192133265</v>
+        <v>2.191438</v>
       </c>
       <c r="O210" t="n">
-        <v>486.017877719531</v>
+        <v>424.43</v>
       </c>
       <c r="P210" t="n">
-        <v>34.8841517808242</v>
-      </c>
-      <c r="Q210" t="n">
-        <v>622.290165774667</v>
+        <v>23.13667</v>
       </c>
     </row>
     <row r="211">
@@ -11577,25 +10931,22 @@
         <v>0.117</v>
       </c>
       <c r="K211" t="n">
-        <v>5.15779678176102</v>
+        <v>4.20465</v>
       </c>
       <c r="L211" t="n">
-        <v>36.1948475928965</v>
+        <v>19.24475</v>
       </c>
       <c r="M211" t="n">
-        <v>5.5750436034017</v>
+        <v>2.12865</v>
       </c>
       <c r="N211" t="n">
-        <v>3.08296985038577</v>
+        <v>2.212688</v>
       </c>
       <c r="O211" t="n">
-        <v>546.407972260996</v>
+        <v>477.1675</v>
       </c>
       <c r="P211" t="n">
-        <v>37.7214430726254</v>
-      </c>
-      <c r="Q211" t="n">
-        <v>580.499962702838</v>
+        <v>17.65708</v>
       </c>
     </row>
     <row r="212">
@@ -11630,25 +10981,22 @@
         <v>0</v>
       </c>
       <c r="K212" t="n">
-        <v>4.16228490052062</v>
+        <v>3.393106</v>
       </c>
       <c r="L212" t="n">
-        <v>27.4470157388814</v>
+        <v>14.59354</v>
       </c>
       <c r="M212" t="n">
-        <v>4.68968639817213</v>
+        <v>1.790605</v>
       </c>
       <c r="N212" t="n">
-        <v>5.59007035728837</v>
+        <v>4.012067</v>
       </c>
       <c r="O212" t="n">
-        <v>519.591392218145</v>
+        <v>453.7491</v>
       </c>
       <c r="P212" t="n">
-        <v>38.2228097611136</v>
-      </c>
-      <c r="Q212" t="n">
-        <v>530.988372892689</v>
+        <v>12.02282</v>
       </c>
     </row>
     <row r="213">
@@ -11683,25 +11031,22 @@
         <v>0</v>
       </c>
       <c r="K213" t="n">
-        <v>4.84427599528109</v>
+        <v>3.949067</v>
       </c>
       <c r="L213" t="n">
-        <v>25.5211690487609</v>
+        <v>13.56957</v>
       </c>
       <c r="M213" t="n">
-        <v>4.08576459119532</v>
+        <v>1.560017</v>
       </c>
       <c r="N213" t="n">
-        <v>4.41012680877744</v>
+        <v>3.165206</v>
       </c>
       <c r="O213" t="n">
-        <v>527.640580225746</v>
+        <v>460.7783</v>
       </c>
       <c r="P213" t="n">
-        <v>36.8628792527696</v>
-      </c>
-      <c r="Q213" t="n">
-        <v>526.310724213999</v>
+        <v>9.817566</v>
       </c>
     </row>
     <row r="214">
@@ -11736,25 +11081,22 @@
         <v>0</v>
       </c>
       <c r="K214" t="n">
-        <v>2.59606099294575</v>
+        <v>2.116316</v>
       </c>
       <c r="L214" t="n">
-        <v>25.7230879532711</v>
+        <v>13.67693</v>
       </c>
       <c r="M214" t="n">
-        <v>3.09789771709715</v>
+        <v>1.182832</v>
       </c>
       <c r="N214" t="n">
-        <v>5.22223398656114</v>
+        <v>3.748066</v>
       </c>
       <c r="O214" t="n">
-        <v>527.836279057833</v>
+        <v>460.9492</v>
       </c>
       <c r="P214" t="n">
-        <v>34.5566370283012</v>
-      </c>
-      <c r="Q214" t="n">
-        <v>528.365719403151</v>
+        <v>8.405125</v>
       </c>
     </row>
     <row r="215">
@@ -11789,25 +11131,22 @@
         <v>0</v>
       </c>
       <c r="K215" t="n">
-        <v>1.81488720735667</v>
+        <v>1.479501</v>
       </c>
       <c r="L215" t="n">
-        <v>30.0495239739414</v>
+        <v>15.97729</v>
       </c>
       <c r="M215" t="n">
-        <v>4.06929861551374</v>
+        <v>1.55373</v>
       </c>
       <c r="N215" t="n">
-        <v>3.67303010009982</v>
+        <v>2.636182</v>
       </c>
       <c r="O215" t="n">
-        <v>544.794287099056</v>
+        <v>475.7583</v>
       </c>
       <c r="P215" t="n">
-        <v>30.8278115793777</v>
-      </c>
-      <c r="Q215" t="n">
-        <v>524.029455828707</v>
+        <v>7.142916</v>
       </c>
     </row>
     <row r="216">
@@ -11842,25 +11181,22 @@
         <v>0</v>
       </c>
       <c r="K216" t="n">
-        <v>1.41328526308297</v>
+        <v>1.152114</v>
       </c>
       <c r="L216" t="n">
-        <v>21.1957674487079</v>
+        <v>11.26976</v>
       </c>
       <c r="M216" t="n">
-        <v>3.53139523529142</v>
+        <v>1.348349</v>
       </c>
       <c r="N216" t="n">
-        <v>2.21390816361833</v>
+        <v>1.588951</v>
       </c>
       <c r="O216" t="n">
-        <v>512.080519137189</v>
+        <v>447.19</v>
       </c>
       <c r="P216" t="n">
-        <v>27.2604591053161</v>
-      </c>
-      <c r="Q216" t="n">
-        <v>517.832879614496</v>
+        <v>9.771491</v>
       </c>
     </row>
     <row r="217">
@@ -11895,25 +11231,22 @@
         <v>0</v>
       </c>
       <c r="K217" t="n">
-        <v>0.980745738284208</v>
+        <v>0.7995066</v>
       </c>
       <c r="L217" t="n">
-        <v>32.0079455096853</v>
+        <v>17.01858</v>
       </c>
       <c r="M217" t="n">
-        <v>4.04800572823981</v>
+        <v>1.5456</v>
       </c>
       <c r="N217" t="n">
-        <v>2.31827019194478</v>
+        <v>1.663853</v>
       </c>
       <c r="O217" t="n">
-        <v>566.442539998916</v>
+        <v>494.6633</v>
       </c>
       <c r="P217" t="n">
-        <v>23.061016308266</v>
-      </c>
-      <c r="Q217" t="n">
-        <v>528.851430964677</v>
+        <v>6.06605</v>
       </c>
     </row>
     <row r="218">
@@ -11948,25 +11281,22 @@
         <v>0</v>
       </c>
       <c r="K218" t="n">
-        <v>1.85024160333425</v>
+        <v>1.508322</v>
       </c>
       <c r="L218" t="n">
-        <v>33.396420092907</v>
+        <v>17.75683</v>
       </c>
       <c r="M218" t="n">
-        <v>4.45504558994684</v>
+        <v>1.701015</v>
       </c>
       <c r="N218" t="n">
-        <v>3.81552435441807</v>
+        <v>2.738452</v>
       </c>
       <c r="O218" t="n">
-        <v>595.145569754923</v>
+        <v>519.7291</v>
       </c>
       <c r="P218" t="n">
-        <v>18.3975902109398</v>
-      </c>
-      <c r="Q218" t="n">
-        <v>542.492392469101</v>
+        <v>4.123891</v>
       </c>
     </row>
     <row r="219">
@@ -12001,25 +11331,22 @@
         <v>0</v>
       </c>
       <c r="K219" t="n">
-        <v>1.04041985174049</v>
+        <v>0.8481531</v>
       </c>
       <c r="L219" t="n">
-        <v>35.3470928778444</v>
+        <v>18.794</v>
       </c>
       <c r="M219" t="n">
-        <v>4.67894043058481</v>
+        <v>1.786502</v>
       </c>
       <c r="N219" t="n">
-        <v>4.3186473645463</v>
+        <v>3.09955</v>
       </c>
       <c r="O219" t="n">
-        <v>622.962171974841</v>
+        <v>544.0208</v>
       </c>
       <c r="P219" t="n">
-        <v>14.8691798700189</v>
-      </c>
-      <c r="Q219" t="n">
-        <v>552.061667433331</v>
+        <v>3.271758</v>
       </c>
     </row>
     <row r="220">
@@ -12054,25 +11381,22 @@
         <v>0</v>
       </c>
       <c r="K220" t="n">
-        <v>0.966480329668876</v>
+        <v>0.7878774</v>
       </c>
       <c r="L220" t="n">
-        <v>36.4940396507345</v>
+        <v>19.40383</v>
       </c>
       <c r="M220" t="n">
-        <v>4.06039907911069</v>
+        <v>1.550332</v>
       </c>
       <c r="N220" t="n">
-        <v>3.85267708045108</v>
+        <v>2.765117</v>
       </c>
       <c r="O220" t="n">
-        <v>620.817042529863</v>
+        <v>542.1475</v>
       </c>
       <c r="P220" t="n">
-        <v>12.5957723438012</v>
-      </c>
-      <c r="Q220" t="n">
-        <v>564.714873722296</v>
+        <v>2.754142</v>
       </c>
     </row>
     <row r="221">
@@ -12107,25 +11431,22 @@
         <v>0</v>
       </c>
       <c r="K221" t="n">
-        <v>0.951421130774335</v>
+        <v>0.7756011</v>
       </c>
       <c r="L221" t="n">
-        <v>32.6528973607905</v>
+        <v>17.3615</v>
       </c>
       <c r="M221" t="n">
-        <v>4.14934206211471</v>
+        <v>1.584292</v>
       </c>
       <c r="N221" t="n">
-        <v>2.72878238662345</v>
+        <v>1.958483</v>
       </c>
       <c r="O221" t="n">
-        <v>611.021565938697</v>
+        <v>533.5933</v>
       </c>
       <c r="P221" t="n">
-        <v>11.153528575127</v>
-      </c>
-      <c r="Q221" t="n">
-        <v>575.137496936415</v>
+        <v>3.937541</v>
       </c>
     </row>
     <row r="222">
@@ -12160,25 +11481,22 @@
         <v>0</v>
       </c>
       <c r="K222" t="n">
-        <v>1.26957131786423</v>
+        <v>1.034958</v>
       </c>
       <c r="L222" t="n">
-        <v>33.2730795400216</v>
+        <v>17.69125</v>
       </c>
       <c r="M222" t="n">
-        <v>3.8969205144426</v>
+        <v>1.487913</v>
       </c>
       <c r="N222" t="n">
-        <v>2.81179883974549</v>
+        <v>2.018065</v>
       </c>
       <c r="O222" t="n">
-        <v>619.539217329601</v>
+        <v>541.0316</v>
       </c>
       <c r="P222" t="n">
-        <v>9.8492029501979</v>
-      </c>
-      <c r="Q222" t="n">
-        <v>586.600364220386</v>
+        <v>3.087392</v>
       </c>
     </row>
     <row r="223">
@@ -12213,25 +11531,22 @@
         <v>0</v>
       </c>
       <c r="K223" t="n">
-        <v>2.88888386043155</v>
+        <v>2.355026</v>
       </c>
       <c r="L223" t="n">
-        <v>33.3246501097093</v>
+        <v>17.71867</v>
       </c>
       <c r="M223" t="n">
-        <v>4.73791622832581</v>
+        <v>1.80902</v>
       </c>
       <c r="N223" t="n">
-        <v>2.37098484548812</v>
+        <v>1.701687</v>
       </c>
       <c r="O223" t="n">
-        <v>634.399846898918</v>
+        <v>554.0091</v>
       </c>
       <c r="P223" t="n">
-        <v>8.77781734476448</v>
-      </c>
-      <c r="Q223" t="n">
-        <v>597.801059195369</v>
+        <v>2.774879</v>
       </c>
     </row>
     <row r="224">
@@ -12266,25 +11581,22 @@
         <v>0</v>
       </c>
       <c r="K224" t="n">
-        <v>8.90068171117894</v>
+        <v>7.25586</v>
       </c>
       <c r="L224" t="n">
-        <v>39.4542129199852</v>
+        <v>20.97775</v>
       </c>
       <c r="M224" t="n">
-        <v>4.4805080069305</v>
+        <v>1.710737</v>
       </c>
       <c r="N224" t="n">
-        <v>2.52965547892669</v>
+        <v>1.815567</v>
       </c>
       <c r="O224" t="n">
-        <v>705.506198785675</v>
+        <v>616.1049</v>
       </c>
       <c r="P224" t="n">
-        <v>6.76068023932281</v>
-      </c>
-      <c r="Q224" t="n">
-        <v>621.979269151429</v>
+        <v>1.547627</v>
       </c>
     </row>
     <row r="225">
@@ -12319,25 +11631,22 @@
         <v>0.025</v>
       </c>
       <c r="K225" t="n">
-        <v>16.3271779704299</v>
+        <v>13.30996</v>
       </c>
       <c r="L225" t="n">
-        <v>39.0945166598549</v>
+        <v>20.7865</v>
       </c>
       <c r="M225" t="n">
-        <v>5.0409457047549</v>
+        <v>1.924722</v>
       </c>
       <c r="N225" t="n">
-        <v>2.96458550685976</v>
+        <v>2.127722</v>
       </c>
       <c r="O225" t="n">
-        <v>723.333686775423</v>
+        <v>631.6733</v>
       </c>
       <c r="P225" t="n">
-        <v>5.55406891234456</v>
-      </c>
-      <c r="Q225" t="n">
-        <v>641.590662498493</v>
+        <v>1.146698</v>
       </c>
     </row>
     <row r="226">
@@ -12372,25 +11681,22 @@
         <v>0.149</v>
       </c>
       <c r="K226" t="n">
-        <v>22.1670872891359</v>
+        <v>18.07067</v>
       </c>
       <c r="L226" t="n">
-        <v>40.0839493841912</v>
+        <v>21.31258</v>
       </c>
       <c r="M226" t="n">
-        <v>5.04101118103803</v>
+        <v>1.924747</v>
       </c>
       <c r="N226" t="n">
-        <v>2.80880739392539</v>
+        <v>2.015918</v>
       </c>
       <c r="O226" t="n">
-        <v>773.0494348976</v>
+        <v>675.0891</v>
       </c>
       <c r="P226" t="n">
-        <v>5.36344483188986</v>
-      </c>
-      <c r="Q226" t="n">
-        <v>663.828645641327</v>
+        <v>3.346717</v>
       </c>
     </row>
     <row r="227">
@@ -12425,25 +11731,22 @@
         <v>0.42</v>
       </c>
       <c r="K227" t="n">
-        <v>22.0075073518429</v>
+        <v>17.94058</v>
       </c>
       <c r="L227" t="n">
-        <v>37.4692161781987</v>
+        <v>19.92233</v>
       </c>
       <c r="M227" t="n">
-        <v>5.00338850875144</v>
+        <v>1.910382</v>
       </c>
       <c r="N227" t="n">
-        <v>2.89403503685482</v>
+        <v>2.077087</v>
       </c>
       <c r="O227" t="n">
-        <v>723.913798117347</v>
+        <v>632.1799</v>
       </c>
       <c r="P227" t="n">
-        <v>6.36462878452081</v>
-      </c>
-      <c r="Q227" t="n">
-        <v>676.447598909141</v>
+        <v>7.353583</v>
       </c>
     </row>
     <row r="228">
@@ -12478,25 +11781,22 @@
         <v>0.655</v>
       </c>
       <c r="K228" t="n">
-        <v>17.7024432429182</v>
+        <v>14.43108</v>
       </c>
       <c r="L228" t="n">
-        <v>31.3523485300451</v>
+        <v>16.67</v>
       </c>
       <c r="M228" t="n">
-        <v>4.92068148695273</v>
+        <v>1.878803</v>
       </c>
       <c r="N228" t="n">
-        <v>2.41329562109076</v>
+        <v>1.732054</v>
       </c>
       <c r="O228" t="n">
-        <v>676.526511113741</v>
+        <v>590.7975</v>
       </c>
       <c r="P228" t="n">
-        <v>8.35739845114331</v>
-      </c>
-      <c r="Q228" t="n">
-        <v>683.411282482125</v>
+        <v>10.87866</v>
       </c>
     </row>
     <row r="229">
@@ -12531,25 +11831,22 @@
         <v>0.813</v>
       </c>
       <c r="K229" t="n">
-        <v>15.8979963833692</v>
+        <v>12.96009</v>
       </c>
       <c r="L229" t="n">
-        <v>35.3978735263334</v>
+        <v>18.821</v>
       </c>
       <c r="M229" t="n">
-        <v>5.1595389678116</v>
+        <v>1.970003</v>
       </c>
       <c r="N229" t="n">
-        <v>2.75096255709859</v>
+        <v>1.974402</v>
       </c>
       <c r="O229" t="n">
-        <v>686.462263345225</v>
+        <v>599.4742</v>
       </c>
       <c r="P229" t="n">
-        <v>11.0742967487134</v>
-      </c>
-      <c r="Q229" t="n">
-        <v>692.841369657941</v>
+        <v>15.01433</v>
       </c>
     </row>
     <row r="230">
@@ -12584,25 +11881,22 @@
         <v>0.858</v>
       </c>
       <c r="K230" t="n">
-        <v>7.17740607178999</v>
+        <v>5.851041</v>
       </c>
       <c r="L230" t="n">
-        <v>23.6781324309725</v>
+        <v>12.58963</v>
       </c>
       <c r="M230" t="n">
-        <v>5.75638147905638</v>
+        <v>2.197888</v>
       </c>
       <c r="N230" t="n">
-        <v>3.08101642372542</v>
+        <v>2.211286</v>
       </c>
       <c r="O230" t="n">
-        <v>585.841687713872</v>
+        <v>511.6042</v>
       </c>
       <c r="P230" t="n">
-        <v>15.2628634060888</v>
-      </c>
-      <c r="Q230" t="n">
-        <v>688.629178455975</v>
+        <v>20.16417</v>
       </c>
     </row>
     <row r="231">
@@ -12637,25 +11931,22 @@
         <v>0.825</v>
       </c>
       <c r="K231" t="n">
-        <v>4.38602556531139</v>
+        <v>3.5755</v>
       </c>
       <c r="L231" t="n">
-        <v>16.6998425502642</v>
+        <v>8.879283</v>
       </c>
       <c r="M231" t="n">
-        <v>7.28519507101676</v>
+        <v>2.781616</v>
       </c>
       <c r="N231" t="n">
-        <v>4.51391061166591</v>
+        <v>3.239693</v>
       </c>
       <c r="O231" t="n">
-        <v>534.417783080152</v>
+        <v>466.6967</v>
       </c>
       <c r="P231" t="n">
-        <v>19.7989708251857</v>
-      </c>
-      <c r="Q231" t="n">
-        <v>676.131420478629</v>
+        <v>21.26858</v>
       </c>
     </row>
     <row r="232">
@@ -12690,25 +11981,22 @@
         <v>0.723</v>
       </c>
       <c r="K232" t="n">
-        <v>3.14335921143093</v>
+        <v>2.562475</v>
       </c>
       <c r="L232" t="n">
-        <v>14.2231725236894</v>
+        <v>7.562441</v>
       </c>
       <c r="M232" t="n">
-        <v>5.35147352512806</v>
+        <v>2.043287</v>
       </c>
       <c r="N232" t="n">
-        <v>2.09162811328609</v>
+        <v>1.501189</v>
       </c>
       <c r="O232" t="n">
-        <v>506.510488364616</v>
+        <v>442.3258</v>
       </c>
       <c r="P232" t="n">
-        <v>25.2639484508645</v>
-      </c>
-      <c r="Q232" t="n">
-        <v>651.256956675997</v>
+        <v>23.82833</v>
       </c>
     </row>
     <row r="233">
@@ -12743,25 +12031,22 @@
         <v>0.558</v>
       </c>
       <c r="K233" t="n">
-        <v>2.84712369588956</v>
+        <v>2.320983</v>
       </c>
       <c r="L233" t="n">
-        <v>13.1716369470158</v>
+        <v>7.003341</v>
       </c>
       <c r="M233" t="n">
-        <v>5.59875911315145</v>
+        <v>2.137705</v>
       </c>
       <c r="N233" t="n">
-        <v>1.49695459989699</v>
+        <v>1.074384</v>
       </c>
       <c r="O233" t="n">
-        <v>495.148161498767</v>
+        <v>432.4033</v>
       </c>
       <c r="P233" t="n">
-        <v>31.2912709647573</v>
-      </c>
-      <c r="Q233" t="n">
-        <v>622.733766016415</v>
+        <v>25.72008</v>
       </c>
     </row>
     <row r="234">
@@ -12796,25 +12081,22 @@
         <v>0.338</v>
       </c>
       <c r="K234" t="n">
-        <v>3.55622093158604</v>
+        <v>2.899041</v>
       </c>
       <c r="L234" t="n">
-        <v>15.4591641040873</v>
+        <v>8.219616</v>
       </c>
       <c r="M234" t="n">
-        <v>5.64279322308215</v>
+        <v>2.154518</v>
       </c>
       <c r="N234" t="n">
-        <v>3.58331598509739</v>
+        <v>2.571793</v>
       </c>
       <c r="O234" t="n">
-        <v>502.343213995234</v>
+        <v>438.6866</v>
       </c>
       <c r="P234" t="n">
-        <v>35.713466628962</v>
-      </c>
-      <c r="Q234" t="n">
-        <v>588.895488403619</v>
+        <v>21.376</v>
       </c>
     </row>
     <row r="235">
@@ -12849,25 +12131,22 @@
         <v>0.126</v>
       </c>
       <c r="K235" t="n">
-        <v>3.95554614157105</v>
+        <v>3.224572</v>
       </c>
       <c r="L235" t="n">
-        <v>15.6145171539331</v>
+        <v>8.302217</v>
       </c>
       <c r="M235" t="n">
-        <v>4.77219437207012</v>
+        <v>1.822108</v>
       </c>
       <c r="N235" t="n">
-        <v>3.11107578661446</v>
+        <v>2.23286</v>
       </c>
       <c r="O235" t="n">
-        <v>499.05206119653</v>
+        <v>435.8125</v>
       </c>
       <c r="P235" t="n">
-        <v>37.8346344445348</v>
-      </c>
-      <c r="Q235" t="n">
-        <v>560.787771288517</v>
+        <v>16.00158</v>
       </c>
     </row>
     <row r="236">
@@ -12902,25 +12181,22 @@
         <v>0.001</v>
       </c>
       <c r="K236" t="n">
-        <v>3.73961825732159</v>
+        <v>3.048547</v>
       </c>
       <c r="L236" t="n">
-        <v>22.2031426688436</v>
+        <v>11.80538</v>
       </c>
       <c r="M236" t="n">
-        <v>3.76955342944646</v>
+        <v>1.439282</v>
       </c>
       <c r="N236" t="n">
-        <v>0.998480800952973</v>
+        <v>0.7166228</v>
       </c>
       <c r="O236" t="n">
-        <v>532.936701339836</v>
+        <v>465.4033</v>
       </c>
       <c r="P236" t="n">
-        <v>38.1761626941494</v>
-      </c>
-      <c r="Q236" t="n">
-        <v>542.839045066779</v>
+        <v>12.27107</v>
       </c>
     </row>
     <row r="237">
@@ -12931,7 +12207,7 @@
         <v>80.637</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>-2.13505</v>
       </c>
       <c r="D237" t="n">
         <v>18.4828</v>
@@ -12955,25 +12231,22 @@
         <v>0</v>
       </c>
       <c r="K237" t="n">
-        <v>3.33460611836979</v>
+        <v>2.71838</v>
       </c>
       <c r="L237" t="n">
-        <v>34.0717839101628</v>
+        <v>18.11592</v>
       </c>
       <c r="M237" t="n">
-        <v>3.51761378721818</v>
+        <v>1.343087</v>
       </c>
       <c r="N237" t="n">
-        <v>1.80984422755885</v>
+        <v>1.298949</v>
       </c>
       <c r="O237" t="n">
-        <v>585.087749088679</v>
+        <v>510.9458</v>
       </c>
       <c r="P237" t="n">
-        <v>36.6116073627416</v>
-      </c>
-      <c r="Q237" t="n">
-        <v>530.167230784711</v>
+        <v>8.635641</v>
       </c>
     </row>
     <row r="238">
@@ -13008,25 +12281,22 @@
         <v>0</v>
       </c>
       <c r="K238" t="n">
-        <v>2.98169144991408</v>
+        <v>2.430683</v>
       </c>
       <c r="L238" t="n">
-        <v>32.6699747048008</v>
+        <v>17.37058</v>
       </c>
       <c r="M238" t="n">
-        <v>4.36816380033575</v>
+        <v>1.667842</v>
       </c>
       <c r="N238" t="n">
-        <v>5.73442468620831</v>
+        <v>4.115672</v>
       </c>
       <c r="O238" t="n">
-        <v>594.062527300933</v>
+        <v>518.7833</v>
       </c>
       <c r="P238" t="n">
-        <v>33.6067076994382</v>
-      </c>
-      <c r="Q238" t="n">
-        <v>531.194835733093</v>
+        <v>7.9132</v>
       </c>
     </row>
     <row r="239">
@@ -13061,25 +12331,22 @@
         <v>0</v>
       </c>
       <c r="K239" t="n">
-        <v>2.9337303738261</v>
+        <v>2.391585</v>
       </c>
       <c r="L239" t="n">
-        <v>38.4168206942982</v>
+        <v>20.42617</v>
       </c>
       <c r="M239" t="n">
-        <v>4.18271663315183</v>
+        <v>1.597035</v>
       </c>
       <c r="N239" t="n">
-        <v>5.21415415688683</v>
+        <v>3.742267</v>
       </c>
       <c r="O239" t="n">
-        <v>622.376335096577</v>
+        <v>543.5092</v>
       </c>
       <c r="P239" t="n">
-        <v>29.6965642819944</v>
-      </c>
-      <c r="Q239" t="n">
-        <v>542.189654735147</v>
+        <v>5.326933</v>
       </c>
     </row>
     <row r="240">
@@ -13114,25 +12381,22 @@
         <v>0</v>
       </c>
       <c r="K240" t="n">
-        <v>2.19733686043998</v>
+        <v>1.791275</v>
       </c>
       <c r="L240" t="n">
-        <v>41.4312164115465</v>
+        <v>22.02892</v>
       </c>
       <c r="M240" t="n">
-        <v>4.70824761491387</v>
+        <v>1.797692</v>
       </c>
       <c r="N240" t="n">
-        <v>3.18967682669323</v>
+        <v>2.289273</v>
       </c>
       <c r="O240" t="n">
-        <v>649.062029378706</v>
+        <v>566.8133</v>
       </c>
       <c r="P240" t="n">
-        <v>24.9867312453648</v>
-      </c>
-      <c r="Q240" t="n">
-        <v>560.008597361908</v>
+        <v>4.62635</v>
       </c>
     </row>
     <row r="241">
@@ -13167,25 +12431,22 @@
         <v>0</v>
       </c>
       <c r="K241" t="n">
-        <v>1.97069017004042</v>
+        <v>1.606512</v>
       </c>
       <c r="L241" t="n">
-        <v>38.9844919214621</v>
+        <v>20.728</v>
       </c>
       <c r="M241" t="n">
-        <v>4.49882827095032</v>
+        <v>1.717732</v>
       </c>
       <c r="N241" t="n">
-        <v>3.49565561538552</v>
+        <v>2.508878</v>
       </c>
       <c r="O241" t="n">
-        <v>650.498108403393</v>
+        <v>568.0674</v>
       </c>
       <c r="P241" t="n">
-        <v>19.9954901746197</v>
-      </c>
-      <c r="Q241" t="n">
-        <v>579.427340724986</v>
+        <v>5.3708</v>
       </c>
     </row>
     <row r="242">
@@ -13220,25 +12481,22 @@
         <v>0</v>
       </c>
       <c r="K242" t="n">
-        <v>1.11221205518475</v>
+        <v>0.9066783</v>
       </c>
       <c r="L242" t="n">
-        <v>34.8363147846357</v>
+        <v>18.52242</v>
       </c>
       <c r="M242" t="n">
-        <v>3.77796058420037</v>
+        <v>1.442492</v>
       </c>
       <c r="N242" t="n">
-        <v>3.07576920204005</v>
+        <v>2.20752</v>
       </c>
       <c r="O242" t="n">
-        <v>640.30963099788</v>
+        <v>559.17</v>
       </c>
       <c r="P242" t="n">
-        <v>16.2101947449777</v>
-      </c>
-      <c r="Q242" t="n">
-        <v>596.673142850317</v>
+        <v>5.943358</v>
       </c>
     </row>
     <row r="243">
@@ -13273,25 +12531,22 @@
         <v>0</v>
       </c>
       <c r="K243" t="n">
-        <v>2.25577508499763</v>
+        <v>1.838914</v>
       </c>
       <c r="L243" t="n">
-        <v>39.8479134069554</v>
+        <v>21.18708</v>
       </c>
       <c r="M243" t="n">
-        <v>5.13546988613295</v>
+        <v>1.960813</v>
       </c>
       <c r="N243" t="n">
-        <v>2.96467328566119</v>
+        <v>2.127785</v>
       </c>
       <c r="O243" t="n">
-        <v>774.022776075325</v>
+        <v>675.9391</v>
       </c>
       <c r="P243" t="n">
-        <v>13.0882435165801</v>
-      </c>
-      <c r="Q243" t="n">
-        <v>631.044482210166</v>
+        <v>3.273391</v>
       </c>
     </row>
     <row r="244">
@@ -13326,25 +12581,22 @@
         <v>0</v>
       </c>
       <c r="K244" t="n">
-        <v>2.45147855210395</v>
+        <v>1.998452</v>
       </c>
       <c r="L244" t="n">
-        <v>38.9888741033503</v>
+        <v>20.73033</v>
       </c>
       <c r="M244" t="n">
-        <v>3.88608811816154</v>
+        <v>1.483777</v>
       </c>
       <c r="N244" t="n">
-        <v>2.83557574841803</v>
+        <v>2.03513</v>
       </c>
       <c r="O244" t="n">
-        <v>706.235288583154</v>
+        <v>616.7416</v>
       </c>
       <c r="P244" t="n">
-        <v>10.6772774249124</v>
-      </c>
-      <c r="Q244" t="n">
-        <v>652.706805615581</v>
+        <v>2.441566</v>
       </c>
     </row>
     <row r="245">
@@ -13379,25 +12631,22 @@
         <v>0</v>
       </c>
       <c r="K245" t="n">
-        <v>1.38882999649926</v>
+        <v>1.132178</v>
       </c>
       <c r="L245" t="n">
-        <v>29.8899034688577</v>
+        <v>15.89242</v>
       </c>
       <c r="M245" t="n">
-        <v>3.82769636886605</v>
+        <v>1.461482</v>
       </c>
       <c r="N245" t="n">
-        <v>2.08108490391456</v>
+        <v>1.493622</v>
       </c>
       <c r="O245" t="n">
-        <v>648.836786779108</v>
+        <v>566.6166</v>
       </c>
       <c r="P245" t="n">
-        <v>9.94129276664405</v>
-      </c>
-      <c r="Q245" t="n">
-        <v>660.675435326885</v>
+        <v>5.635033</v>
       </c>
     </row>
     <row r="246">
@@ -13432,25 +12681,22 @@
         <v>0</v>
       </c>
       <c r="K246" t="n">
-        <v>3.37084373023522</v>
+        <v>2.747921</v>
       </c>
       <c r="L246" t="n">
-        <v>32.7674735498997</v>
+        <v>17.42242</v>
       </c>
       <c r="M246" t="n">
-        <v>4.56324121924246</v>
+        <v>1.742326</v>
       </c>
       <c r="N246" t="n">
-        <v>1.86282361082078</v>
+        <v>1.336973</v>
       </c>
       <c r="O246" t="n">
-        <v>695.601135428971</v>
+        <v>607.455</v>
       </c>
       <c r="P246" t="n">
-        <v>9.0139253814907</v>
-      </c>
-      <c r="Q246" t="n">
-        <v>673.367761342889</v>
+        <v>4.132325</v>
       </c>
     </row>
     <row r="247">
@@ -13485,25 +12731,22 @@
         <v>0</v>
       </c>
       <c r="K247" t="n">
-        <v>2.7930169092486</v>
+        <v>2.276875</v>
       </c>
       <c r="L247" t="n">
-        <v>29.9941166441457</v>
+        <v>15.94783</v>
       </c>
       <c r="M247" t="n">
-        <v>4.44548081450719</v>
+        <v>1.697363</v>
       </c>
       <c r="N247" t="n">
-        <v>2.30519672378923</v>
+        <v>1.65447</v>
       </c>
       <c r="O247" t="n">
-        <v>627.336481738261</v>
+        <v>547.8408</v>
       </c>
       <c r="P247" t="n">
-        <v>9.09593228896236</v>
-      </c>
-      <c r="Q247" t="n">
-        <v>673.9877796731</v>
+        <v>5.661275</v>
       </c>
     </row>
     <row r="248">
@@ -13538,25 +12781,22 @@
         <v>0</v>
       </c>
       <c r="K248" t="n">
-        <v>4.6566858474557</v>
+        <v>3.796143</v>
       </c>
       <c r="L248" t="n">
-        <v>33.0987890698188</v>
+        <v>17.59858</v>
       </c>
       <c r="M248" t="n">
-        <v>4.58067362486304</v>
+        <v>1.748982</v>
       </c>
       <c r="N248" t="n">
-        <v>1.26447244431471</v>
+        <v>0.9075285</v>
       </c>
       <c r="O248" t="n">
-        <v>683.367496442969</v>
+        <v>596.7716</v>
       </c>
       <c r="P248" t="n">
-        <v>8.88877619167909</v>
-      </c>
-      <c r="Q248" t="n">
-        <v>678.275963056133</v>
+        <v>3.781775</v>
       </c>
     </row>
     <row r="249">
@@ -13591,25 +12831,22 @@
         <v>0.06</v>
       </c>
       <c r="K249" t="n">
-        <v>17.9069445216185</v>
+        <v>14.59779</v>
       </c>
       <c r="L249" t="n">
-        <v>38.7124016837992</v>
+        <v>20.58333</v>
       </c>
       <c r="M249" t="n">
-        <v>4.91405528709995</v>
+        <v>1.876273</v>
       </c>
       <c r="N249" t="n">
-        <v>2.30275424380664</v>
+        <v>1.652717</v>
       </c>
       <c r="O249" t="n">
-        <v>807.273828367295</v>
+        <v>704.9766</v>
       </c>
       <c r="P249" t="n">
-        <v>8.22956591443619</v>
-      </c>
-      <c r="Q249" t="n">
-        <v>697.87292805162</v>
+        <v>2.683201</v>
       </c>
     </row>
     <row r="250">
@@ -13644,25 +12881,22 @@
         <v>0.305</v>
       </c>
       <c r="K250" t="n">
-        <v>21.2665873570315</v>
+        <v>17.33658</v>
       </c>
       <c r="L250" t="n">
-        <v>42.4842754076747</v>
+        <v>22.58883</v>
       </c>
       <c r="M250" t="n">
-        <v>5.22465382185889</v>
+        <v>1.994865</v>
       </c>
       <c r="N250" t="n">
-        <v>2.62413194223517</v>
+        <v>1.883374</v>
       </c>
       <c r="O250" t="n">
-        <v>861.450799894527</v>
+        <v>752.2883</v>
       </c>
       <c r="P250" t="n">
-        <v>8.25930397150255</v>
-      </c>
-      <c r="Q250" t="n">
-        <v>725.515574163701</v>
+        <v>6.0646</v>
       </c>
     </row>
     <row r="251">
@@ -13697,25 +12931,22 @@
         <v>0.528</v>
       </c>
       <c r="K251" t="n">
-        <v>27.7656946671477</v>
+        <v>22.63467</v>
       </c>
       <c r="L251" t="n">
-        <v>50.0867967541399</v>
+        <v>26.63108</v>
       </c>
       <c r="M251" t="n">
-        <v>6.38417855791378</v>
+        <v>2.437592</v>
       </c>
       <c r="N251" t="n">
-        <v>1.91014335136206</v>
+        <v>1.370935</v>
       </c>
       <c r="O251" t="n">
-        <v>914.390139486601</v>
+        <v>798.5192</v>
       </c>
       <c r="P251" t="n">
-        <v>9.7980915690796</v>
-      </c>
-      <c r="Q251" t="n">
-        <v>743.061494590111</v>
+        <v>9.547025</v>
       </c>
     </row>
     <row r="252">
@@ -13750,25 +12981,22 @@
         <v>0.709</v>
       </c>
       <c r="K252" t="n">
-        <v>11.3970717911803</v>
+        <v>9.290924</v>
       </c>
       <c r="L252" t="n">
-        <v>28.504720223964</v>
+        <v>15.15592</v>
       </c>
       <c r="M252" t="n">
-        <v>5.92775386441864</v>
+        <v>2.263321</v>
       </c>
       <c r="N252" t="n">
-        <v>3.4280673316002</v>
+        <v>2.460369</v>
       </c>
       <c r="O252" t="n">
-        <v>686.572995218032</v>
+        <v>599.5709</v>
       </c>
       <c r="P252" t="n">
-        <v>12.9973852435309</v>
-      </c>
-      <c r="Q252" t="n">
-        <v>740.60370791947</v>
+        <v>15.48508</v>
       </c>
     </row>
     <row r="253">
@@ -13803,25 +13031,22 @@
         <v>0.823</v>
       </c>
       <c r="K253" t="n">
-        <v>7.8444291106288</v>
+        <v>6.3948</v>
       </c>
       <c r="L253" t="n">
-        <v>25.1574291443991</v>
+        <v>13.37617</v>
       </c>
       <c r="M253" t="n">
-        <v>9.46114743587119</v>
+        <v>3.612433</v>
       </c>
       <c r="N253" t="n">
-        <v>8.50511518059929</v>
+        <v>6.104233</v>
       </c>
       <c r="O253" t="n">
-        <v>648.50195741397</v>
+        <v>566.3242</v>
       </c>
       <c r="P253" t="n">
-        <v>16.3149946485151</v>
-      </c>
-      <c r="Q253" t="n">
-        <v>740.561854248828</v>
+        <v>19.16092</v>
       </c>
     </row>
     <row r="254">
@@ -13856,25 +13081,22 @@
         <v>0.865</v>
       </c>
       <c r="K254" t="n">
-        <v>4.44283106716524</v>
+        <v>3.621808</v>
       </c>
       <c r="L254" t="n">
-        <v>16.8571515954592</v>
+        <v>8.962924</v>
       </c>
       <c r="M254" t="n">
-        <v>9.15912891325363</v>
+        <v>3.497117</v>
       </c>
       <c r="N254" t="n">
-        <v>5.86729253196996</v>
+        <v>4.211033</v>
       </c>
       <c r="O254" t="n">
-        <v>574.985040217533</v>
+        <v>502.1233</v>
       </c>
       <c r="P254" t="n">
-        <v>20.5754222678108</v>
-      </c>
-      <c r="Q254" t="n">
-        <v>725.484842347399</v>
+        <v>21.50208</v>
       </c>
     </row>
     <row r="255">
@@ -13909,25 +13131,22 @@
         <v>0.829</v>
       </c>
       <c r="K255" t="n">
-        <v>3.20537814040059</v>
+        <v>2.613033</v>
       </c>
       <c r="L255" t="n">
-        <v>13.8124924924762</v>
+        <v>7.344083</v>
       </c>
       <c r="M255" t="n">
-        <v>8.23438379514427</v>
+        <v>3.144033</v>
       </c>
       <c r="N255" t="n">
-        <v>4.20762111388285</v>
+        <v>3.019865</v>
       </c>
       <c r="O255" t="n">
-        <v>553.034249977491</v>
+        <v>482.9541</v>
       </c>
       <c r="P255" t="n">
-        <v>24.6351433882342</v>
-      </c>
-      <c r="Q255" t="n">
-        <v>716.197063377302</v>
+        <v>22.21275</v>
       </c>
     </row>
     <row r="256">
@@ -13962,25 +13181,22 @@
         <v>0.731</v>
       </c>
       <c r="K256" t="n">
-        <v>3.06109869167587</v>
+        <v>2.495416</v>
       </c>
       <c r="L256" t="n">
-        <v>13.3163147760905</v>
+        <v>7.080266</v>
       </c>
       <c r="M256" t="n">
-        <v>6.80992630323676</v>
+        <v>2.60015</v>
       </c>
       <c r="N256" t="n">
-        <v>4.21628056230945</v>
+        <v>3.02608</v>
       </c>
       <c r="O256" t="n">
-        <v>554.03347057947</v>
+        <v>483.8267</v>
       </c>
       <c r="P256" t="n">
-        <v>29.3871631021302</v>
-      </c>
-      <c r="Q256" t="n">
-        <v>700.030310144365</v>
+        <v>23.15575</v>
       </c>
     </row>
     <row r="257">
@@ -14015,25 +13231,22 @@
         <v>0.568</v>
       </c>
       <c r="K257" t="n">
-        <v>3.56856019355261</v>
+        <v>2.9091</v>
       </c>
       <c r="L257" t="n">
-        <v>14.501824749596</v>
+        <v>7.7106</v>
       </c>
       <c r="M257" t="n">
-        <v>6.82129298598816</v>
+        <v>2.60449</v>
       </c>
       <c r="N257" t="n">
-        <v>3.5173118996807</v>
+        <v>2.524421</v>
       </c>
       <c r="O257" t="n">
-        <v>550.790870328926</v>
+        <v>480.995</v>
       </c>
       <c r="P257" t="n">
-        <v>34.0434393309003</v>
-      </c>
-      <c r="Q257" t="n">
-        <v>667.969940389569</v>
+        <v>21.66683</v>
       </c>
     </row>
     <row r="258">
@@ -14068,25 +13281,22 @@
         <v>0.348</v>
       </c>
       <c r="K258" t="n">
-        <v>3.5161695444493</v>
+        <v>2.866391</v>
       </c>
       <c r="L258" t="n">
-        <v>13.4401800623436</v>
+        <v>7.146125</v>
       </c>
       <c r="M258" t="n">
-        <v>6.45769009050968</v>
+        <v>2.46566</v>
       </c>
       <c r="N258" t="n">
-        <v>4.7170976372573</v>
+        <v>3.385523</v>
       </c>
       <c r="O258" t="n">
-        <v>529.446070855062</v>
+        <v>462.355</v>
       </c>
       <c r="P258" t="n">
-        <v>37.0592784157338</v>
-      </c>
-      <c r="Q258" t="n">
-        <v>626.469349259636</v>
+        <v>18.36017</v>
       </c>
     </row>
     <row r="259">
@@ -14121,25 +13331,22 @@
         <v>0.131</v>
       </c>
       <c r="K259" t="n">
-        <v>3.33284336666028</v>
+        <v>2.716943</v>
       </c>
       <c r="L259" t="n">
-        <v>12.6804131650049</v>
+        <v>6.742158</v>
       </c>
       <c r="M259" t="n">
-        <v>5.05916906387569</v>
+        <v>1.93168</v>
       </c>
       <c r="N259" t="n">
-        <v>5.46348635905753</v>
+        <v>3.921216</v>
       </c>
       <c r="O259" t="n">
-        <v>519.561848450633</v>
+        <v>453.7233</v>
       </c>
       <c r="P259" t="n">
-        <v>38.4419881845471</v>
-      </c>
-      <c r="Q259" t="n">
-        <v>577.11581288014</v>
+        <v>15.18433</v>
       </c>
     </row>
     <row r="260">
@@ -14174,25 +13381,22 @@
         <v>0</v>
       </c>
       <c r="K260" t="n">
-        <v>2.72939837817094</v>
+        <v>2.225013</v>
       </c>
       <c r="L260" t="n">
-        <v>15.7243989542042</v>
+        <v>8.360641</v>
       </c>
       <c r="M260" t="n">
-        <v>4.35899712069753</v>
+        <v>1.664342</v>
       </c>
       <c r="N260" t="n">
-        <v>6.03521059247326</v>
+        <v>4.33155</v>
       </c>
       <c r="O260" t="n">
-        <v>546.628405410069</v>
+        <v>477.36</v>
       </c>
       <c r="P260" t="n">
-        <v>37.6375776898862</v>
-      </c>
-      <c r="Q260" t="n">
-        <v>559.622739154144</v>
+        <v>12.2055</v>
       </c>
     </row>
     <row r="261">
@@ -14227,25 +13431,22 @@
         <v>0</v>
       </c>
       <c r="K261" t="n">
-        <v>3.10162235397487</v>
+        <v>2.528451</v>
       </c>
       <c r="L261" t="n">
-        <v>22.7648330640745</v>
+        <v>12.10403</v>
       </c>
       <c r="M261" t="n">
-        <v>4.54366642963787</v>
+        <v>1.734852</v>
       </c>
       <c r="N261" t="n">
-        <v>3.97335203270007</v>
+        <v>2.851727</v>
       </c>
       <c r="O261" t="n">
-        <v>592.030992496932</v>
+        <v>517.0092</v>
       </c>
       <c r="P261" t="n">
-        <v>35.2881806738739</v>
-      </c>
-      <c r="Q261" t="n">
-        <v>552.563868539514</v>
+        <v>9.582433</v>
       </c>
     </row>
     <row r="262">
@@ -14280,25 +13481,22 @@
         <v>0</v>
       </c>
       <c r="K262" t="n">
-        <v>3.11636347248091</v>
+        <v>2.540468</v>
       </c>
       <c r="L262" t="n">
-        <v>28.1443845038158</v>
+        <v>14.96433</v>
       </c>
       <c r="M262" t="n">
-        <v>4.05928074419483</v>
+        <v>1.549905</v>
       </c>
       <c r="N262" t="n">
-        <v>4.33529747053146</v>
+        <v>3.1115</v>
       </c>
       <c r="O262" t="n">
-        <v>617.462794320698</v>
+        <v>539.2183</v>
       </c>
       <c r="P262" t="n">
-        <v>31.9410392457714</v>
-      </c>
-      <c r="Q262" t="n">
-        <v>557.87358780241</v>
+        <v>7.855791</v>
       </c>
     </row>
     <row r="263">
@@ -14333,25 +13531,22 @@
         <v>0</v>
       </c>
       <c r="K263" t="n">
-        <v>1.86594689918453</v>
+        <v>1.521125</v>
       </c>
       <c r="L263" t="n">
-        <v>27.5320451136291</v>
+        <v>14.63875</v>
       </c>
       <c r="M263" t="n">
-        <v>4.21666477642916</v>
+        <v>1.609997</v>
       </c>
       <c r="N263" t="n">
-        <v>4.09324533562206</v>
+        <v>2.937776</v>
       </c>
       <c r="O263" t="n">
-        <v>621.155765259711</v>
+        <v>542.4433</v>
       </c>
       <c r="P263" t="n">
-        <v>28.4098626538189</v>
-      </c>
-      <c r="Q263" t="n">
-        <v>566.388777212688</v>
+        <v>7.81615</v>
       </c>
     </row>
     <row r="264">
@@ -14386,25 +13581,22 @@
         <v>0</v>
       </c>
       <c r="K264" t="n">
-        <v>3.04440959146162</v>
+        <v>2.481811</v>
       </c>
       <c r="L264" t="n">
-        <v>26.2895178756942</v>
+        <v>13.9781</v>
       </c>
       <c r="M264" t="n">
-        <v>3.92100792948052</v>
+        <v>1.49711</v>
       </c>
       <c r="N264" t="n">
-        <v>3.1413343934496</v>
+        <v>2.254577</v>
       </c>
       <c r="O264" t="n">
-        <v>641.440424424943</v>
+        <v>560.1575</v>
       </c>
       <c r="P264" t="n">
-        <v>24.4918592865335</v>
-      </c>
-      <c r="Q264" t="n">
-        <v>577.314646443372</v>
+        <v>7.182058</v>
       </c>
     </row>
     <row r="265">
@@ -14439,387 +13631,22 @@
         <v>0</v>
       </c>
       <c r="K265" t="n">
-        <v>2.77666024168103</v>
+        <v>2.263541</v>
       </c>
       <c r="L265" t="n">
-        <v>22.7685381706494</v>
+        <v>12.106</v>
       </c>
       <c r="M265" t="n">
-        <v>3.88626621365166</v>
+        <v>1.483845</v>
       </c>
       <c r="N265" t="n">
-        <v>2.90283660334087</v>
+        <v>2.083404</v>
       </c>
       <c r="O265" t="n">
-        <v>631.204081535631</v>
+        <v>551.2183</v>
       </c>
       <c r="P265" t="n">
-        <v>20.8551238993347</v>
-      </c>
-      <c r="Q265" t="n">
-        <v>587.36629784421</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="n">
-        <v>13.3167526086957</v>
-      </c>
-      <c r="C2" t="n">
-        <v>29.176872173913</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.0289278994225</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.35419116151577</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.11732732086426</v>
-      </c>
-      <c r="G2" t="n">
-        <v>255.097130137622</v>
-      </c>
-      <c r="H2" t="n">
-        <v>253.681613824234</v>
-      </c>
-      <c r="I2" t="n">
-        <v>41.690989020649</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="n">
-        <v>20.2624695833333</v>
-      </c>
-      <c r="C3" t="n">
-        <v>43.3919208333333</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28.5607745368368</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.81799612339106</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.17255560630754</v>
-      </c>
-      <c r="G3" t="n">
-        <v>321.422053228254</v>
-      </c>
-      <c r="H3" t="n">
-        <v>317.35709717531</v>
-      </c>
-      <c r="I3" t="n">
-        <v>48.5561897912868</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="n">
-        <v>21.589685</v>
-      </c>
-      <c r="C4" t="n">
-        <v>44.3492208333333</v>
-      </c>
-      <c r="D4" t="n">
-        <v>28.4016713987922</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5.05790187954285</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.03314349676538</v>
-      </c>
-      <c r="G4" t="n">
-        <v>352.282460305726</v>
-      </c>
-      <c r="H4" t="n">
-        <v>342.200911466225</v>
-      </c>
-      <c r="I4" t="n">
-        <v>45.870821800853</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="n">
-        <v>20.3387704166667</v>
-      </c>
-      <c r="C5" t="n">
-        <v>43.8501833333333</v>
-      </c>
-      <c r="D5" t="n">
-        <v>36.4180507203566</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.45917469935891</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.84155175597247</v>
-      </c>
-      <c r="G5" t="n">
-        <v>450.813954721585</v>
-      </c>
-      <c r="H5" t="n">
-        <v>436.982159301734</v>
-      </c>
-      <c r="I5" t="n">
-        <v>44.1707719226538</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="n">
-        <v>17.4577916666667</v>
-      </c>
-      <c r="C6" t="n">
-        <v>43.6221958333333</v>
-      </c>
-      <c r="D6" t="n">
-        <v>32.7096625243769</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.91643218530472</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.70526804222685</v>
-      </c>
-      <c r="G6" t="n">
-        <v>435.073305445598</v>
-      </c>
-      <c r="H6" t="n">
-        <v>438.449197971357</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40.1498673527742</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="n">
-        <v>19.1201375</v>
-      </c>
-      <c r="C7" t="n">
-        <v>48.2323083333333</v>
-      </c>
-      <c r="D7" t="n">
-        <v>32.1664389664872</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5.34814100057101</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4.74768245380489</v>
-      </c>
-      <c r="G7" t="n">
-        <v>459.025452141852</v>
-      </c>
-      <c r="H7" t="n">
-        <v>453.655516936146</v>
-      </c>
-      <c r="I7" t="n">
-        <v>40.4897154445977</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="n">
-        <v>21.65585</v>
-      </c>
-      <c r="C8" t="n">
-        <v>55.6482833333333</v>
-      </c>
-      <c r="D8" t="n">
-        <v>35.0489567126881</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.58764385932727</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.85598792035447</v>
-      </c>
-      <c r="G8" t="n">
-        <v>533.048683288077</v>
-      </c>
-      <c r="H8" t="n">
-        <v>535.701899809877</v>
-      </c>
-      <c r="I8" t="n">
-        <v>41.2092767444172</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="n">
-        <v>16.718735</v>
-      </c>
-      <c r="C9" t="n">
-        <v>38.2199208333333</v>
-      </c>
-      <c r="D9" t="n">
-        <v>29.4503150645535</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.94813405556213</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4.08123951777721</v>
-      </c>
-      <c r="G9" t="n">
-        <v>522.972650644993</v>
-      </c>
-      <c r="H9" t="n">
-        <v>509.829253755137</v>
-      </c>
-      <c r="I9" t="n">
-        <v>38.0671216799017</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="n">
-        <v>20.4786958333333</v>
-      </c>
-      <c r="C10" t="n">
-        <v>44.853925</v>
-      </c>
-      <c r="D10" t="n">
-        <v>35.3531348346322</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.30961737462855</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4.37916771317377</v>
-      </c>
-      <c r="G10" t="n">
-        <v>626.822190207841</v>
-      </c>
-      <c r="H10" t="n">
-        <v>629.092361191605</v>
-      </c>
-      <c r="I10" t="n">
-        <v>38.2228097611136</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="n">
-        <v>21.9866</v>
-      </c>
-      <c r="C11" t="n">
-        <v>46.3554416666667</v>
-      </c>
-      <c r="D11" t="n">
-        <v>30.5818413688205</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4.79485658667858</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3.10749559583335</v>
-      </c>
-      <c r="G11" t="n">
-        <v>614.583923079965</v>
-      </c>
-      <c r="H11" t="n">
-        <v>603.04866533513</v>
-      </c>
-      <c r="I11" t="n">
-        <v>38.1761626941494</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="n">
-        <v>19.7295125</v>
-      </c>
-      <c r="C12" t="n">
-        <v>44.6969833333333</v>
-      </c>
-      <c r="D12" t="n">
-        <v>27.1750459485282</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5.40232808121816</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3.65125727086821</v>
-      </c>
-      <c r="G12" t="n">
-        <v>651.069722095133</v>
-      </c>
-      <c r="H12" t="n">
-        <v>651.197673518481</v>
-      </c>
-      <c r="I12" t="n">
-        <v>38.4419881845471</v>
+        <v>6.839867</v>
       </c>
     </row>
   </sheetData>
